--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -811,6 +811,9 @@
     <t>['2', '43']</t>
   </si>
   <si>
+    <t>['23', '86']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1566,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1825,7 +1828,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2031,7 +2034,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2237,7 +2240,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2649,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2855,7 +2858,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3142,7 +3145,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ8">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3551,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
         <v>1.47</v>
@@ -3885,7 +3888,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4297,7 +4300,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4709,7 +4712,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5327,7 +5330,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5533,7 +5536,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5945,7 +5948,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6026,7 +6029,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ22">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>1.21</v>
@@ -6151,7 +6154,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6357,7 +6360,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6563,7 +6566,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6975,7 +6978,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7181,7 +7184,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7799,7 +7802,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8289,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
         <v>0.21</v>
@@ -8417,7 +8420,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8623,7 +8626,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -9447,7 +9450,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9653,7 +9656,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9731,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>1.57</v>
@@ -10477,7 +10480,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10558,7 +10561,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ44">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -10683,7 +10686,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10889,7 +10892,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11713,7 +11716,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11919,7 +11922,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12125,7 +12128,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12331,7 +12334,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12537,7 +12540,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13155,7 +13158,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13567,7 +13570,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13645,7 +13648,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
         <v>1.29</v>
@@ -13854,7 +13857,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ60">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.79</v>
@@ -14185,7 +14188,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14391,7 +14394,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14597,7 +14600,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -15215,7 +15218,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15421,7 +15424,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15627,7 +15630,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15833,7 +15836,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -16039,7 +16042,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16245,7 +16248,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16451,7 +16454,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16735,7 +16738,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74">
         <v>1.21</v>
@@ -16863,7 +16866,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17069,7 +17072,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17275,7 +17278,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17481,7 +17484,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17687,7 +17690,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17974,7 +17977,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ80">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR80">
         <v>1.34</v>
@@ -18305,7 +18308,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -20159,7 +20162,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20365,7 +20368,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20571,7 +20574,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20777,7 +20780,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20858,7 +20861,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.78</v>
@@ -20983,7 +20986,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21189,7 +21192,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21395,7 +21398,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21473,7 +21476,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
         <v>1.29</v>
@@ -21807,7 +21810,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22219,7 +22222,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22631,7 +22634,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23661,7 +23664,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -24073,7 +24076,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24357,7 +24360,7 @@
         <v>0.17</v>
       </c>
       <c r="AP111">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ111">
         <v>0.4</v>
@@ -24772,7 +24775,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ113">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR113">
         <v>2.24</v>
@@ -24897,7 +24900,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25103,7 +25106,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25515,7 +25518,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25721,7 +25724,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26545,7 +26548,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26751,7 +26754,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27575,7 +27578,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27987,7 +27990,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28193,7 +28196,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28605,7 +28608,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28811,7 +28814,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29098,7 +29101,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ134">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -29301,7 +29304,7 @@
         <v>1.29</v>
       </c>
       <c r="AP135">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135">
         <v>1.14</v>
@@ -29635,7 +29638,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29841,7 +29844,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -30253,7 +30256,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30334,7 +30337,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ140">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR140">
         <v>1.36</v>
@@ -31489,7 +31492,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31901,7 +31904,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32107,7 +32110,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32313,7 +32316,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32391,7 +32394,7 @@
         <v>2.63</v>
       </c>
       <c r="AP150">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ150">
         <v>1.8</v>
@@ -32519,7 +32522,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32725,7 +32728,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32931,7 +32934,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33755,7 +33758,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33961,7 +33964,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34039,7 +34042,7 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ158">
         <v>1.13</v>
@@ -34454,7 +34457,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ160">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34991,7 +34994,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35403,7 +35406,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35815,7 +35818,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -36021,7 +36024,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36433,7 +36436,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -37051,7 +37054,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37257,7 +37260,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37463,7 +37466,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37875,7 +37878,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38159,7 +38162,7 @@
         <v>0.9</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ178">
         <v>1.4</v>
@@ -38493,7 +38496,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38574,7 +38577,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ180">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR180">
         <v>1.22</v>
@@ -38699,7 +38702,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38905,7 +38908,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39523,7 +39526,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39729,7 +39732,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -40141,7 +40144,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40553,7 +40556,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40759,7 +40762,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40965,7 +40968,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41252,7 +41255,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ193">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR193">
         <v>1.6</v>
@@ -41377,7 +41380,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41583,7 +41586,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41789,7 +41792,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42201,7 +42204,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42407,7 +42410,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -42485,7 +42488,7 @@
         <v>1.4</v>
       </c>
       <c r="AP199">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ199">
         <v>1.33</v>
@@ -42691,7 +42694,7 @@
         <v>1.2</v>
       </c>
       <c r="AP200">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ200">
         <v>1.14</v>
@@ -43025,7 +43028,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -44055,7 +44058,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44261,7 +44264,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44673,7 +44676,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44879,7 +44882,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45291,7 +45294,7 @@
         <v>240</v>
       </c>
       <c r="P213" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q213">
         <v>2.2</v>
@@ -45497,7 +45500,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45703,7 +45706,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46196,7 +46199,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ217">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR217">
         <v>1.76</v>
@@ -46527,7 +46530,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46605,7 +46608,7 @@
         <v>2.5</v>
       </c>
       <c r="AP219">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ219">
         <v>2.57</v>
@@ -46939,7 +46942,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47351,7 +47354,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47557,7 +47560,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47969,7 +47972,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48175,7 +48178,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48587,7 +48590,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -48999,7 +49002,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49411,7 +49414,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49617,7 +49620,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -50029,7 +50032,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50441,7 +50444,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50647,7 +50650,7 @@
         <v>251</v>
       </c>
       <c r="P239" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q239">
         <v>2.4</v>
@@ -50853,7 +50856,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51265,7 +51268,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51346,7 +51349,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ242">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR242">
         <v>1.21</v>
@@ -51471,7 +51474,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51883,7 +51886,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -51964,7 +51967,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR245">
         <v>1.74</v>
@@ -52295,7 +52298,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52501,7 +52504,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53197,7 +53200,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP251">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ251">
         <v>0.86</v>
@@ -53325,7 +53328,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53531,7 +53534,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53737,7 +53740,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -54149,7 +54152,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54355,7 +54358,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54561,7 +54564,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54973,7 +54976,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55179,7 +55182,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55336,6 +55339,212 @@
       </c>
       <c r="BP261">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7468624</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45765.65625</v>
+      </c>
+      <c r="F262">
+        <v>30</v>
+      </c>
+      <c r="G262" t="s">
+        <v>78</v>
+      </c>
+      <c r="H262" t="s">
+        <v>85</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>3</v>
+      </c>
+      <c r="O262" t="s">
+        <v>265</v>
+      </c>
+      <c r="P262" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q262">
+        <v>2.4</v>
+      </c>
+      <c r="R262">
+        <v>2.2</v>
+      </c>
+      <c r="S262">
+        <v>4.75</v>
+      </c>
+      <c r="T262">
+        <v>1.4</v>
+      </c>
+      <c r="U262">
+        <v>2.75</v>
+      </c>
+      <c r="V262">
+        <v>2.75</v>
+      </c>
+      <c r="W262">
+        <v>1.4</v>
+      </c>
+      <c r="X262">
+        <v>8</v>
+      </c>
+      <c r="Y262">
+        <v>1.08</v>
+      </c>
+      <c r="Z262">
+        <v>1.81</v>
+      </c>
+      <c r="AA262">
+        <v>3.81</v>
+      </c>
+      <c r="AB262">
+        <v>4.6</v>
+      </c>
+      <c r="AC262">
+        <v>1.05</v>
+      </c>
+      <c r="AD262">
+        <v>9</v>
+      </c>
+      <c r="AE262">
+        <v>1.3</v>
+      </c>
+      <c r="AF262">
+        <v>3.45</v>
+      </c>
+      <c r="AG262">
+        <v>1.93</v>
+      </c>
+      <c r="AH262">
+        <v>1.88</v>
+      </c>
+      <c r="AI262">
+        <v>1.8</v>
+      </c>
+      <c r="AJ262">
+        <v>1.95</v>
+      </c>
+      <c r="AK262">
+        <v>1.2</v>
+      </c>
+      <c r="AL262">
+        <v>1.27</v>
+      </c>
+      <c r="AM262">
+        <v>1.98</v>
+      </c>
+      <c r="AN262">
+        <v>1.47</v>
+      </c>
+      <c r="AO262">
+        <v>0.93</v>
+      </c>
+      <c r="AP262">
+        <v>1.56</v>
+      </c>
+      <c r="AQ262">
+        <v>0.88</v>
+      </c>
+      <c r="AR262">
+        <v>1.64</v>
+      </c>
+      <c r="AS262">
+        <v>1.1</v>
+      </c>
+      <c r="AT262">
+        <v>2.74</v>
+      </c>
+      <c r="AU262">
+        <v>7</v>
+      </c>
+      <c r="AV262">
+        <v>2</v>
+      </c>
+      <c r="AW262">
+        <v>14</v>
+      </c>
+      <c r="AX262">
+        <v>3</v>
+      </c>
+      <c r="AY262">
+        <v>23</v>
+      </c>
+      <c r="AZ262">
+        <v>6</v>
+      </c>
+      <c r="BA262">
+        <v>10</v>
+      </c>
+      <c r="BB262">
+        <v>2</v>
+      </c>
+      <c r="BC262">
+        <v>12</v>
+      </c>
+      <c r="BD262">
+        <v>1.48</v>
+      </c>
+      <c r="BE262">
+        <v>6.75</v>
+      </c>
+      <c r="BF262">
+        <v>2.95</v>
+      </c>
+      <c r="BG262">
+        <v>1.28</v>
+      </c>
+      <c r="BH262">
+        <v>3.25</v>
+      </c>
+      <c r="BI262">
+        <v>1.48</v>
+      </c>
+      <c r="BJ262">
+        <v>2.43</v>
+      </c>
+      <c r="BK262">
+        <v>1.79</v>
+      </c>
+      <c r="BL262">
+        <v>1.9</v>
+      </c>
+      <c r="BM262">
+        <v>2.23</v>
+      </c>
+      <c r="BN262">
+        <v>1.56</v>
+      </c>
+      <c r="BO262">
+        <v>2.9</v>
+      </c>
+      <c r="BP262">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -814,6 +814,24 @@
     <t>['23', '86']</t>
   </si>
   <si>
+    <t>['8', '50']</t>
+  </si>
+  <si>
+    <t>['8', '60', '67', '74', '90']</t>
+  </si>
+  <si>
+    <t>['9', '43', '90+7']</t>
+  </si>
+  <si>
+    <t>['36', '47']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['10', '67']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -854,9 +872,6 @@
   </si>
   <si>
     <t>['6', '25', '72', '85']</t>
-  </si>
-  <si>
-    <t>['13']</t>
   </si>
   <si>
     <t>['33', '36', '90+2']</t>
@@ -1208,6 +1223,15 @@
   </si>
   <si>
     <t>['54', '62', '84']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['17', '45+7', '90']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1828,7 +1852,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2034,7 +2058,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2112,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1.8</v>
@@ -2240,7 +2264,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2318,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2524,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
         <v>0.4</v>
@@ -2652,7 +2676,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2858,7 +2882,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2939,7 +2963,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3351,7 +3375,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ9">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3557,7 +3581,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3760,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ11">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3888,7 +3912,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4172,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4300,7 +4324,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4378,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4712,7 +4736,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4999,7 +5023,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ17">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5202,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5330,7 +5354,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5408,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ19">
         <v>1.14</v>
@@ -5536,7 +5560,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5617,7 +5641,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
         <v>0.4</v>
@@ -5820,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>0.4</v>
@@ -5948,7 +5972,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6154,7 +6178,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6360,7 +6384,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6438,10 +6462,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.57</v>
@@ -6566,7 +6590,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6853,7 +6877,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>0.74</v>
@@ -6978,7 +7002,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7056,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0.93</v>
@@ -7184,7 +7208,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7262,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28">
         <v>2.57</v>
@@ -7468,7 +7492,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7674,7 +7698,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7802,7 +7826,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8086,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ32">
         <v>1.13</v>
@@ -8295,7 +8319,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR33">
         <v>2.21</v>
@@ -8420,7 +8444,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8501,7 +8525,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8626,7 +8650,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8913,7 +8937,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ36">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -9119,7 +9143,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -9322,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ38">
         <v>0.4</v>
@@ -9450,7 +9474,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9528,10 +9552,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
         <v>1.47</v>
@@ -9656,7 +9680,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9737,7 +9761,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -9940,7 +9964,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>2.57</v>
@@ -10146,10 +10170,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -10352,10 +10376,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.86</v>
@@ -10480,7 +10504,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10686,7 +10710,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10767,7 +10791,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10892,7 +10916,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11382,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ48">
         <v>0.93</v>
@@ -11716,7 +11740,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11922,7 +11946,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12000,10 +12024,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ51">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -12128,7 +12152,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12209,7 +12233,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ52">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12334,7 +12358,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12540,7 +12564,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13030,10 +13054,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13158,7 +13182,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13236,10 +13260,10 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13442,10 +13466,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13570,7 +13594,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -14060,10 +14084,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.6</v>
@@ -14188,7 +14212,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14269,7 +14293,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ62">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14394,7 +14418,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14472,10 +14496,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR63">
         <v>0.8100000000000001</v>
@@ -14600,7 +14624,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14678,7 +14702,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ64">
         <v>2.57</v>
@@ -14884,7 +14908,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -15090,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>0.93</v>
@@ -15218,7 +15242,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15296,10 +15320,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -15424,7 +15448,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15502,10 +15526,10 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR68">
         <v>2.38</v>
@@ -15630,7 +15654,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15711,7 +15735,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ69">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR69">
         <v>1.32</v>
@@ -15836,7 +15860,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15917,7 +15941,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR70">
         <v>1.25</v>
@@ -16042,7 +16066,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16248,7 +16272,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16454,7 +16478,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16741,7 +16765,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16866,7 +16890,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17072,7 +17096,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17150,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>1.13</v>
@@ -17278,7 +17302,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17484,7 +17508,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17565,7 +17589,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.8</v>
@@ -17690,7 +17714,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17771,7 +17795,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR79">
         <v>1.36</v>
@@ -18180,7 +18204,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ81">
         <v>1.29</v>
@@ -18308,7 +18332,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18386,7 +18410,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ82">
         <v>2.57</v>
@@ -18592,10 +18616,10 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18798,10 +18822,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -19004,10 +19028,10 @@
         <v>1.8</v>
       </c>
       <c r="AP85">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ85">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>2.29</v>
@@ -19210,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -19416,10 +19440,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.3</v>
@@ -20037,7 +20061,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ90">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR90">
         <v>1.17</v>
@@ -20162,7 +20186,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20368,7 +20392,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20446,10 +20470,10 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ92">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20574,7 +20598,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20780,7 +20804,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20986,7 +21010,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21192,7 +21216,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21270,7 +21294,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -21398,7 +21422,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21479,7 +21503,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR97">
         <v>1.67</v>
@@ -21810,7 +21834,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22222,7 +22246,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22300,7 +22324,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -22506,10 +22530,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR102">
         <v>2.25</v>
@@ -22634,7 +22658,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22918,10 +22942,10 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -23124,10 +23148,10 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR105">
         <v>1.09</v>
@@ -23330,7 +23354,7 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ106">
         <v>0.93</v>
@@ -23539,7 +23563,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ107">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR107">
         <v>1.49</v>
@@ -23664,7 +23688,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23745,7 +23769,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ108">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23948,10 +23972,10 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ109">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -24076,7 +24100,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24154,10 +24178,10 @@
         <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR110">
         <v>1.22</v>
@@ -24566,10 +24590,10 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ112">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24772,7 +24796,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ113">
         <v>0.88</v>
@@ -24900,7 +24924,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25106,7 +25130,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25187,7 +25211,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ115">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR115">
         <v>1.18</v>
@@ -25393,7 +25417,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25518,7 +25542,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25724,7 +25748,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25802,7 +25826,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ118">
         <v>1.29</v>
@@ -26008,7 +26032,7 @@
         <v>0.5</v>
       </c>
       <c r="AP119">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ119">
         <v>1.13</v>
@@ -26420,10 +26444,10 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ121">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26548,7 +26572,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26626,10 +26650,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ122">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26754,7 +26778,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26835,7 +26859,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ123">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27041,7 +27065,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR124">
         <v>1.73</v>
@@ -27578,7 +27602,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27656,7 +27680,7 @@
         <v>2.57</v>
       </c>
       <c r="AP127">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127">
         <v>1.8</v>
@@ -27990,7 +28014,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28068,7 +28092,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -28196,7 +28220,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28277,7 +28301,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ130">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>1.37</v>
@@ -28480,7 +28504,7 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
         <v>1.29</v>
@@ -28608,7 +28632,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28814,7 +28838,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28895,7 +28919,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ133">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR133">
         <v>1.14</v>
@@ -29098,7 +29122,7 @@
         <v>0.86</v>
       </c>
       <c r="AP134">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29307,7 +29331,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ135">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29510,10 +29534,10 @@
         <v>1.71</v>
       </c>
       <c r="AP136">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ136">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>2.35</v>
@@ -29638,7 +29662,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29716,7 +29740,7 @@
         <v>2.14</v>
       </c>
       <c r="AP137">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ137">
         <v>2.57</v>
@@ -29844,7 +29868,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29922,7 +29946,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ138">
         <v>0.93</v>
@@ -30128,7 +30152,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
         <v>1.14</v>
@@ -30256,7 +30280,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30334,7 +30358,7 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ140">
         <v>0.88</v>
@@ -30543,7 +30567,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ141">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR141">
         <v>1.78</v>
@@ -30749,7 +30773,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -30955,7 +30979,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ143">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR143">
         <v>1.2</v>
@@ -31364,10 +31388,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ145">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31492,7 +31516,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31904,7 +31928,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -31982,10 +32006,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ148">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR148">
         <v>1.48</v>
@@ -32110,7 +32134,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32188,7 +32212,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1.33</v>
@@ -32316,7 +32340,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32522,7 +32546,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32603,7 +32627,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ151">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR151">
         <v>1.15</v>
@@ -32728,7 +32752,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32809,7 +32833,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32934,7 +32958,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33015,7 +33039,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ153">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR153">
         <v>1.39</v>
@@ -33218,7 +33242,7 @@
         <v>0.13</v>
       </c>
       <c r="AP154">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ154">
         <v>0.4</v>
@@ -33630,7 +33654,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ156">
         <v>1.33</v>
@@ -33758,7 +33782,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33964,7 +33988,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34251,7 +34275,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ159">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR159">
         <v>1.74</v>
@@ -34454,7 +34478,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ160">
         <v>0.88</v>
@@ -34663,7 +34687,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ161">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -34866,10 +34890,10 @@
         <v>0.75</v>
       </c>
       <c r="AP162">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -34994,7 +35018,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35072,10 +35096,10 @@
         <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ163">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR163">
         <v>1.45</v>
@@ -35406,7 +35430,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35484,7 +35508,7 @@
         <v>0.13</v>
       </c>
       <c r="AP165">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ165">
         <v>0.93</v>
@@ -35818,7 +35842,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -35896,7 +35920,7 @@
         <v>1.38</v>
       </c>
       <c r="AP167">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ167">
         <v>1.14</v>
@@ -36024,7 +36048,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36311,7 +36335,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ169">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR169">
         <v>1.4</v>
@@ -36436,7 +36460,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36517,7 +36541,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ170">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR170">
         <v>1.48</v>
@@ -36723,7 +36747,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR171">
         <v>1.64</v>
@@ -36926,7 +36950,7 @@
         <v>2.67</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ172">
         <v>1.8</v>
@@ -37054,7 +37078,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37135,7 +37159,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ173">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -37260,7 +37284,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37338,7 +37362,7 @@
         <v>2.33</v>
       </c>
       <c r="AP174">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ174">
         <v>2.57</v>
@@ -37466,7 +37490,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37544,10 +37568,10 @@
         <v>0.44</v>
       </c>
       <c r="AP175">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ175">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR175">
         <v>1.59</v>
@@ -37750,7 +37774,7 @@
         <v>0.2</v>
       </c>
       <c r="AP176">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ176">
         <v>0.4</v>
@@ -37878,7 +37902,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38165,7 +38189,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ178">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR178">
         <v>1.61</v>
@@ -38371,7 +38395,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ179">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR179">
         <v>1.27</v>
@@ -38496,7 +38520,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38574,7 +38598,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
@@ -38702,7 +38726,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38780,10 +38804,10 @@
         <v>1.3</v>
       </c>
       <c r="AP181">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ181">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR181">
         <v>1.5</v>
@@ -38908,7 +38932,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39192,7 +39216,7 @@
         <v>1.56</v>
       </c>
       <c r="AP183">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ183">
         <v>1.29</v>
@@ -39398,10 +39422,10 @@
         <v>1.9</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ184">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR184">
         <v>1.58</v>
@@ -39526,7 +39550,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39604,10 +39628,10 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ185">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR185">
         <v>1.58</v>
@@ -39732,7 +39756,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39810,7 +39834,7 @@
         <v>0.11</v>
       </c>
       <c r="AP186">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ186">
         <v>0.93</v>
@@ -40144,7 +40168,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40225,7 +40249,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ188">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR188">
         <v>1.32</v>
@@ -40431,7 +40455,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ189">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR189">
         <v>1.26</v>
@@ -40556,7 +40580,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40762,7 +40786,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40840,10 +40864,10 @@
         <v>0.4</v>
       </c>
       <c r="AP191">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ191">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR191">
         <v>1.49</v>
@@ -40968,7 +40992,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41046,7 +41070,7 @@
         <v>0.18</v>
       </c>
       <c r="AP192">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ192">
         <v>0.4</v>
@@ -41252,7 +41276,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ193">
         <v>0.88</v>
@@ -41380,7 +41404,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41586,7 +41610,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41667,7 +41691,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ195">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41792,7 +41816,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -41873,7 +41897,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ196">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR196">
         <v>1.69</v>
@@ -42076,10 +42100,10 @@
         <v>1.2</v>
       </c>
       <c r="AP197">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR197">
         <v>1.26</v>
@@ -42204,7 +42228,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42410,7 +42434,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -42900,7 +42924,7 @@
         <v>1.4</v>
       </c>
       <c r="AP201">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ201">
         <v>1.29</v>
@@ -43028,7 +43052,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43106,10 +43130,10 @@
         <v>1.36</v>
       </c>
       <c r="AP202">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ202">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR202">
         <v>1.29</v>
@@ -43521,7 +43545,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ204">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR204">
         <v>1.42</v>
@@ -43724,10 +43748,10 @@
         <v>0.3</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ205">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR205">
         <v>1.64</v>
@@ -44058,7 +44082,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44139,7 +44163,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ207">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR207">
         <v>1.17</v>
@@ -44264,7 +44288,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44548,7 +44572,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ209">
         <v>1.14</v>
@@ -44676,7 +44700,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44754,7 +44778,7 @@
         <v>1.33</v>
       </c>
       <c r="AP210">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ210">
         <v>1.33</v>
@@ -44882,7 +44906,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -44963,7 +44987,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ211">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR211">
         <v>1.62</v>
@@ -45166,7 +45190,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ212">
         <v>1.33</v>
@@ -45294,7 +45318,7 @@
         <v>240</v>
       </c>
       <c r="P213" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q213">
         <v>2.2</v>
@@ -45500,7 +45524,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45581,7 +45605,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ214">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR214">
         <v>1.25</v>
@@ -45706,7 +45730,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45993,7 +46017,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ216">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR216">
         <v>1.31</v>
@@ -46196,7 +46220,7 @@
         <v>0.92</v>
       </c>
       <c r="AP217">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ217">
         <v>0.88</v>
@@ -46530,7 +46554,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46814,10 +46838,10 @@
         <v>0.27</v>
       </c>
       <c r="AP220">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ220">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR220">
         <v>1.6</v>
@@ -46942,7 +46966,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47020,10 +47044,10 @@
         <v>1.58</v>
       </c>
       <c r="AP221">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ221">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR221">
         <v>1.82</v>
@@ -47226,10 +47250,10 @@
         <v>1.33</v>
       </c>
       <c r="AP222">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ222">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR222">
         <v>1.57</v>
@@ -47354,7 +47378,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47435,7 +47459,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ223">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR223">
         <v>1.45</v>
@@ -47560,7 +47584,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47638,10 +47662,10 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ224">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR224">
         <v>1.31</v>
@@ -47972,7 +47996,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48050,10 +48074,10 @@
         <v>1.33</v>
       </c>
       <c r="AP226">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ226">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR226">
         <v>1.66</v>
@@ -48178,7 +48202,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48256,10 +48280,10 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ227">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR227">
         <v>1.7</v>
@@ -48590,7 +48614,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49002,7 +49026,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49083,7 +49107,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ231">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR231">
         <v>1.71</v>
@@ -49286,7 +49310,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ232">
         <v>1.14</v>
@@ -49414,7 +49438,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49495,7 +49519,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ233">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR233">
         <v>1.34</v>
@@ -49620,7 +49644,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49904,7 +49928,7 @@
         <v>2.25</v>
       </c>
       <c r="AP235">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ235">
         <v>1.8</v>
@@ -50032,7 +50056,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50113,7 +50137,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ236">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR236">
         <v>1.35</v>
@@ -50316,7 +50340,7 @@
         <v>2.08</v>
       </c>
       <c r="AP237">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ237">
         <v>1.8</v>
@@ -50444,7 +50468,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50522,7 +50546,7 @@
         <v>2.54</v>
       </c>
       <c r="AP238">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ238">
         <v>2.57</v>
@@ -50650,7 +50674,7 @@
         <v>251</v>
       </c>
       <c r="P239" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q239">
         <v>2.4</v>
@@ -50728,7 +50752,7 @@
         <v>1.46</v>
       </c>
       <c r="AP239">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ239">
         <v>1.33</v>
@@ -50856,7 +50880,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51143,7 +51167,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ241">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR241">
         <v>1.36</v>
@@ -51268,7 +51292,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51474,7 +51498,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51758,10 +51782,10 @@
         <v>1.69</v>
       </c>
       <c r="AP244">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ244">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR244">
         <v>1.66</v>
@@ -51886,7 +51910,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -51964,7 +51988,7 @@
         <v>0.79</v>
       </c>
       <c r="AP245">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ245">
         <v>0.88</v>
@@ -52170,10 +52194,10 @@
         <v>1.23</v>
       </c>
       <c r="AP246">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AQ246">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR246">
         <v>2.34</v>
@@ -52298,7 +52322,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52376,7 +52400,7 @@
         <v>1.38</v>
       </c>
       <c r="AP247">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ247">
         <v>1.29</v>
@@ -52504,7 +52528,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52994,10 +53018,10 @@
         <v>1.29</v>
       </c>
       <c r="AP250">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ250">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR250">
         <v>1.32</v>
@@ -53203,7 +53227,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ251">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR251">
         <v>1.6</v>
@@ -53328,7 +53352,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53409,7 +53433,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ252">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR252">
         <v>1.52</v>
@@ -53534,7 +53558,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53612,10 +53636,10 @@
         <v>1.38</v>
       </c>
       <c r="AP253">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ253">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR253">
         <v>1.84</v>
@@ -53740,7 +53764,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -54024,7 +54048,7 @@
         <v>1.93</v>
       </c>
       <c r="AP255">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ255">
         <v>1.8</v>
@@ -54152,7 +54176,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54358,7 +54382,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54564,7 +54588,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54642,7 +54666,7 @@
         <v>1.14</v>
       </c>
       <c r="AP258">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ258">
         <v>1.13</v>
@@ -54851,7 +54875,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ259">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR259">
         <v>1.22</v>
@@ -54976,7 +55000,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55182,7 +55206,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55263,7 +55287,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ261">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR261">
         <v>1.42</v>
@@ -55545,6 +55569,1654 @@
       </c>
       <c r="BP262">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7468620</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45766.5</v>
+      </c>
+      <c r="F263">
+        <v>30</v>
+      </c>
+      <c r="G263" t="s">
+        <v>79</v>
+      </c>
+      <c r="H263" t="s">
+        <v>70</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>266</v>
+      </c>
+      <c r="P263" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q263">
+        <v>1.44</v>
+      </c>
+      <c r="R263">
+        <v>3.4</v>
+      </c>
+      <c r="S263">
+        <v>10</v>
+      </c>
+      <c r="T263">
+        <v>1.14</v>
+      </c>
+      <c r="U263">
+        <v>5.5</v>
+      </c>
+      <c r="V263">
+        <v>1.73</v>
+      </c>
+      <c r="W263">
+        <v>2</v>
+      </c>
+      <c r="X263">
+        <v>3.4</v>
+      </c>
+      <c r="Y263">
+        <v>1.3</v>
+      </c>
+      <c r="Z263">
+        <v>1.17</v>
+      </c>
+      <c r="AA263">
+        <v>8.9</v>
+      </c>
+      <c r="AB263">
+        <v>14</v>
+      </c>
+      <c r="AC263">
+        <v>1.01</v>
+      </c>
+      <c r="AD263">
+        <v>41</v>
+      </c>
+      <c r="AE263">
+        <v>1.07</v>
+      </c>
+      <c r="AF263">
+        <v>8</v>
+      </c>
+      <c r="AG263">
+        <v>1.24</v>
+      </c>
+      <c r="AH263">
+        <v>3.8</v>
+      </c>
+      <c r="AI263">
+        <v>1.75</v>
+      </c>
+      <c r="AJ263">
+        <v>2</v>
+      </c>
+      <c r="AK263">
+        <v>1.03</v>
+      </c>
+      <c r="AL263">
+        <v>1.07</v>
+      </c>
+      <c r="AM263">
+        <v>5.25</v>
+      </c>
+      <c r="AN263">
+        <v>2.71</v>
+      </c>
+      <c r="AO263">
+        <v>1.21</v>
+      </c>
+      <c r="AP263">
+        <v>2.73</v>
+      </c>
+      <c r="AQ263">
+        <v>1.13</v>
+      </c>
+      <c r="AR263">
+        <v>2.35</v>
+      </c>
+      <c r="AS263">
+        <v>1.08</v>
+      </c>
+      <c r="AT263">
+        <v>3.43</v>
+      </c>
+      <c r="AU263">
+        <v>12</v>
+      </c>
+      <c r="AV263">
+        <v>2</v>
+      </c>
+      <c r="AW263">
+        <v>7</v>
+      </c>
+      <c r="AX263">
+        <v>8</v>
+      </c>
+      <c r="AY263">
+        <v>21</v>
+      </c>
+      <c r="AZ263">
+        <v>11</v>
+      </c>
+      <c r="BA263">
+        <v>7</v>
+      </c>
+      <c r="BB263">
+        <v>3</v>
+      </c>
+      <c r="BC263">
+        <v>10</v>
+      </c>
+      <c r="BD263">
+        <v>1.08</v>
+      </c>
+      <c r="BE263">
+        <v>12</v>
+      </c>
+      <c r="BF263">
+        <v>7.5</v>
+      </c>
+      <c r="BG263">
+        <v>1.17</v>
+      </c>
+      <c r="BH263">
+        <v>4.3</v>
+      </c>
+      <c r="BI263">
+        <v>1.3</v>
+      </c>
+      <c r="BJ263">
+        <v>3.1</v>
+      </c>
+      <c r="BK263">
+        <v>1.5</v>
+      </c>
+      <c r="BL263">
+        <v>2.35</v>
+      </c>
+      <c r="BM263">
+        <v>1.79</v>
+      </c>
+      <c r="BN263">
+        <v>1.9</v>
+      </c>
+      <c r="BO263">
+        <v>2.18</v>
+      </c>
+      <c r="BP263">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7468623</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45766.58333333334</v>
+      </c>
+      <c r="F264">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
+        <v>73</v>
+      </c>
+      <c r="H264" t="s">
+        <v>84</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264" t="s">
+        <v>90</v>
+      </c>
+      <c r="P264" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q264">
+        <v>2.05</v>
+      </c>
+      <c r="R264">
+        <v>2.6</v>
+      </c>
+      <c r="S264">
+        <v>4.75</v>
+      </c>
+      <c r="T264">
+        <v>1.22</v>
+      </c>
+      <c r="U264">
+        <v>4</v>
+      </c>
+      <c r="V264">
+        <v>2.1</v>
+      </c>
+      <c r="W264">
+        <v>1.67</v>
+      </c>
+      <c r="X264">
+        <v>4.5</v>
+      </c>
+      <c r="Y264">
+        <v>1.18</v>
+      </c>
+      <c r="Z264">
+        <v>1.58</v>
+      </c>
+      <c r="AA264">
+        <v>4.9</v>
+      </c>
+      <c r="AB264">
+        <v>5.1</v>
+      </c>
+      <c r="AC264">
+        <v>1.01</v>
+      </c>
+      <c r="AD264">
+        <v>17</v>
+      </c>
+      <c r="AE264">
+        <v>1.12</v>
+      </c>
+      <c r="AF264">
+        <v>5.75</v>
+      </c>
+      <c r="AG264">
+        <v>1.4</v>
+      </c>
+      <c r="AH264">
+        <v>2.82</v>
+      </c>
+      <c r="AI264">
+        <v>1.53</v>
+      </c>
+      <c r="AJ264">
+        <v>2.38</v>
+      </c>
+      <c r="AK264">
+        <v>1.17</v>
+      </c>
+      <c r="AL264">
+        <v>1.19</v>
+      </c>
+      <c r="AM264">
+        <v>2.35</v>
+      </c>
+      <c r="AN264">
+        <v>2.33</v>
+      </c>
+      <c r="AO264">
+        <v>1.4</v>
+      </c>
+      <c r="AP264">
+        <v>2.25</v>
+      </c>
+      <c r="AQ264">
+        <v>1.38</v>
+      </c>
+      <c r="AR264">
+        <v>1.8</v>
+      </c>
+      <c r="AS264">
+        <v>1.25</v>
+      </c>
+      <c r="AT264">
+        <v>3.05</v>
+      </c>
+      <c r="AU264">
+        <v>5</v>
+      </c>
+      <c r="AV264">
+        <v>3</v>
+      </c>
+      <c r="AW264">
+        <v>4</v>
+      </c>
+      <c r="AX264">
+        <v>3</v>
+      </c>
+      <c r="AY264">
+        <v>13</v>
+      </c>
+      <c r="AZ264">
+        <v>6</v>
+      </c>
+      <c r="BA264">
+        <v>3</v>
+      </c>
+      <c r="BB264">
+        <v>2</v>
+      </c>
+      <c r="BC264">
+        <v>5</v>
+      </c>
+      <c r="BD264">
+        <v>1.38</v>
+      </c>
+      <c r="BE264">
+        <v>7</v>
+      </c>
+      <c r="BF264">
+        <v>3.4</v>
+      </c>
+      <c r="BG264">
+        <v>1.32</v>
+      </c>
+      <c r="BH264">
+        <v>3.05</v>
+      </c>
+      <c r="BI264">
+        <v>1.54</v>
+      </c>
+      <c r="BJ264">
+        <v>2.3</v>
+      </c>
+      <c r="BK264">
+        <v>1.9</v>
+      </c>
+      <c r="BL264">
+        <v>1.79</v>
+      </c>
+      <c r="BM264">
+        <v>2.4</v>
+      </c>
+      <c r="BN264">
+        <v>1.5</v>
+      </c>
+      <c r="BO264">
+        <v>3.1</v>
+      </c>
+      <c r="BP264">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7468621</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45766.67013888889</v>
+      </c>
+      <c r="F265">
+        <v>30</v>
+      </c>
+      <c r="G265" t="s">
+        <v>87</v>
+      </c>
+      <c r="H265" t="s">
+        <v>75</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>5</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>6</v>
+      </c>
+      <c r="O265" t="s">
+        <v>267</v>
+      </c>
+      <c r="P265" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q265">
+        <v>1.57</v>
+      </c>
+      <c r="R265">
+        <v>3</v>
+      </c>
+      <c r="S265">
+        <v>9.5</v>
+      </c>
+      <c r="T265">
+        <v>1.22</v>
+      </c>
+      <c r="U265">
+        <v>4</v>
+      </c>
+      <c r="V265">
+        <v>2</v>
+      </c>
+      <c r="W265">
+        <v>1.73</v>
+      </c>
+      <c r="X265">
+        <v>4.33</v>
+      </c>
+      <c r="Y265">
+        <v>1.2</v>
+      </c>
+      <c r="Z265">
+        <v>1.25</v>
+      </c>
+      <c r="AA265">
+        <v>6.9</v>
+      </c>
+      <c r="AB265">
+        <v>11</v>
+      </c>
+      <c r="AC265">
+        <v>1.01</v>
+      </c>
+      <c r="AD265">
+        <v>17</v>
+      </c>
+      <c r="AE265">
+        <v>1.11</v>
+      </c>
+      <c r="AF265">
+        <v>6.25</v>
+      </c>
+      <c r="AG265">
+        <v>1.38</v>
+      </c>
+      <c r="AH265">
+        <v>2.9</v>
+      </c>
+      <c r="AI265">
+        <v>1.95</v>
+      </c>
+      <c r="AJ265">
+        <v>1.8</v>
+      </c>
+      <c r="AK265">
+        <v>1.04</v>
+      </c>
+      <c r="AL265">
+        <v>1.1</v>
+      </c>
+      <c r="AM265">
+        <v>4.2</v>
+      </c>
+      <c r="AN265">
+        <v>1.79</v>
+      </c>
+      <c r="AO265">
+        <v>0.21</v>
+      </c>
+      <c r="AP265">
+        <v>1.87</v>
+      </c>
+      <c r="AQ265">
+        <v>0.2</v>
+      </c>
+      <c r="AR265">
+        <v>1.83</v>
+      </c>
+      <c r="AS265">
+        <v>1.2</v>
+      </c>
+      <c r="AT265">
+        <v>3.03</v>
+      </c>
+      <c r="AU265">
+        <v>10</v>
+      </c>
+      <c r="AV265">
+        <v>2</v>
+      </c>
+      <c r="AW265">
+        <v>10</v>
+      </c>
+      <c r="AX265">
+        <v>5</v>
+      </c>
+      <c r="AY265">
+        <v>24</v>
+      </c>
+      <c r="AZ265">
+        <v>10</v>
+      </c>
+      <c r="BA265">
+        <v>8</v>
+      </c>
+      <c r="BB265">
+        <v>2</v>
+      </c>
+      <c r="BC265">
+        <v>10</v>
+      </c>
+      <c r="BD265">
+        <v>1.19</v>
+      </c>
+      <c r="BE265">
+        <v>9</v>
+      </c>
+      <c r="BF265">
+        <v>4.9</v>
+      </c>
+      <c r="BG265">
+        <v>1.33</v>
+      </c>
+      <c r="BH265">
+        <v>2.95</v>
+      </c>
+      <c r="BI265">
+        <v>1.56</v>
+      </c>
+      <c r="BJ265">
+        <v>2.23</v>
+      </c>
+      <c r="BK265">
+        <v>1.9</v>
+      </c>
+      <c r="BL265">
+        <v>1.79</v>
+      </c>
+      <c r="BM265">
+        <v>2.38</v>
+      </c>
+      <c r="BN265">
+        <v>1.5</v>
+      </c>
+      <c r="BO265">
+        <v>3.05</v>
+      </c>
+      <c r="BP265">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7468619</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F266">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>81</v>
+      </c>
+      <c r="H266" t="s">
+        <v>74</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>3</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>4</v>
+      </c>
+      <c r="O266" t="s">
+        <v>268</v>
+      </c>
+      <c r="P266" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q266">
+        <v>2.05</v>
+      </c>
+      <c r="R266">
+        <v>2.3</v>
+      </c>
+      <c r="S266">
+        <v>6.5</v>
+      </c>
+      <c r="T266">
+        <v>1.36</v>
+      </c>
+      <c r="U266">
+        <v>3</v>
+      </c>
+      <c r="V266">
+        <v>2.75</v>
+      </c>
+      <c r="W266">
+        <v>1.4</v>
+      </c>
+      <c r="X266">
+        <v>7</v>
+      </c>
+      <c r="Y266">
+        <v>1.1</v>
+      </c>
+      <c r="Z266">
+        <v>1.57</v>
+      </c>
+      <c r="AA266">
+        <v>4.3</v>
+      </c>
+      <c r="AB266">
+        <v>6.2</v>
+      </c>
+      <c r="AC266">
+        <v>1.05</v>
+      </c>
+      <c r="AD266">
+        <v>9.5</v>
+      </c>
+      <c r="AE266">
+        <v>1.28</v>
+      </c>
+      <c r="AF266">
+        <v>3.55</v>
+      </c>
+      <c r="AG266">
+        <v>1.88</v>
+      </c>
+      <c r="AH266">
+        <v>1.93</v>
+      </c>
+      <c r="AI266">
+        <v>1.95</v>
+      </c>
+      <c r="AJ266">
+        <v>1.8</v>
+      </c>
+      <c r="AK266">
+        <v>1.13</v>
+      </c>
+      <c r="AL266">
+        <v>1.22</v>
+      </c>
+      <c r="AM266">
+        <v>2.4</v>
+      </c>
+      <c r="AN266">
+        <v>2.14</v>
+      </c>
+      <c r="AO266">
+        <v>0.86</v>
+      </c>
+      <c r="AP266">
+        <v>2.2</v>
+      </c>
+      <c r="AQ266">
+        <v>0.8</v>
+      </c>
+      <c r="AR266">
+        <v>1.64</v>
+      </c>
+      <c r="AS266">
+        <v>1.33</v>
+      </c>
+      <c r="AT266">
+        <v>2.97</v>
+      </c>
+      <c r="AU266">
+        <v>10</v>
+      </c>
+      <c r="AV266">
+        <v>4</v>
+      </c>
+      <c r="AW266">
+        <v>6</v>
+      </c>
+      <c r="AX266">
+        <v>3</v>
+      </c>
+      <c r="AY266">
+        <v>16</v>
+      </c>
+      <c r="AZ266">
+        <v>7</v>
+      </c>
+      <c r="BA266">
+        <v>8</v>
+      </c>
+      <c r="BB266">
+        <v>4</v>
+      </c>
+      <c r="BC266">
+        <v>12</v>
+      </c>
+      <c r="BD266">
+        <v>1.33</v>
+      </c>
+      <c r="BE266">
+        <v>7</v>
+      </c>
+      <c r="BF266">
+        <v>3.65</v>
+      </c>
+      <c r="BG266">
+        <v>1.4</v>
+      </c>
+      <c r="BH266">
+        <v>2.7</v>
+      </c>
+      <c r="BI266">
+        <v>1.66</v>
+      </c>
+      <c r="BJ266">
+        <v>2.07</v>
+      </c>
+      <c r="BK266">
+        <v>2.06</v>
+      </c>
+      <c r="BL266">
+        <v>1.66</v>
+      </c>
+      <c r="BM266">
+        <v>2.65</v>
+      </c>
+      <c r="BN266">
+        <v>1.41</v>
+      </c>
+      <c r="BO266">
+        <v>3.45</v>
+      </c>
+      <c r="BP266">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7468617</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45767.51041666666</v>
+      </c>
+      <c r="F267">
+        <v>30</v>
+      </c>
+      <c r="G267" t="s">
+        <v>86</v>
+      </c>
+      <c r="H267" t="s">
+        <v>77</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>269</v>
+      </c>
+      <c r="P267" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q267">
+        <v>1.91</v>
+      </c>
+      <c r="R267">
+        <v>2.4</v>
+      </c>
+      <c r="S267">
+        <v>7.5</v>
+      </c>
+      <c r="T267">
+        <v>1.33</v>
+      </c>
+      <c r="U267">
+        <v>3.25</v>
+      </c>
+      <c r="V267">
+        <v>2.63</v>
+      </c>
+      <c r="W267">
+        <v>1.44</v>
+      </c>
+      <c r="X267">
+        <v>6.5</v>
+      </c>
+      <c r="Y267">
+        <v>1.11</v>
+      </c>
+      <c r="Z267">
+        <v>1.38</v>
+      </c>
+      <c r="AA267">
+        <v>5.3</v>
+      </c>
+      <c r="AB267">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC267">
+        <v>1.03</v>
+      </c>
+      <c r="AD267">
+        <v>11</v>
+      </c>
+      <c r="AE267">
+        <v>1.2</v>
+      </c>
+      <c r="AF267">
+        <v>4.33</v>
+      </c>
+      <c r="AG267">
+        <v>1.65</v>
+      </c>
+      <c r="AH267">
+        <v>2.15</v>
+      </c>
+      <c r="AI267">
+        <v>2</v>
+      </c>
+      <c r="AJ267">
+        <v>1.75</v>
+      </c>
+      <c r="AK267">
+        <v>1.09</v>
+      </c>
+      <c r="AL267">
+        <v>1.17</v>
+      </c>
+      <c r="AM267">
+        <v>2.9</v>
+      </c>
+      <c r="AN267">
+        <v>2</v>
+      </c>
+      <c r="AO267">
+        <v>1.14</v>
+      </c>
+      <c r="AP267">
+        <v>2.07</v>
+      </c>
+      <c r="AQ267">
+        <v>1.07</v>
+      </c>
+      <c r="AR267">
+        <v>1.81</v>
+      </c>
+      <c r="AS267">
+        <v>1.06</v>
+      </c>
+      <c r="AT267">
+        <v>2.87</v>
+      </c>
+      <c r="AU267">
+        <v>10</v>
+      </c>
+      <c r="AV267">
+        <v>4</v>
+      </c>
+      <c r="AW267">
+        <v>13</v>
+      </c>
+      <c r="AX267">
+        <v>3</v>
+      </c>
+      <c r="AY267">
+        <v>29</v>
+      </c>
+      <c r="AZ267">
+        <v>9</v>
+      </c>
+      <c r="BA267">
+        <v>4</v>
+      </c>
+      <c r="BB267">
+        <v>2</v>
+      </c>
+      <c r="BC267">
+        <v>6</v>
+      </c>
+      <c r="BD267">
+        <v>1.3</v>
+      </c>
+      <c r="BE267">
+        <v>7.5</v>
+      </c>
+      <c r="BF267">
+        <v>3.8</v>
+      </c>
+      <c r="BG267">
+        <v>1.36</v>
+      </c>
+      <c r="BH267">
+        <v>2.85</v>
+      </c>
+      <c r="BI267">
+        <v>1.61</v>
+      </c>
+      <c r="BJ267">
+        <v>2.15</v>
+      </c>
+      <c r="BK267">
+        <v>2</v>
+      </c>
+      <c r="BL267">
+        <v>1.71</v>
+      </c>
+      <c r="BM267">
+        <v>2.55</v>
+      </c>
+      <c r="BN267">
+        <v>1.44</v>
+      </c>
+      <c r="BO267">
+        <v>3.4</v>
+      </c>
+      <c r="BP267">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7468618</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45767.51041666666</v>
+      </c>
+      <c r="F268">
+        <v>30</v>
+      </c>
+      <c r="G268" t="s">
+        <v>71</v>
+      </c>
+      <c r="H268" t="s">
+        <v>83</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>2</v>
+      </c>
+      <c r="K268">
+        <v>3</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>3</v>
+      </c>
+      <c r="N268">
+        <v>4</v>
+      </c>
+      <c r="O268" t="s">
+        <v>270</v>
+      </c>
+      <c r="P268" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q268">
+        <v>3</v>
+      </c>
+      <c r="R268">
+        <v>2.2</v>
+      </c>
+      <c r="S268">
+        <v>3.6</v>
+      </c>
+      <c r="T268">
+        <v>1.4</v>
+      </c>
+      <c r="U268">
+        <v>2.75</v>
+      </c>
+      <c r="V268">
+        <v>2.75</v>
+      </c>
+      <c r="W268">
+        <v>1.4</v>
+      </c>
+      <c r="X268">
+        <v>8</v>
+      </c>
+      <c r="Y268">
+        <v>1.08</v>
+      </c>
+      <c r="Z268">
+        <v>2.5</v>
+      </c>
+      <c r="AA268">
+        <v>3.45</v>
+      </c>
+      <c r="AB268">
+        <v>2.89</v>
+      </c>
+      <c r="AC268">
+        <v>1.05</v>
+      </c>
+      <c r="AD268">
+        <v>9</v>
+      </c>
+      <c r="AE268">
+        <v>1.3</v>
+      </c>
+      <c r="AF268">
+        <v>3.45</v>
+      </c>
+      <c r="AG268">
+        <v>1.86</v>
+      </c>
+      <c r="AH268">
+        <v>1.95</v>
+      </c>
+      <c r="AI268">
+        <v>1.7</v>
+      </c>
+      <c r="AJ268">
+        <v>2.05</v>
+      </c>
+      <c r="AK268">
+        <v>1.39</v>
+      </c>
+      <c r="AL268">
+        <v>1.3</v>
+      </c>
+      <c r="AM268">
+        <v>1.57</v>
+      </c>
+      <c r="AN268">
+        <v>1.93</v>
+      </c>
+      <c r="AO268">
+        <v>1.57</v>
+      </c>
+      <c r="AP268">
+        <v>1.8</v>
+      </c>
+      <c r="AQ268">
+        <v>1.67</v>
+      </c>
+      <c r="AR268">
+        <v>1.58</v>
+      </c>
+      <c r="AS268">
+        <v>1.37</v>
+      </c>
+      <c r="AT268">
+        <v>2.95</v>
+      </c>
+      <c r="AU268">
+        <v>5</v>
+      </c>
+      <c r="AV268">
+        <v>10</v>
+      </c>
+      <c r="AW268">
+        <v>6</v>
+      </c>
+      <c r="AX268">
+        <v>9</v>
+      </c>
+      <c r="AY268">
+        <v>14</v>
+      </c>
+      <c r="AZ268">
+        <v>19</v>
+      </c>
+      <c r="BA268">
+        <v>7</v>
+      </c>
+      <c r="BB268">
+        <v>6</v>
+      </c>
+      <c r="BC268">
+        <v>13</v>
+      </c>
+      <c r="BD268">
+        <v>1.95</v>
+      </c>
+      <c r="BE268">
+        <v>5.8</v>
+      </c>
+      <c r="BF268">
+        <v>2.08</v>
+      </c>
+      <c r="BG268">
+        <v>1.5</v>
+      </c>
+      <c r="BH268">
+        <v>2.38</v>
+      </c>
+      <c r="BI268">
+        <v>1.84</v>
+      </c>
+      <c r="BJ268">
+        <v>1.84</v>
+      </c>
+      <c r="BK268">
+        <v>2.33</v>
+      </c>
+      <c r="BL268">
+        <v>1.52</v>
+      </c>
+      <c r="BM268">
+        <v>3.05</v>
+      </c>
+      <c r="BN268">
+        <v>1.3</v>
+      </c>
+      <c r="BO268">
+        <v>4.1</v>
+      </c>
+      <c r="BP268">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7468622</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45767.51041666666</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>72</v>
+      </c>
+      <c r="H269" t="s">
+        <v>76</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269" t="s">
+        <v>153</v>
+      </c>
+      <c r="P269" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q269">
+        <v>3.75</v>
+      </c>
+      <c r="R269">
+        <v>2.1</v>
+      </c>
+      <c r="S269">
+        <v>3</v>
+      </c>
+      <c r="T269">
+        <v>1.44</v>
+      </c>
+      <c r="U269">
+        <v>2.63</v>
+      </c>
+      <c r="V269">
+        <v>3</v>
+      </c>
+      <c r="W269">
+        <v>1.36</v>
+      </c>
+      <c r="X269">
+        <v>9</v>
+      </c>
+      <c r="Y269">
+        <v>1.07</v>
+      </c>
+      <c r="Z269">
+        <v>3.58</v>
+      </c>
+      <c r="AA269">
+        <v>3.28</v>
+      </c>
+      <c r="AB269">
+        <v>2.22</v>
+      </c>
+      <c r="AC269">
+        <v>1.07</v>
+      </c>
+      <c r="AD269">
+        <v>8</v>
+      </c>
+      <c r="AE269">
+        <v>1.35</v>
+      </c>
+      <c r="AF269">
+        <v>3.1</v>
+      </c>
+      <c r="AG269">
+        <v>2.03</v>
+      </c>
+      <c r="AH269">
+        <v>1.79</v>
+      </c>
+      <c r="AI269">
+        <v>1.75</v>
+      </c>
+      <c r="AJ269">
+        <v>2</v>
+      </c>
+      <c r="AK269">
+        <v>1.62</v>
+      </c>
+      <c r="AL269">
+        <v>1.32</v>
+      </c>
+      <c r="AM269">
+        <v>1.33</v>
+      </c>
+      <c r="AN269">
+        <v>0.87</v>
+      </c>
+      <c r="AO269">
+        <v>1.29</v>
+      </c>
+      <c r="AP269">
+        <v>1</v>
+      </c>
+      <c r="AQ269">
+        <v>1.2</v>
+      </c>
+      <c r="AR269">
+        <v>1.35</v>
+      </c>
+      <c r="AS269">
+        <v>1.34</v>
+      </c>
+      <c r="AT269">
+        <v>2.69</v>
+      </c>
+      <c r="AU269">
+        <v>3</v>
+      </c>
+      <c r="AV269">
+        <v>5</v>
+      </c>
+      <c r="AW269">
+        <v>6</v>
+      </c>
+      <c r="AX269">
+        <v>14</v>
+      </c>
+      <c r="AY269">
+        <v>9</v>
+      </c>
+      <c r="AZ269">
+        <v>21</v>
+      </c>
+      <c r="BA269">
+        <v>0</v>
+      </c>
+      <c r="BB269">
+        <v>9</v>
+      </c>
+      <c r="BC269">
+        <v>9</v>
+      </c>
+      <c r="BD269">
+        <v>2.15</v>
+      </c>
+      <c r="BE269">
+        <v>6.25</v>
+      </c>
+      <c r="BF269">
+        <v>1.85</v>
+      </c>
+      <c r="BG269">
+        <v>1.41</v>
+      </c>
+      <c r="BH269">
+        <v>2.65</v>
+      </c>
+      <c r="BI269">
+        <v>1.71</v>
+      </c>
+      <c r="BJ269">
+        <v>2</v>
+      </c>
+      <c r="BK269">
+        <v>2.15</v>
+      </c>
+      <c r="BL269">
+        <v>1.61</v>
+      </c>
+      <c r="BM269">
+        <v>2.8</v>
+      </c>
+      <c r="BN269">
+        <v>1.37</v>
+      </c>
+      <c r="BO269">
+        <v>3.7</v>
+      </c>
+      <c r="BP269">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7468616</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45767.65625</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>82</v>
+      </c>
+      <c r="H270" t="s">
+        <v>80</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>3</v>
+      </c>
+      <c r="O270" t="s">
+        <v>271</v>
+      </c>
+      <c r="P270" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q270">
+        <v>4.75</v>
+      </c>
+      <c r="R270">
+        <v>2.6</v>
+      </c>
+      <c r="S270">
+        <v>2.1</v>
+      </c>
+      <c r="T270">
+        <v>1.25</v>
+      </c>
+      <c r="U270">
+        <v>3.75</v>
+      </c>
+      <c r="V270">
+        <v>2.1</v>
+      </c>
+      <c r="W270">
+        <v>1.67</v>
+      </c>
+      <c r="X270">
+        <v>4.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.18</v>
+      </c>
+      <c r="Z270">
+        <v>4.5</v>
+      </c>
+      <c r="AA270">
+        <v>4.33</v>
+      </c>
+      <c r="AB270">
+        <v>1.71</v>
+      </c>
+      <c r="AC270">
+        <v>1.01</v>
+      </c>
+      <c r="AD270">
+        <v>17</v>
+      </c>
+      <c r="AE270">
+        <v>1.14</v>
+      </c>
+      <c r="AF270">
+        <v>5.5</v>
+      </c>
+      <c r="AG270">
+        <v>1.4</v>
+      </c>
+      <c r="AH270">
+        <v>2.82</v>
+      </c>
+      <c r="AI270">
+        <v>1.5</v>
+      </c>
+      <c r="AJ270">
+        <v>2.5</v>
+      </c>
+      <c r="AK270">
+        <v>2.1</v>
+      </c>
+      <c r="AL270">
+        <v>1.22</v>
+      </c>
+      <c r="AM270">
+        <v>1.22</v>
+      </c>
+      <c r="AN270">
+        <v>1.29</v>
+      </c>
+      <c r="AO270">
+        <v>1.47</v>
+      </c>
+      <c r="AP270">
+        <v>1.4</v>
+      </c>
+      <c r="AQ270">
+        <v>1.38</v>
+      </c>
+      <c r="AR270">
+        <v>1.41</v>
+      </c>
+      <c r="AS270">
+        <v>1.39</v>
+      </c>
+      <c r="AT270">
+        <v>2.8</v>
+      </c>
+      <c r="AU270">
+        <v>6</v>
+      </c>
+      <c r="AV270">
+        <v>3</v>
+      </c>
+      <c r="AW270">
+        <v>13</v>
+      </c>
+      <c r="AX270">
+        <v>13</v>
+      </c>
+      <c r="AY270">
+        <v>24</v>
+      </c>
+      <c r="AZ270">
+        <v>21</v>
+      </c>
+      <c r="BA270">
+        <v>8</v>
+      </c>
+      <c r="BB270">
+        <v>6</v>
+      </c>
+      <c r="BC270">
+        <v>14</v>
+      </c>
+      <c r="BD270">
+        <v>3.05</v>
+      </c>
+      <c r="BE270">
+        <v>6.75</v>
+      </c>
+      <c r="BF270">
+        <v>1.46</v>
+      </c>
+      <c r="BG270">
+        <v>1.3</v>
+      </c>
+      <c r="BH270">
+        <v>3.15</v>
+      </c>
+      <c r="BI270">
+        <v>1.52</v>
+      </c>
+      <c r="BJ270">
+        <v>2.33</v>
+      </c>
+      <c r="BK270">
+        <v>1.84</v>
+      </c>
+      <c r="BL270">
+        <v>1.84</v>
+      </c>
+      <c r="BM270">
+        <v>2.32</v>
+      </c>
+      <c r="BN270">
+        <v>1.53</v>
+      </c>
+      <c r="BO270">
+        <v>2.95</v>
+      </c>
+      <c r="BP270">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -57174,10 +57174,10 @@
         <v>8</v>
       </c>
       <c r="BB270">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC270">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD270">
         <v>3.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1233,6 +1233,9 @@
   <si>
     <t>['76']</t>
   </si>
+  <si>
+    <t>['33']</t>
+  </si>
 </sst>
 </file>
 
@@ -1593,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1936,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ2">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -5020,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -7289,7 +7292,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -8728,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -9967,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR41">
         <v>0.92</v>
@@ -12436,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ53">
         <v>0.4</v>
@@ -14705,7 +14708,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ64">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR64">
         <v>1.7</v>
@@ -16144,7 +16147,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -18413,7 +18416,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ82">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR82">
         <v>1.67</v>
@@ -20264,7 +20267,7 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ91">
         <v>1.8</v>
@@ -21091,7 +21094,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ95">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -23766,7 +23769,7 @@
         <v>0.6</v>
       </c>
       <c r="AP108">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ108">
         <v>1.13</v>
@@ -26241,7 +26244,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -27474,7 +27477,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ126">
         <v>0.93</v>
@@ -29743,7 +29746,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ137">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -31594,7 +31597,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ146">
         <v>1.29</v>
@@ -33863,7 +33866,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ157">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR157">
         <v>1.67</v>
@@ -36332,7 +36335,7 @@
         <v>1.33</v>
       </c>
       <c r="AP169">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ169">
         <v>1.38</v>
@@ -37365,7 +37368,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ174">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR174">
         <v>1.46</v>
@@ -39010,7 +39013,7 @@
         <v>0.9</v>
       </c>
       <c r="AP182">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ182">
         <v>1.13</v>
@@ -41485,7 +41488,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ194">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -43542,7 +43545,7 @@
         <v>1.73</v>
       </c>
       <c r="AP204">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ204">
         <v>1.67</v>
@@ -44369,7 +44372,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ208">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR208">
         <v>1.74</v>
@@ -46635,7 +46638,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ219">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR219">
         <v>1.62</v>
@@ -47456,7 +47459,7 @@
         <v>1.15</v>
       </c>
       <c r="AP223">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ223">
         <v>1.38</v>
@@ -48486,7 +48489,7 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ228">
         <v>1.33</v>
@@ -50549,7 +50552,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ238">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AR238">
         <v>1.42</v>
@@ -57217,6 +57220,212 @@
       </c>
       <c r="BP270">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7468610</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45769.65625</v>
+      </c>
+      <c r="F271">
+        <v>29</v>
+      </c>
+      <c r="G271" t="s">
+        <v>85</v>
+      </c>
+      <c r="H271" t="s">
+        <v>79</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>2</v>
+      </c>
+      <c r="O271" t="s">
+        <v>245</v>
+      </c>
+      <c r="P271" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q271">
+        <v>6.5</v>
+      </c>
+      <c r="R271">
+        <v>2.75</v>
+      </c>
+      <c r="S271">
+        <v>1.8</v>
+      </c>
+      <c r="T271">
+        <v>1.22</v>
+      </c>
+      <c r="U271">
+        <v>4</v>
+      </c>
+      <c r="V271">
+        <v>2.1</v>
+      </c>
+      <c r="W271">
+        <v>1.67</v>
+      </c>
+      <c r="X271">
+        <v>4.5</v>
+      </c>
+      <c r="Y271">
+        <v>1.18</v>
+      </c>
+      <c r="Z271">
+        <v>7.8</v>
+      </c>
+      <c r="AA271">
+        <v>5.9</v>
+      </c>
+      <c r="AB271">
+        <v>1.36</v>
+      </c>
+      <c r="AC271">
+        <v>1.01</v>
+      </c>
+      <c r="AD271">
+        <v>23</v>
+      </c>
+      <c r="AE271">
+        <v>1.11</v>
+      </c>
+      <c r="AF271">
+        <v>6.25</v>
+      </c>
+      <c r="AG271">
+        <v>1.38</v>
+      </c>
+      <c r="AH271">
+        <v>2.9</v>
+      </c>
+      <c r="AI271">
+        <v>1.67</v>
+      </c>
+      <c r="AJ271">
+        <v>2.1</v>
+      </c>
+      <c r="AK271">
+        <v>3.1</v>
+      </c>
+      <c r="AL271">
+        <v>1.11</v>
+      </c>
+      <c r="AM271">
+        <v>1.1</v>
+      </c>
+      <c r="AN271">
+        <v>1.23</v>
+      </c>
+      <c r="AO271">
+        <v>2.57</v>
+      </c>
+      <c r="AP271">
+        <v>1.21</v>
+      </c>
+      <c r="AQ271">
+        <v>2.47</v>
+      </c>
+      <c r="AR271">
+        <v>1.41</v>
+      </c>
+      <c r="AS271">
+        <v>2.19</v>
+      </c>
+      <c r="AT271">
+        <v>3.6</v>
+      </c>
+      <c r="AU271">
+        <v>3</v>
+      </c>
+      <c r="AV271">
+        <v>6</v>
+      </c>
+      <c r="AW271">
+        <v>6</v>
+      </c>
+      <c r="AX271">
+        <v>5</v>
+      </c>
+      <c r="AY271">
+        <v>10</v>
+      </c>
+      <c r="AZ271">
+        <v>13</v>
+      </c>
+      <c r="BA271">
+        <v>4</v>
+      </c>
+      <c r="BB271">
+        <v>4</v>
+      </c>
+      <c r="BC271">
+        <v>8</v>
+      </c>
+      <c r="BD271">
+        <v>4.1</v>
+      </c>
+      <c r="BE271">
+        <v>8</v>
+      </c>
+      <c r="BF271">
+        <v>1.25</v>
+      </c>
+      <c r="BG271">
+        <v>1.22</v>
+      </c>
+      <c r="BH271">
+        <v>3.65</v>
+      </c>
+      <c r="BI271">
+        <v>1.41</v>
+      </c>
+      <c r="BJ271">
+        <v>2.65</v>
+      </c>
+      <c r="BK271">
+        <v>1.66</v>
+      </c>
+      <c r="BL271">
+        <v>2.06</v>
+      </c>
+      <c r="BM271">
+        <v>2.04</v>
+      </c>
+      <c r="BN271">
+        <v>1.67</v>
+      </c>
+      <c r="BO271">
+        <v>2.55</v>
+      </c>
+      <c r="BP271">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="408">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['10', '67']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1010,9 +1013,6 @@
   </si>
   <si>
     <t>['22']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1235,6 +1235,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['34', '46', '70']</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,7 +1858,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2061,7 +2064,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2267,7 +2270,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2679,7 +2682,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2760,7 +2763,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2885,7 +2888,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3787,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ11">
         <v>0.2</v>
@@ -3915,7 +3918,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4327,7 +4330,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4739,7 +4742,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5357,7 +5360,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5563,7 +5566,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5975,7 +5978,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6181,7 +6184,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6387,7 +6390,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6593,7 +6596,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6674,7 +6677,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR25">
         <v>1.11</v>
@@ -7211,7 +7214,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7704,7 +7707,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
         <v>2.21</v>
@@ -7829,7 +7832,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8113,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ32">
         <v>1.13</v>
@@ -8447,7 +8450,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8653,7 +8656,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -9477,7 +9480,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9683,7 +9686,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10507,7 +10510,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10713,7 +10716,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10919,7 +10922,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11409,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ48">
         <v>0.93</v>
@@ -11618,7 +11621,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11743,7 +11746,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11949,7 +11952,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12155,7 +12158,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12361,7 +12364,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12567,7 +12570,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13185,7 +13188,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13597,7 +13600,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -14215,7 +14218,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14421,7 +14424,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14627,7 +14630,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -15245,7 +15248,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15451,7 +15454,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15529,7 +15532,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ68">
         <v>1.38</v>
@@ -15657,7 +15660,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15863,7 +15866,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -16069,7 +16072,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16150,7 +16153,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR71">
         <v>1.52</v>
@@ -16275,7 +16278,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16481,7 +16484,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16893,7 +16896,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17099,7 +17102,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17305,7 +17308,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17511,7 +17514,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17717,7 +17720,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -18335,7 +18338,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -19031,7 +19034,7 @@
         <v>1.8</v>
       </c>
       <c r="AP85">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -19240,7 +19243,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR86">
         <v>1.37</v>
@@ -20189,7 +20192,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20395,7 +20398,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20601,7 +20604,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20807,7 +20810,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21013,7 +21016,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21219,7 +21222,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21425,7 +21428,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21837,7 +21840,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22249,7 +22252,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22533,7 +22536,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ102">
         <v>1.2</v>
@@ -22661,7 +22664,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23691,7 +23694,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -24103,7 +24106,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24799,7 +24802,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ113">
         <v>0.88</v>
@@ -24927,7 +24930,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25133,7 +25136,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25545,7 +25548,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25626,7 +25629,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR117">
         <v>1.77</v>
@@ -25751,7 +25754,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -28716,7 +28719,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ132">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR132">
         <v>1.36</v>
@@ -29537,7 +29540,7 @@
         <v>1.71</v>
       </c>
       <c r="AP136">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ136">
         <v>1.38</v>
@@ -32218,7 +32221,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR149">
         <v>1.18</v>
@@ -33245,7 +33248,7 @@
         <v>0.13</v>
       </c>
       <c r="AP154">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ154">
         <v>0.4</v>
@@ -33660,7 +33663,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ156">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR156">
         <v>1.36</v>
@@ -35923,7 +35926,7 @@
         <v>1.38</v>
       </c>
       <c r="AP167">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ167">
         <v>1.14</v>
@@ -37905,7 +37908,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -37986,7 +37989,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ177">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR177">
         <v>1.51</v>
@@ -39219,7 +39222,7 @@
         <v>1.56</v>
       </c>
       <c r="AP183">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ183">
         <v>1.29</v>
@@ -41407,7 +41410,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -42312,7 +42315,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ198">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR198">
         <v>1.12</v>
@@ -44784,7 +44787,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ210">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR210">
         <v>1.39</v>
@@ -45193,7 +45196,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ212">
         <v>1.33</v>
@@ -46969,7 +46972,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -48205,7 +48208,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -49931,7 +49934,7 @@
         <v>2.25</v>
       </c>
       <c r="AP235">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ235">
         <v>1.8</v>
@@ -50677,7 +50680,7 @@
         <v>251</v>
       </c>
       <c r="P239" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="Q239">
         <v>2.4</v>
@@ -50758,7 +50761,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ239">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR239">
         <v>1.79</v>
@@ -52197,7 +52200,7 @@
         <v>1.23</v>
       </c>
       <c r="AP246">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ246">
         <v>1.07</v>
@@ -52325,7 +52328,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -54466,7 +54469,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ257">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR257">
         <v>1.38</v>
@@ -55699,7 +55702,7 @@
         <v>1.21</v>
       </c>
       <c r="AP263">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AQ263">
         <v>1.13</v>
@@ -56445,7 +56448,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -57426,6 +57429,212 @@
       </c>
       <c r="BP271">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7468631</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45772.65625</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>79</v>
+      </c>
+      <c r="H272" t="s">
+        <v>86</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>3</v>
+      </c>
+      <c r="N272">
+        <v>4</v>
+      </c>
+      <c r="O272" t="s">
+        <v>272</v>
+      </c>
+      <c r="P272" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q272">
+        <v>2.05</v>
+      </c>
+      <c r="R272">
+        <v>2.5</v>
+      </c>
+      <c r="S272">
+        <v>5.5</v>
+      </c>
+      <c r="T272">
+        <v>1.29</v>
+      </c>
+      <c r="U272">
+        <v>3.5</v>
+      </c>
+      <c r="V272">
+        <v>2.38</v>
+      </c>
+      <c r="W272">
+        <v>1.53</v>
+      </c>
+      <c r="X272">
+        <v>5.5</v>
+      </c>
+      <c r="Y272">
+        <v>1.14</v>
+      </c>
+      <c r="Z272">
+        <v>1.5</v>
+      </c>
+      <c r="AA272">
+        <v>5.1</v>
+      </c>
+      <c r="AB272">
+        <v>5.9</v>
+      </c>
+      <c r="AC272">
+        <v>1</v>
+      </c>
+      <c r="AD272">
+        <v>13</v>
+      </c>
+      <c r="AE272">
+        <v>1.18</v>
+      </c>
+      <c r="AF272">
+        <v>4.75</v>
+      </c>
+      <c r="AG272">
+        <v>1.51</v>
+      </c>
+      <c r="AH272">
+        <v>2.46</v>
+      </c>
+      <c r="AI272">
+        <v>1.67</v>
+      </c>
+      <c r="AJ272">
+        <v>2.1</v>
+      </c>
+      <c r="AK272">
+        <v>1.16</v>
+      </c>
+      <c r="AL272">
+        <v>1.21</v>
+      </c>
+      <c r="AM272">
+        <v>2.35</v>
+      </c>
+      <c r="AN272">
+        <v>2.73</v>
+      </c>
+      <c r="AO272">
+        <v>1.33</v>
+      </c>
+      <c r="AP272">
+        <v>2.56</v>
+      </c>
+      <c r="AQ272">
+        <v>1.44</v>
+      </c>
+      <c r="AR272">
+        <v>2.37</v>
+      </c>
+      <c r="AS272">
+        <v>1.57</v>
+      </c>
+      <c r="AT272">
+        <v>3.94</v>
+      </c>
+      <c r="AU272">
+        <v>13</v>
+      </c>
+      <c r="AV272">
+        <v>4</v>
+      </c>
+      <c r="AW272">
+        <v>19</v>
+      </c>
+      <c r="AX272">
+        <v>4</v>
+      </c>
+      <c r="AY272">
+        <v>43</v>
+      </c>
+      <c r="AZ272">
+        <v>9</v>
+      </c>
+      <c r="BA272">
+        <v>17</v>
+      </c>
+      <c r="BB272">
+        <v>0</v>
+      </c>
+      <c r="BC272">
+        <v>17</v>
+      </c>
+      <c r="BD272">
+        <v>1.25</v>
+      </c>
+      <c r="BE272">
+        <v>8</v>
+      </c>
+      <c r="BF272">
+        <v>4.3</v>
+      </c>
+      <c r="BG272">
+        <v>1.26</v>
+      </c>
+      <c r="BH272">
+        <v>3.4</v>
+      </c>
+      <c r="BI272">
+        <v>1.46</v>
+      </c>
+      <c r="BJ272">
+        <v>2.5</v>
+      </c>
+      <c r="BK272">
+        <v>1.74</v>
+      </c>
+      <c r="BL272">
+        <v>1.96</v>
+      </c>
+      <c r="BM272">
+        <v>2.15</v>
+      </c>
+      <c r="BN272">
+        <v>1.61</v>
+      </c>
+      <c r="BO272">
+        <v>2.7</v>
+      </c>
+      <c r="BP272">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,9 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['7', '63', '83']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1599,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP272"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1861,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2064,7 +2067,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2270,7 +2273,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2557,7 +2560,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ5">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2682,7 +2685,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2888,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3918,7 +3921,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4330,7 +4333,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4742,7 +4745,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4820,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
         <v>0.93</v>
@@ -5360,7 +5363,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5566,7 +5569,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5853,7 +5856,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR21">
         <v>1.56</v>
@@ -5978,7 +5981,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6184,7 +6187,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6390,7 +6393,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6596,7 +6599,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -7214,7 +7217,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7832,7 +7835,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8450,7 +8453,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8528,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ34">
         <v>1.07</v>
@@ -8656,7 +8659,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -9355,7 +9358,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ38">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9480,7 +9483,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9686,7 +9689,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10510,7 +10513,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10716,7 +10719,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10922,7 +10925,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11746,7 +11749,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11952,7 +11955,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12158,7 +12161,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12364,7 +12367,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12445,7 +12448,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ53">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR53">
         <v>1.5</v>
@@ -12570,7 +12573,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12854,7 +12857,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
         <v>1.8</v>
@@ -13188,7 +13191,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13600,7 +13603,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -14218,7 +14221,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14296,7 +14299,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
         <v>1.67</v>
@@ -14424,7 +14427,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14630,7 +14633,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -15248,7 +15251,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15454,7 +15457,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15660,7 +15663,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15866,7 +15869,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -16072,7 +16075,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16278,7 +16281,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16484,7 +16487,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16896,7 +16899,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16977,7 +16980,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ75">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -17102,7 +17105,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17308,7 +17311,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17514,7 +17517,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17720,7 +17723,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -18004,7 +18007,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ80">
         <v>0.88</v>
@@ -18338,7 +18341,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -20192,7 +20195,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20398,7 +20401,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20604,7 +20607,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20682,7 +20685,7 @@
         <v>2.25</v>
       </c>
       <c r="AP93">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20810,7 +20813,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21016,7 +21019,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21222,7 +21225,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21428,7 +21431,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21840,7 +21843,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22127,7 +22130,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ100">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22252,7 +22255,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22664,7 +22667,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23694,7 +23697,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -24106,7 +24109,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24393,7 +24396,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ111">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24930,7 +24933,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25136,7 +25139,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25548,7 +25551,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -26578,7 +26581,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26784,7 +26787,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27274,7 +27277,7 @@
         <v>1.67</v>
       </c>
       <c r="AP125">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
         <v>1.14</v>
@@ -27608,7 +27611,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27895,7 +27898,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ128">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -28020,7 +28023,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28226,7 +28229,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28638,7 +28641,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28844,7 +28847,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29668,7 +29671,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29874,7 +29877,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -30286,7 +30289,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30982,7 +30985,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ143">
         <v>0.8</v>
@@ -31522,7 +31525,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31934,7 +31937,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32140,7 +32143,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32346,7 +32349,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32552,7 +32555,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32758,7 +32761,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32964,7 +32967,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33251,7 +33254,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ154">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR154">
         <v>2.26</v>
@@ -33788,7 +33791,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33994,7 +33997,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -35024,7 +35027,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35311,7 +35314,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ164">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR164">
         <v>1.3</v>
@@ -35436,7 +35439,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35720,7 +35723,7 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ166">
         <v>1.33</v>
@@ -35848,7 +35851,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -36054,7 +36057,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36466,7 +36469,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -37084,7 +37087,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37290,7 +37293,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37496,7 +37499,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37783,7 +37786,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ176">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR176">
         <v>1.38</v>
@@ -37908,7 +37911,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38526,7 +38529,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38732,7 +38735,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38938,7 +38941,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39556,7 +39559,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39762,7 +39765,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -40174,7 +40177,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40458,7 +40461,7 @@
         <v>0.33</v>
       </c>
       <c r="AP189">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ189">
         <v>0.2</v>
@@ -40586,7 +40589,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40792,7 +40795,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40998,7 +41001,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41079,7 +41082,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ192">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR192">
         <v>1.6</v>
@@ -41410,7 +41413,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41616,7 +41619,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41822,7 +41825,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42234,7 +42237,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42440,7 +42443,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -43058,7 +43061,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43960,7 +43963,7 @@
         <v>1.09</v>
       </c>
       <c r="AP206">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ206">
         <v>1.13</v>
@@ -44088,7 +44091,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44294,7 +44297,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44706,7 +44709,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44912,7 +44915,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45324,7 +45327,7 @@
         <v>240</v>
       </c>
       <c r="P213" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q213">
         <v>2.2</v>
@@ -45530,7 +45533,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45736,7 +45739,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46560,7 +46563,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46972,7 +46975,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47384,7 +47387,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47590,7 +47593,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47877,7 +47880,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ225">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR225">
         <v>1.19</v>
@@ -48002,7 +48005,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48208,7 +48211,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48620,7 +48623,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49032,7 +49035,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49444,7 +49447,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49522,7 +49525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ233">
         <v>1.2</v>
@@ -49650,7 +49653,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49731,7 +49734,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ234">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR234">
         <v>1.53</v>
@@ -50062,7 +50065,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50140,7 +50143,7 @@
         <v>1.46</v>
       </c>
       <c r="AP236">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ236">
         <v>1.38</v>
@@ -50474,7 +50477,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50886,7 +50889,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51298,7 +51301,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51504,7 +51507,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51916,7 +51919,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -52328,7 +52331,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52534,7 +52537,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52821,7 +52824,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ249">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -53358,7 +53361,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53564,7 +53567,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53770,7 +53773,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -54182,7 +54185,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54388,7 +54391,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54466,7 +54469,7 @@
         <v>1.36</v>
       </c>
       <c r="AP257">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ257">
         <v>1.44</v>
@@ -54594,7 +54597,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -55006,7 +55009,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55212,7 +55215,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55624,7 +55627,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q263">
         <v>1.44</v>
@@ -56242,7 +56245,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56448,7 +56451,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56654,7 +56657,7 @@
         <v>270</v>
       </c>
       <c r="P268" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -57066,7 +57069,7 @@
         <v>271</v>
       </c>
       <c r="P270" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q270">
         <v>4.75</v>
@@ -57272,7 +57275,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q271">
         <v>6.5</v>
@@ -57478,7 +57481,7 @@
         <v>272</v>
       </c>
       <c r="P272" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q272">
         <v>2.05</v>
@@ -57635,6 +57638,212 @@
       </c>
       <c r="BP272">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7468626</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45773.5</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>84</v>
+      </c>
+      <c r="H273" t="s">
+        <v>82</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>3</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>4</v>
+      </c>
+      <c r="O273" t="s">
+        <v>273</v>
+      </c>
+      <c r="P273" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q273">
+        <v>2.1</v>
+      </c>
+      <c r="R273">
+        <v>2.5</v>
+      </c>
+      <c r="S273">
+        <v>5</v>
+      </c>
+      <c r="T273">
+        <v>1.29</v>
+      </c>
+      <c r="U273">
+        <v>3.5</v>
+      </c>
+      <c r="V273">
+        <v>2.25</v>
+      </c>
+      <c r="W273">
+        <v>1.57</v>
+      </c>
+      <c r="X273">
+        <v>5.5</v>
+      </c>
+      <c r="Y273">
+        <v>1.14</v>
+      </c>
+      <c r="Z273">
+        <v>1.63</v>
+      </c>
+      <c r="AA273">
+        <v>4.7</v>
+      </c>
+      <c r="AB273">
+        <v>4.8</v>
+      </c>
+      <c r="AC273">
+        <v>1.01</v>
+      </c>
+      <c r="AD273">
+        <v>13</v>
+      </c>
+      <c r="AE273">
+        <v>1.17</v>
+      </c>
+      <c r="AF273">
+        <v>5</v>
+      </c>
+      <c r="AG273">
+        <v>1.49</v>
+      </c>
+      <c r="AH273">
+        <v>2.51</v>
+      </c>
+      <c r="AI273">
+        <v>1.62</v>
+      </c>
+      <c r="AJ273">
+        <v>2.2</v>
+      </c>
+      <c r="AK273">
+        <v>1.17</v>
+      </c>
+      <c r="AL273">
+        <v>1.21</v>
+      </c>
+      <c r="AM273">
+        <v>2.3</v>
+      </c>
+      <c r="AN273">
+        <v>2.07</v>
+      </c>
+      <c r="AO273">
+        <v>0.4</v>
+      </c>
+      <c r="AP273">
+        <v>2.13</v>
+      </c>
+      <c r="AQ273">
+        <v>0.38</v>
+      </c>
+      <c r="AR273">
+        <v>1.38</v>
+      </c>
+      <c r="AS273">
+        <v>1.06</v>
+      </c>
+      <c r="AT273">
+        <v>2.44</v>
+      </c>
+      <c r="AU273">
+        <v>9</v>
+      </c>
+      <c r="AV273">
+        <v>7</v>
+      </c>
+      <c r="AW273">
+        <v>11</v>
+      </c>
+      <c r="AX273">
+        <v>11</v>
+      </c>
+      <c r="AY273">
+        <v>24</v>
+      </c>
+      <c r="AZ273">
+        <v>22</v>
+      </c>
+      <c r="BA273">
+        <v>5</v>
+      </c>
+      <c r="BB273">
+        <v>8</v>
+      </c>
+      <c r="BC273">
+        <v>13</v>
+      </c>
+      <c r="BD273">
+        <v>1.49</v>
+      </c>
+      <c r="BE273">
+        <v>6.5</v>
+      </c>
+      <c r="BF273">
+        <v>2.95</v>
+      </c>
+      <c r="BG273">
+        <v>1.4</v>
+      </c>
+      <c r="BH273">
+        <v>2.65</v>
+      </c>
+      <c r="BI273">
+        <v>1.67</v>
+      </c>
+      <c r="BJ273">
+        <v>2.04</v>
+      </c>
+      <c r="BK273">
+        <v>2.08</v>
+      </c>
+      <c r="BL273">
+        <v>1.65</v>
+      </c>
+      <c r="BM273">
+        <v>2.65</v>
+      </c>
+      <c r="BN273">
+        <v>1.41</v>
+      </c>
+      <c r="BO273">
+        <v>3.55</v>
+      </c>
+      <c r="BP273">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="410">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,12 @@
     <t>['7', '63', '83']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['8', '25', '39', '77']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1013,9 +1019,6 @@
   </si>
   <si>
     <t>['63']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1602,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,7 +1864,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1939,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ2">
         <v>2.47</v>
@@ -2067,7 +2070,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2273,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2685,7 +2688,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2891,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3921,7 +3924,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -3999,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4333,7 +4336,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4745,7 +4748,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4826,7 +4829,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ16">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5363,7 +5366,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5569,7 +5572,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5647,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
         <v>1.38</v>
@@ -5981,7 +5984,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6187,7 +6190,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6393,7 +6396,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6599,7 +6602,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6883,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -7092,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -7217,7 +7220,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7835,7 +7838,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7916,7 +7919,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR31">
         <v>1.86</v>
@@ -8453,7 +8456,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8659,7 +8662,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -9483,7 +9486,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9689,7 +9692,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10513,7 +10516,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10719,7 +10722,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10925,7 +10928,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11003,7 +11006,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
         <v>1.8</v>
@@ -11418,7 +11421,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ48">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR48">
         <v>2.56</v>
@@ -11749,7 +11752,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11827,7 +11830,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11955,7 +11958,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12161,7 +12164,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12367,7 +12370,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12573,7 +12576,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13191,7 +13194,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13603,7 +13606,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13684,7 +13687,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13887,7 +13890,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -14221,7 +14224,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14427,7 +14430,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14633,7 +14636,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -15126,7 +15129,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -15251,7 +15254,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15457,7 +15460,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15663,7 +15666,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15741,7 +15744,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ69">
         <v>1.38</v>
@@ -15869,7 +15872,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -16075,7 +16078,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16281,7 +16284,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16487,7 +16490,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16899,7 +16902,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17105,7 +17108,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17311,7 +17314,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17517,7 +17520,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17595,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ78">
         <v>0.8</v>
@@ -17723,7 +17726,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -18216,7 +18219,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -18341,7 +18344,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -19864,7 +19867,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ89">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -20067,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ90">
         <v>0.2</v>
@@ -20195,7 +20198,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20401,7 +20404,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20607,7 +20610,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20688,7 +20691,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR93">
         <v>1.3</v>
@@ -20813,7 +20816,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21019,7 +21022,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21225,7 +21228,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21431,7 +21434,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21843,7 +21846,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21921,7 +21924,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ99">
         <v>1.14</v>
@@ -22127,7 +22130,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ100">
         <v>0.38</v>
@@ -22255,7 +22258,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22667,7 +22670,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23366,7 +23369,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR106">
         <v>1.43</v>
@@ -23697,7 +23700,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -24109,7 +24112,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24933,7 +24936,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25139,7 +25142,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25217,7 +25220,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ115">
         <v>1.07</v>
@@ -25551,7 +25554,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25629,7 +25632,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ117">
         <v>1.44</v>
@@ -25838,7 +25841,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -26581,7 +26584,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26787,7 +26790,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27486,7 +27489,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ126">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27611,7 +27614,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -28023,7 +28026,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28229,7 +28232,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28516,7 +28519,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR131">
         <v>1.24</v>
@@ -28641,7 +28644,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28847,7 +28850,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28925,7 +28928,7 @@
         <v>0.29</v>
       </c>
       <c r="AP133">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ133">
         <v>1.38</v>
@@ -29671,7 +29674,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29877,7 +29880,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29958,7 +29961,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -30289,7 +30292,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30573,7 +30576,7 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ141">
         <v>0.2</v>
@@ -31525,7 +31528,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31606,7 +31609,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ146">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR146">
         <v>1.45</v>
@@ -31937,7 +31940,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32143,7 +32146,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32349,7 +32352,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32555,7 +32558,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32633,7 +32636,7 @@
         <v>1.63</v>
       </c>
       <c r="AP151">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ151">
         <v>1.67</v>
@@ -32761,7 +32764,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32967,7 +32970,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33460,7 +33463,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ155">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR155">
         <v>1.44</v>
@@ -33791,7 +33794,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33997,7 +34000,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34281,7 +34284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ159">
         <v>1.2</v>
@@ -35027,7 +35030,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35439,7 +35442,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35520,7 +35523,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ165">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35851,7 +35854,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -36057,7 +36060,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36135,7 +36138,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ168">
         <v>1.13</v>
@@ -36469,7 +36472,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -37087,7 +37090,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37293,7 +37296,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37499,7 +37502,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37911,7 +37914,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38529,7 +38532,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38735,7 +38738,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38941,7 +38944,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39228,7 +39231,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ183">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR183">
         <v>2.35</v>
@@ -39559,7 +39562,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39765,7 +39768,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39846,7 +39849,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ186">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR186">
         <v>1.27</v>
@@ -40049,7 +40052,7 @@
         <v>1.33</v>
       </c>
       <c r="AP187">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ187">
         <v>1.14</v>
@@ -40177,7 +40180,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40589,7 +40592,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40795,7 +40798,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41001,7 +41004,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41413,7 +41416,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41619,7 +41622,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41825,7 +41828,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42237,7 +42240,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42315,7 +42318,7 @@
         <v>1.18</v>
       </c>
       <c r="AP198">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ198">
         <v>1.44</v>
@@ -42443,7 +42446,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -42936,7 +42939,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ201">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR201">
         <v>1.63</v>
@@ -43061,7 +43064,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -44091,7 +44094,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44169,7 +44172,7 @@
         <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ207">
         <v>1.2</v>
@@ -44297,7 +44300,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44375,7 +44378,7 @@
         <v>2.45</v>
       </c>
       <c r="AP208">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ208">
         <v>2.47</v>
@@ -44709,7 +44712,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44915,7 +44918,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45327,7 +45330,7 @@
         <v>240</v>
       </c>
       <c r="P213" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q213">
         <v>2.2</v>
@@ -45405,7 +45408,7 @@
         <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ213">
         <v>1.13</v>
@@ -45533,7 +45536,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45739,7 +45742,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45820,7 +45823,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ215">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR215">
         <v>1.47</v>
@@ -46438,7 +46441,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ218">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR218">
         <v>1.52</v>
@@ -46563,7 +46566,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46975,7 +46978,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47387,7 +47390,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47593,7 +47596,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47877,7 +47880,7 @@
         <v>0.17</v>
       </c>
       <c r="AP225">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ225">
         <v>0.38</v>
@@ -48005,7 +48008,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48211,7 +48214,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48623,7 +48626,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -48704,7 +48707,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ229">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR229">
         <v>1.22</v>
@@ -48910,7 +48913,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ230">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -49035,7 +49038,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49113,7 +49116,7 @@
         <v>1.17</v>
       </c>
       <c r="AP231">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ231">
         <v>1.13</v>
@@ -49447,7 +49450,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49653,7 +49656,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -50065,7 +50068,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50477,7 +50480,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50889,7 +50892,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51301,7 +51304,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51379,7 +51382,7 @@
         <v>0.85</v>
       </c>
       <c r="AP242">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ242">
         <v>0.88</v>
@@ -51507,7 +51510,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51588,7 +51591,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ243">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR243">
         <v>1.21</v>
@@ -51919,7 +51922,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -52331,7 +52334,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52412,7 +52415,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ247">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR247">
         <v>1.58</v>
@@ -52537,7 +52540,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52615,7 +52618,7 @@
         <v>1.31</v>
       </c>
       <c r="AP248">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ248">
         <v>1.33</v>
@@ -53361,7 +53364,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53567,7 +53570,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53773,7 +53776,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -54185,7 +54188,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54391,7 +54394,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54597,7 +54600,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -55009,7 +55012,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55087,10 +55090,10 @@
         <v>0.77</v>
       </c>
       <c r="AP260">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ260">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR260">
         <v>1.24</v>
@@ -55215,7 +55218,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55627,7 +55630,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q263">
         <v>1.44</v>
@@ -56245,7 +56248,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56451,7 +56454,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56657,7 +56660,7 @@
         <v>270</v>
       </c>
       <c r="P268" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -57069,7 +57072,7 @@
         <v>271</v>
       </c>
       <c r="P270" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q270">
         <v>4.75</v>
@@ -57275,7 +57278,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q271">
         <v>6.5</v>
@@ -57481,7 +57484,7 @@
         <v>272</v>
       </c>
       <c r="P272" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q272">
         <v>2.05</v>
@@ -57844,6 +57847,418 @@
       </c>
       <c r="BP273">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7468625</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45773.58333333334</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>70</v>
+      </c>
+      <c r="H274" t="s">
+        <v>73</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>274</v>
+      </c>
+      <c r="P274" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q274">
+        <v>6</v>
+      </c>
+      <c r="R274">
+        <v>2.63</v>
+      </c>
+      <c r="S274">
+        <v>1.91</v>
+      </c>
+      <c r="T274">
+        <v>1.25</v>
+      </c>
+      <c r="U274">
+        <v>3.75</v>
+      </c>
+      <c r="V274">
+        <v>2.1</v>
+      </c>
+      <c r="W274">
+        <v>1.67</v>
+      </c>
+      <c r="X274">
+        <v>5</v>
+      </c>
+      <c r="Y274">
+        <v>1.17</v>
+      </c>
+      <c r="Z274">
+        <v>6.5</v>
+      </c>
+      <c r="AA274">
+        <v>5.1</v>
+      </c>
+      <c r="AB274">
+        <v>1.46</v>
+      </c>
+      <c r="AC274">
+        <v>1.01</v>
+      </c>
+      <c r="AD274">
+        <v>17</v>
+      </c>
+      <c r="AE274">
+        <v>1.13</v>
+      </c>
+      <c r="AF274">
+        <v>5.75</v>
+      </c>
+      <c r="AG274">
+        <v>1.41</v>
+      </c>
+      <c r="AH274">
+        <v>2.78</v>
+      </c>
+      <c r="AI274">
+        <v>1.62</v>
+      </c>
+      <c r="AJ274">
+        <v>2.2</v>
+      </c>
+      <c r="AK274">
+        <v>2.65</v>
+      </c>
+      <c r="AL274">
+        <v>1.18</v>
+      </c>
+      <c r="AM274">
+        <v>1.12</v>
+      </c>
+      <c r="AN274">
+        <v>0.67</v>
+      </c>
+      <c r="AO274">
+        <v>1.29</v>
+      </c>
+      <c r="AP274">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ274">
+        <v>1.27</v>
+      </c>
+      <c r="AR274">
+        <v>1.25</v>
+      </c>
+      <c r="AS274">
+        <v>1.64</v>
+      </c>
+      <c r="AT274">
+        <v>2.89</v>
+      </c>
+      <c r="AU274">
+        <v>4</v>
+      </c>
+      <c r="AV274">
+        <v>6</v>
+      </c>
+      <c r="AW274">
+        <v>6</v>
+      </c>
+      <c r="AX274">
+        <v>15</v>
+      </c>
+      <c r="AY274">
+        <v>12</v>
+      </c>
+      <c r="AZ274">
+        <v>24</v>
+      </c>
+      <c r="BA274">
+        <v>3</v>
+      </c>
+      <c r="BB274">
+        <v>6</v>
+      </c>
+      <c r="BC274">
+        <v>9</v>
+      </c>
+      <c r="BD274">
+        <v>3.4</v>
+      </c>
+      <c r="BE274">
+        <v>7</v>
+      </c>
+      <c r="BF274">
+        <v>1.38</v>
+      </c>
+      <c r="BG274">
+        <v>1.3</v>
+      </c>
+      <c r="BH274">
+        <v>3.15</v>
+      </c>
+      <c r="BI274">
+        <v>1.52</v>
+      </c>
+      <c r="BJ274">
+        <v>2.33</v>
+      </c>
+      <c r="BK274">
+        <v>1.84</v>
+      </c>
+      <c r="BL274">
+        <v>1.84</v>
+      </c>
+      <c r="BM274">
+        <v>2.32</v>
+      </c>
+      <c r="BN274">
+        <v>1.52</v>
+      </c>
+      <c r="BO274">
+        <v>3</v>
+      </c>
+      <c r="BP274">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7468633</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45773.67013888889</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>80</v>
+      </c>
+      <c r="H275" t="s">
+        <v>78</v>
+      </c>
+      <c r="I275">
+        <v>3</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>3</v>
+      </c>
+      <c r="L275">
+        <v>4</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>5</v>
+      </c>
+      <c r="O275" t="s">
+        <v>275</v>
+      </c>
+      <c r="P275" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q275">
+        <v>2.25</v>
+      </c>
+      <c r="R275">
+        <v>2.4</v>
+      </c>
+      <c r="S275">
+        <v>4.33</v>
+      </c>
+      <c r="T275">
+        <v>1.29</v>
+      </c>
+      <c r="U275">
+        <v>3.5</v>
+      </c>
+      <c r="V275">
+        <v>2.38</v>
+      </c>
+      <c r="W275">
+        <v>1.53</v>
+      </c>
+      <c r="X275">
+        <v>5.5</v>
+      </c>
+      <c r="Y275">
+        <v>1.14</v>
+      </c>
+      <c r="Z275">
+        <v>1.77</v>
+      </c>
+      <c r="AA275">
+        <v>4.3</v>
+      </c>
+      <c r="AB275">
+        <v>4.2</v>
+      </c>
+      <c r="AC275">
+        <v>1.03</v>
+      </c>
+      <c r="AD275">
+        <v>11</v>
+      </c>
+      <c r="AE275">
+        <v>1.18</v>
+      </c>
+      <c r="AF275">
+        <v>4.75</v>
+      </c>
+      <c r="AG275">
+        <v>1.54</v>
+      </c>
+      <c r="AH275">
+        <v>2.38</v>
+      </c>
+      <c r="AI275">
+        <v>1.57</v>
+      </c>
+      <c r="AJ275">
+        <v>2.25</v>
+      </c>
+      <c r="AK275">
+        <v>1.23</v>
+      </c>
+      <c r="AL275">
+        <v>1.23</v>
+      </c>
+      <c r="AM275">
+        <v>2.05</v>
+      </c>
+      <c r="AN275">
+        <v>2.07</v>
+      </c>
+      <c r="AO275">
+        <v>0.93</v>
+      </c>
+      <c r="AP275">
+        <v>2.13</v>
+      </c>
+      <c r="AQ275">
+        <v>0.87</v>
+      </c>
+      <c r="AR275">
+        <v>1.7</v>
+      </c>
+      <c r="AS275">
+        <v>1.44</v>
+      </c>
+      <c r="AT275">
+        <v>3.14</v>
+      </c>
+      <c r="AU275">
+        <v>11</v>
+      </c>
+      <c r="AV275">
+        <v>5</v>
+      </c>
+      <c r="AW275">
+        <v>6</v>
+      </c>
+      <c r="AX275">
+        <v>6</v>
+      </c>
+      <c r="AY275">
+        <v>20</v>
+      </c>
+      <c r="AZ275">
+        <v>12</v>
+      </c>
+      <c r="BA275">
+        <v>7</v>
+      </c>
+      <c r="BB275">
+        <v>2</v>
+      </c>
+      <c r="BC275">
+        <v>9</v>
+      </c>
+      <c r="BD275">
+        <v>1.65</v>
+      </c>
+      <c r="BE275">
+        <v>6.5</v>
+      </c>
+      <c r="BF275">
+        <v>2.5</v>
+      </c>
+      <c r="BG275">
+        <v>1.3</v>
+      </c>
+      <c r="BH275">
+        <v>3.05</v>
+      </c>
+      <c r="BI275">
+        <v>1.53</v>
+      </c>
+      <c r="BJ275">
+        <v>2.32</v>
+      </c>
+      <c r="BK275">
+        <v>1.85</v>
+      </c>
+      <c r="BL275">
+        <v>1.83</v>
+      </c>
+      <c r="BM275">
+        <v>2.32</v>
+      </c>
+      <c r="BN275">
+        <v>1.53</v>
+      </c>
+      <c r="BO275">
+        <v>3</v>
+      </c>
+      <c r="BP275">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="412">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1245,6 +1245,12 @@
   <si>
     <t>['34', '46', '70']</t>
   </si>
+  <si>
+    <t>['45+1', '50']</t>
+  </si>
+  <si>
+    <t>['33', '40', '44', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1605,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2357,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2972,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ7">
         <v>1.38</v>
@@ -3384,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -4620,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>1.13</v>
@@ -5032,10 +5038,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5241,7 +5247,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ18">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5447,7 +5453,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6062,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6680,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -6889,7 +6895,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>0.74</v>
@@ -7507,7 +7513,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.65</v>
@@ -8740,10 +8746,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.39</v>
@@ -9152,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -10391,7 +10397,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR43">
         <v>1.86</v>
@@ -10594,7 +10600,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44">
         <v>0.88</v>
@@ -10800,10 +10806,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -11624,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>1.44</v>
@@ -11833,7 +11839,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
         <v>1.41</v>
@@ -12448,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>0.38</v>
@@ -12654,10 +12660,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.25</v>
@@ -13275,7 +13281,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13481,7 +13487,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -14923,7 +14929,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.54</v>
@@ -16156,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
         <v>1.44</v>
@@ -16365,7 +16371,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16568,7 +16574,7 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ73">
         <v>1.8</v>
@@ -16980,7 +16986,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ75">
         <v>0.38</v>
@@ -17392,10 +17398,10 @@
         <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>1.98</v>
@@ -17601,7 +17607,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.8</v>
@@ -17804,10 +17810,10 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ79">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR79">
         <v>1.36</v>
@@ -19661,7 +19667,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ88">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -20276,7 +20282,7 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ91">
         <v>1.8</v>
@@ -20485,7 +20491,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20894,7 +20900,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -21100,7 +21106,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ95">
         <v>2.47</v>
@@ -21309,7 +21315,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -21515,7 +21521,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR97">
         <v>1.67</v>
@@ -21718,7 +21724,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21927,7 +21933,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -22545,7 +22551,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ102">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR102">
         <v>2.25</v>
@@ -22748,7 +22754,7 @@
         <v>2.5</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ103">
         <v>1.8</v>
@@ -23778,7 +23784,7 @@
         <v>0.6</v>
       </c>
       <c r="AP108">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ108">
         <v>1.13</v>
@@ -25014,10 +25020,10 @@
         <v>1.83</v>
       </c>
       <c r="AP114">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ114">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -25429,7 +25435,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ116">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -26459,7 +26465,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ121">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26868,7 +26874,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ123">
         <v>1.38</v>
@@ -27074,7 +27080,7 @@
         <v>0</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124">
         <v>0.2</v>
@@ -27283,7 +27289,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27486,7 +27492,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126">
         <v>0.87</v>
@@ -28107,7 +28113,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -28722,7 +28728,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ132">
         <v>1.44</v>
@@ -30167,7 +30173,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
         <v>1.2</v>
@@ -30782,10 +30788,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ142">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -30991,7 +30997,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ143">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
         <v>1.2</v>
@@ -31194,7 +31200,7 @@
         <v>0.43</v>
       </c>
       <c r="AP144">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ144">
         <v>1.13</v>
@@ -31606,7 +31612,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ146">
         <v>1.27</v>
@@ -31815,7 +31821,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ147">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR147">
         <v>1.33</v>
@@ -32842,7 +32848,7 @@
         <v>1.13</v>
       </c>
       <c r="AP152">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ152">
         <v>1.07</v>
@@ -33460,7 +33466,7 @@
         <v>1.75</v>
       </c>
       <c r="AP155">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ155">
         <v>1.27</v>
@@ -33872,7 +33878,7 @@
         <v>2.25</v>
       </c>
       <c r="AP157">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ157">
         <v>2.47</v>
@@ -34287,7 +34293,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ159">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR159">
         <v>1.74</v>
@@ -34696,10 +34702,10 @@
         <v>0.5</v>
       </c>
       <c r="AP161">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -35729,7 +35735,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35935,7 +35941,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ167">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR167">
         <v>2.34</v>
@@ -36344,7 +36350,7 @@
         <v>1.33</v>
       </c>
       <c r="AP169">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169">
         <v>1.38</v>
@@ -36756,7 +36762,7 @@
         <v>1.33</v>
       </c>
       <c r="AP171">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ171">
         <v>1.07</v>
@@ -37168,7 +37174,7 @@
         <v>1.78</v>
       </c>
       <c r="AP173">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ173">
         <v>1.67</v>
@@ -37583,7 +37589,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ175">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.59</v>
@@ -38404,7 +38410,7 @@
         <v>0.78</v>
       </c>
       <c r="AP179">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ179">
         <v>1.13</v>
@@ -39022,7 +39028,7 @@
         <v>0.9</v>
       </c>
       <c r="AP182">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ182">
         <v>1.13</v>
@@ -40055,7 +40061,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ187">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR187">
         <v>1.71</v>
@@ -40261,7 +40267,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ188">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR188">
         <v>1.32</v>
@@ -40670,7 +40676,7 @@
         <v>2.4</v>
       </c>
       <c r="AP190">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ190">
         <v>1.8</v>
@@ -40879,7 +40885,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ191">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
         <v>1.49</v>
@@ -41700,7 +41706,7 @@
         <v>1.18</v>
       </c>
       <c r="AP195">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ195">
         <v>1.38</v>
@@ -41906,7 +41912,7 @@
         <v>0.82</v>
       </c>
       <c r="AP196">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ196">
         <v>1.38</v>
@@ -42527,7 +42533,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ199">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR199">
         <v>1.59</v>
@@ -42733,7 +42739,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ200">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -43554,7 +43560,7 @@
         <v>1.73</v>
       </c>
       <c r="AP204">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ204">
         <v>1.67</v>
@@ -44175,7 +44181,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ207">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR207">
         <v>1.17</v>
@@ -44587,7 +44593,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ209">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR209">
         <v>1.71</v>
@@ -44996,7 +45002,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ211">
         <v>1.13</v>
@@ -45205,7 +45211,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ212">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR212">
         <v>2.34</v>
@@ -45614,10 +45620,10 @@
         <v>1.36</v>
       </c>
       <c r="AP214">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ214">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR214">
         <v>1.25</v>
@@ -45820,7 +45826,7 @@
         <v>0.4</v>
       </c>
       <c r="AP215">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ215">
         <v>0.87</v>
@@ -47468,7 +47474,7 @@
         <v>1.15</v>
       </c>
       <c r="AP223">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ223">
         <v>1.38</v>
@@ -47677,7 +47683,7 @@
         <v>1</v>
       </c>
       <c r="AQ224">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR224">
         <v>1.31</v>
@@ -48295,7 +48301,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ227">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
         <v>1.7</v>
@@ -48498,10 +48504,10 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ228">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR228">
         <v>1.43</v>
@@ -48704,7 +48710,7 @@
         <v>1.25</v>
       </c>
       <c r="AP229">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ229">
         <v>1.27</v>
@@ -48910,7 +48916,7 @@
         <v>0.64</v>
       </c>
       <c r="AP230">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ230">
         <v>0.87</v>
@@ -49325,7 +49331,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ232">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR232">
         <v>1.63</v>
@@ -49531,7 +49537,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ233">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR233">
         <v>1.34</v>
@@ -49734,7 +49740,7 @@
         <v>0.23</v>
       </c>
       <c r="AP234">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ234">
         <v>0.38</v>
@@ -51588,7 +51594,7 @@
         <v>0.58</v>
       </c>
       <c r="AP243">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ243">
         <v>0.87</v>
@@ -52621,7 +52627,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ248">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR248">
         <v>1.73</v>
@@ -52824,7 +52830,7 @@
         <v>0.43</v>
       </c>
       <c r="AP249">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ249">
         <v>0.38</v>
@@ -53239,7 +53245,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ251">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR251">
         <v>1.6</v>
@@ -53442,7 +53448,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ252">
         <v>1.13</v>
@@ -53651,7 +53657,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ253">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR253">
         <v>1.84</v>
@@ -53854,10 +53860,10 @@
         <v>1</v>
       </c>
       <c r="AP254">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ254">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR254">
         <v>1.73</v>
@@ -54269,7 +54275,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ256">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR256">
         <v>1.52</v>
@@ -54884,7 +54890,7 @@
         <v>0.23</v>
       </c>
       <c r="AP259">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ259">
         <v>0.2</v>
@@ -56329,7 +56335,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ266">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR266">
         <v>1.64</v>
@@ -56947,7 +56953,7 @@
         <v>1</v>
       </c>
       <c r="AQ269">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR269">
         <v>1.35</v>
@@ -57356,7 +57362,7 @@
         <v>2.57</v>
       </c>
       <c r="AP271">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ271">
         <v>2.47</v>
@@ -58259,6 +58265,830 @@
       </c>
       <c r="BP275">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7468630</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45774.41666666666</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>77</v>
+      </c>
+      <c r="H276" t="s">
+        <v>81</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>90</v>
+      </c>
+      <c r="P276" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q276">
+        <v>5.5</v>
+      </c>
+      <c r="R276">
+        <v>2.2</v>
+      </c>
+      <c r="S276">
+        <v>2.25</v>
+      </c>
+      <c r="T276">
+        <v>1.4</v>
+      </c>
+      <c r="U276">
+        <v>2.75</v>
+      </c>
+      <c r="V276">
+        <v>3</v>
+      </c>
+      <c r="W276">
+        <v>1.36</v>
+      </c>
+      <c r="X276">
+        <v>8</v>
+      </c>
+      <c r="Y276">
+        <v>1.08</v>
+      </c>
+      <c r="Z276">
+        <v>5.3</v>
+      </c>
+      <c r="AA276">
+        <v>3.92</v>
+      </c>
+      <c r="AB276">
+        <v>1.69</v>
+      </c>
+      <c r="AC276">
+        <v>1.05</v>
+      </c>
+      <c r="AD276">
+        <v>9.5</v>
+      </c>
+      <c r="AE276">
+        <v>1.28</v>
+      </c>
+      <c r="AF276">
+        <v>3.55</v>
+      </c>
+      <c r="AG276">
+        <v>1.98</v>
+      </c>
+      <c r="AH276">
+        <v>1.83</v>
+      </c>
+      <c r="AI276">
+        <v>1.95</v>
+      </c>
+      <c r="AJ276">
+        <v>1.8</v>
+      </c>
+      <c r="AK276">
+        <v>2.15</v>
+      </c>
+      <c r="AL276">
+        <v>1.25</v>
+      </c>
+      <c r="AM276">
+        <v>1.16</v>
+      </c>
+      <c r="AN276">
+        <v>0.93</v>
+      </c>
+      <c r="AO276">
+        <v>1.33</v>
+      </c>
+      <c r="AP276">
+        <v>0.88</v>
+      </c>
+      <c r="AQ276">
+        <v>1.44</v>
+      </c>
+      <c r="AR276">
+        <v>1.22</v>
+      </c>
+      <c r="AS276">
+        <v>1.45</v>
+      </c>
+      <c r="AT276">
+        <v>2.67</v>
+      </c>
+      <c r="AU276">
+        <v>4</v>
+      </c>
+      <c r="AV276">
+        <v>6</v>
+      </c>
+      <c r="AW276">
+        <v>3</v>
+      </c>
+      <c r="AX276">
+        <v>4</v>
+      </c>
+      <c r="AY276">
+        <v>8</v>
+      </c>
+      <c r="AZ276">
+        <v>11</v>
+      </c>
+      <c r="BA276">
+        <v>7</v>
+      </c>
+      <c r="BB276">
+        <v>2</v>
+      </c>
+      <c r="BC276">
+        <v>9</v>
+      </c>
+      <c r="BD276">
+        <v>2.7</v>
+      </c>
+      <c r="BE276">
+        <v>6.5</v>
+      </c>
+      <c r="BF276">
+        <v>1.55</v>
+      </c>
+      <c r="BG276">
+        <v>1.44</v>
+      </c>
+      <c r="BH276">
+        <v>2.55</v>
+      </c>
+      <c r="BI276">
+        <v>1.75</v>
+      </c>
+      <c r="BJ276">
+        <v>1.95</v>
+      </c>
+      <c r="BK276">
+        <v>2.18</v>
+      </c>
+      <c r="BL276">
+        <v>1.58</v>
+      </c>
+      <c r="BM276">
+        <v>2.8</v>
+      </c>
+      <c r="BN276">
+        <v>1.36</v>
+      </c>
+      <c r="BO276">
+        <v>3.8</v>
+      </c>
+      <c r="BP276">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7468629</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45774.51041666666</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>83</v>
+      </c>
+      <c r="H277" t="s">
+        <v>74</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>3</v>
+      </c>
+      <c r="K277">
+        <v>3</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>4</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277" t="s">
+        <v>90</v>
+      </c>
+      <c r="P277" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q277">
+        <v>2.2</v>
+      </c>
+      <c r="R277">
+        <v>2.38</v>
+      </c>
+      <c r="S277">
+        <v>5</v>
+      </c>
+      <c r="T277">
+        <v>1.33</v>
+      </c>
+      <c r="U277">
+        <v>3.25</v>
+      </c>
+      <c r="V277">
+        <v>2.5</v>
+      </c>
+      <c r="W277">
+        <v>1.5</v>
+      </c>
+      <c r="X277">
+        <v>6.5</v>
+      </c>
+      <c r="Y277">
+        <v>1.11</v>
+      </c>
+      <c r="Z277">
+        <v>1.69</v>
+      </c>
+      <c r="AA277">
+        <v>4.1</v>
+      </c>
+      <c r="AB277">
+        <v>5</v>
+      </c>
+      <c r="AC277">
+        <v>1.04</v>
+      </c>
+      <c r="AD277">
+        <v>10</v>
+      </c>
+      <c r="AE277">
+        <v>1.22</v>
+      </c>
+      <c r="AF277">
+        <v>4.2</v>
+      </c>
+      <c r="AG277">
+        <v>1.7</v>
+      </c>
+      <c r="AH277">
+        <v>2.05</v>
+      </c>
+      <c r="AI277">
+        <v>1.7</v>
+      </c>
+      <c r="AJ277">
+        <v>2.05</v>
+      </c>
+      <c r="AK277">
+        <v>1.18</v>
+      </c>
+      <c r="AL277">
+        <v>1.23</v>
+      </c>
+      <c r="AM277">
+        <v>2.2</v>
+      </c>
+      <c r="AN277">
+        <v>1.33</v>
+      </c>
+      <c r="AO277">
+        <v>0.8</v>
+      </c>
+      <c r="AP277">
+        <v>1.25</v>
+      </c>
+      <c r="AQ277">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR277">
+        <v>1.89</v>
+      </c>
+      <c r="AS277">
+        <v>1.31</v>
+      </c>
+      <c r="AT277">
+        <v>3.2</v>
+      </c>
+      <c r="AU277">
+        <v>5</v>
+      </c>
+      <c r="AV277">
+        <v>8</v>
+      </c>
+      <c r="AW277">
+        <v>9</v>
+      </c>
+      <c r="AX277">
+        <v>4</v>
+      </c>
+      <c r="AY277">
+        <v>16</v>
+      </c>
+      <c r="AZ277">
+        <v>13</v>
+      </c>
+      <c r="BA277">
+        <v>8</v>
+      </c>
+      <c r="BB277">
+        <v>1</v>
+      </c>
+      <c r="BC277">
+        <v>9</v>
+      </c>
+      <c r="BD277">
+        <v>1.42</v>
+      </c>
+      <c r="BE277">
+        <v>7</v>
+      </c>
+      <c r="BF277">
+        <v>3.2</v>
+      </c>
+      <c r="BG277">
+        <v>1.34</v>
+      </c>
+      <c r="BH277">
+        <v>2.9</v>
+      </c>
+      <c r="BI277">
+        <v>1.58</v>
+      </c>
+      <c r="BJ277">
+        <v>2.2</v>
+      </c>
+      <c r="BK277">
+        <v>1.95</v>
+      </c>
+      <c r="BL277">
+        <v>1.75</v>
+      </c>
+      <c r="BM277">
+        <v>2.43</v>
+      </c>
+      <c r="BN277">
+        <v>1.48</v>
+      </c>
+      <c r="BO277">
+        <v>3.15</v>
+      </c>
+      <c r="BP277">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7468627</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45774.51041666666</v>
+      </c>
+      <c r="F278">
+        <v>31</v>
+      </c>
+      <c r="G278" t="s">
+        <v>85</v>
+      </c>
+      <c r="H278" t="s">
+        <v>76</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278" t="s">
+        <v>90</v>
+      </c>
+      <c r="P278" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q278">
+        <v>3.75</v>
+      </c>
+      <c r="R278">
+        <v>2.1</v>
+      </c>
+      <c r="S278">
+        <v>3</v>
+      </c>
+      <c r="T278">
+        <v>1.4</v>
+      </c>
+      <c r="U278">
+        <v>2.75</v>
+      </c>
+      <c r="V278">
+        <v>3</v>
+      </c>
+      <c r="W278">
+        <v>1.36</v>
+      </c>
+      <c r="X278">
+        <v>8</v>
+      </c>
+      <c r="Y278">
+        <v>1.08</v>
+      </c>
+      <c r="Z278">
+        <v>3.26</v>
+      </c>
+      <c r="AA278">
+        <v>3.33</v>
+      </c>
+      <c r="AB278">
+        <v>2.34</v>
+      </c>
+      <c r="AC278">
+        <v>1.06</v>
+      </c>
+      <c r="AD278">
+        <v>8.5</v>
+      </c>
+      <c r="AE278">
+        <v>1.33</v>
+      </c>
+      <c r="AF278">
+        <v>3.25</v>
+      </c>
+      <c r="AG278">
+        <v>2</v>
+      </c>
+      <c r="AH278">
+        <v>1.82</v>
+      </c>
+      <c r="AI278">
+        <v>1.75</v>
+      </c>
+      <c r="AJ278">
+        <v>2</v>
+      </c>
+      <c r="AK278">
+        <v>1.6</v>
+      </c>
+      <c r="AL278">
+        <v>1.31</v>
+      </c>
+      <c r="AM278">
+        <v>1.36</v>
+      </c>
+      <c r="AN278">
+        <v>1.21</v>
+      </c>
+      <c r="AO278">
+        <v>1.2</v>
+      </c>
+      <c r="AP278">
+        <v>1.2</v>
+      </c>
+      <c r="AQ278">
+        <v>1.19</v>
+      </c>
+      <c r="AR278">
+        <v>1.38</v>
+      </c>
+      <c r="AS278">
+        <v>1.39</v>
+      </c>
+      <c r="AT278">
+        <v>2.77</v>
+      </c>
+      <c r="AU278">
+        <v>4</v>
+      </c>
+      <c r="AV278">
+        <v>3</v>
+      </c>
+      <c r="AW278">
+        <v>8</v>
+      </c>
+      <c r="AX278">
+        <v>4</v>
+      </c>
+      <c r="AY278">
+        <v>12</v>
+      </c>
+      <c r="AZ278">
+        <v>11</v>
+      </c>
+      <c r="BA278">
+        <v>3</v>
+      </c>
+      <c r="BB278">
+        <v>5</v>
+      </c>
+      <c r="BC278">
+        <v>8</v>
+      </c>
+      <c r="BD278">
+        <v>2.08</v>
+      </c>
+      <c r="BE278">
+        <v>6.4</v>
+      </c>
+      <c r="BF278">
+        <v>1.91</v>
+      </c>
+      <c r="BG278">
+        <v>1.29</v>
+      </c>
+      <c r="BH278">
+        <v>3.15</v>
+      </c>
+      <c r="BI278">
+        <v>1.5</v>
+      </c>
+      <c r="BJ278">
+        <v>2.35</v>
+      </c>
+      <c r="BK278">
+        <v>1.83</v>
+      </c>
+      <c r="BL278">
+        <v>1.85</v>
+      </c>
+      <c r="BM278">
+        <v>2.32</v>
+      </c>
+      <c r="BN278">
+        <v>1.53</v>
+      </c>
+      <c r="BO278">
+        <v>2.95</v>
+      </c>
+      <c r="BP278">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7468628</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45774.51041666666</v>
+      </c>
+      <c r="F279">
+        <v>31</v>
+      </c>
+      <c r="G279" t="s">
+        <v>75</v>
+      </c>
+      <c r="H279" t="s">
+        <v>72</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279" t="s">
+        <v>90</v>
+      </c>
+      <c r="P279" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q279">
+        <v>4.33</v>
+      </c>
+      <c r="R279">
+        <v>2.2</v>
+      </c>
+      <c r="S279">
+        <v>2.5</v>
+      </c>
+      <c r="T279">
+        <v>1.36</v>
+      </c>
+      <c r="U279">
+        <v>3</v>
+      </c>
+      <c r="V279">
+        <v>2.75</v>
+      </c>
+      <c r="W279">
+        <v>1.4</v>
+      </c>
+      <c r="X279">
+        <v>7</v>
+      </c>
+      <c r="Y279">
+        <v>1.1</v>
+      </c>
+      <c r="Z279">
+        <v>4.2</v>
+      </c>
+      <c r="AA279">
+        <v>3.71</v>
+      </c>
+      <c r="AB279">
+        <v>1.89</v>
+      </c>
+      <c r="AC279">
+        <v>1.05</v>
+      </c>
+      <c r="AD279">
+        <v>9.5</v>
+      </c>
+      <c r="AE279">
+        <v>1.25</v>
+      </c>
+      <c r="AF279">
+        <v>3.7</v>
+      </c>
+      <c r="AG279">
+        <v>1.84</v>
+      </c>
+      <c r="AH279">
+        <v>1.97</v>
+      </c>
+      <c r="AI279">
+        <v>1.7</v>
+      </c>
+      <c r="AJ279">
+        <v>2.05</v>
+      </c>
+      <c r="AK279">
+        <v>1.88</v>
+      </c>
+      <c r="AL279">
+        <v>1.27</v>
+      </c>
+      <c r="AM279">
+        <v>1.24</v>
+      </c>
+      <c r="AN279">
+        <v>0.8</v>
+      </c>
+      <c r="AO279">
+        <v>1.14</v>
+      </c>
+      <c r="AP279">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ279">
+        <v>1.13</v>
+      </c>
+      <c r="AR279">
+        <v>1.54</v>
+      </c>
+      <c r="AS279">
+        <v>1.21</v>
+      </c>
+      <c r="AT279">
+        <v>2.75</v>
+      </c>
+      <c r="AU279">
+        <v>3</v>
+      </c>
+      <c r="AV279">
+        <v>4</v>
+      </c>
+      <c r="AW279">
+        <v>10</v>
+      </c>
+      <c r="AX279">
+        <v>5</v>
+      </c>
+      <c r="AY279">
+        <v>20</v>
+      </c>
+      <c r="AZ279">
+        <v>11</v>
+      </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
+      <c r="BB279">
+        <v>5</v>
+      </c>
+      <c r="BC279">
+        <v>10</v>
+      </c>
+      <c r="BD279">
+        <v>2.43</v>
+      </c>
+      <c r="BE279">
+        <v>6.5</v>
+      </c>
+      <c r="BF279">
+        <v>1.68</v>
+      </c>
+      <c r="BG279">
+        <v>1.32</v>
+      </c>
+      <c r="BH279">
+        <v>3.05</v>
+      </c>
+      <c r="BI279">
+        <v>1.54</v>
+      </c>
+      <c r="BJ279">
+        <v>2.28</v>
+      </c>
+      <c r="BK279">
+        <v>1.9</v>
+      </c>
+      <c r="BL279">
+        <v>1.79</v>
+      </c>
+      <c r="BM279">
+        <v>2.4</v>
+      </c>
+      <c r="BN279">
+        <v>1.49</v>
+      </c>
+      <c r="BO279">
+        <v>3.15</v>
+      </c>
+      <c r="BP279">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -844,6 +844,9 @@
     <t>['8', '25', '39', '77']</t>
   </si>
   <si>
+    <t>['8', '37', '45', '63']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1611,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1870,7 +1873,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2076,7 +2079,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2282,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2694,7 +2697,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2900,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3930,7 +3933,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4342,7 +4345,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4629,7 +4632,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4754,7 +4757,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5372,7 +5375,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5450,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ19">
         <v>1.13</v>
@@ -5578,7 +5581,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5990,7 +5993,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6196,7 +6199,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6402,7 +6405,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6608,7 +6611,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -7226,7 +7229,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7716,7 +7719,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -7844,7 +7847,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8131,7 +8134,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ32">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR32">
         <v>2.81</v>
@@ -8462,7 +8465,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8668,7 +8671,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -9492,7 +9495,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9698,7 +9701,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10522,7 +10525,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10728,7 +10731,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10934,7 +10937,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11221,7 +11224,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR47">
         <v>1.61</v>
@@ -11758,7 +11761,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11964,7 +11967,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12170,7 +12173,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12376,7 +12379,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12582,7 +12585,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13072,7 +13075,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -13200,7 +13203,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13612,7 +13615,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -14230,7 +14233,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14436,7 +14439,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14642,7 +14645,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -15260,7 +15263,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15466,7 +15469,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15672,7 +15675,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15878,7 +15881,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -16084,7 +16087,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16290,7 +16293,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16496,7 +16499,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16908,7 +16911,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17114,7 +17117,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17195,7 +17198,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR76">
         <v>1.01</v>
@@ -17320,7 +17323,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17526,7 +17529,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17732,7 +17735,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -18350,7 +18353,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18428,7 +18431,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ82">
         <v>2.47</v>
@@ -20204,7 +20207,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20410,7 +20413,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20488,7 +20491,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ92">
         <v>0.9399999999999999</v>
@@ -20616,7 +20619,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20822,7 +20825,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21028,7 +21031,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21234,7 +21237,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21440,7 +21443,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21727,7 +21730,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR98">
         <v>1.3</v>
@@ -21852,7 +21855,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22264,7 +22267,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22345,7 +22348,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22676,7 +22679,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23706,7 +23709,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -24118,7 +24121,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24942,7 +24945,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25148,7 +25151,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25844,7 +25847,7 @@
         <v>2.4</v>
       </c>
       <c r="AP118">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ118">
         <v>1.27</v>
@@ -26053,7 +26056,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ119">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR119">
         <v>1.36</v>
@@ -26590,7 +26593,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26796,7 +26799,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27620,7 +27623,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -28032,7 +28035,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28110,7 +28113,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ129">
         <v>1.44</v>
@@ -28238,7 +28241,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28650,7 +28653,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28856,7 +28859,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29680,7 +29683,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29886,7 +29889,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -30298,7 +30301,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -31203,7 +31206,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ144">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR144">
         <v>1.26</v>
@@ -31406,7 +31409,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
         <v>1.13</v>
@@ -31534,7 +31537,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31946,7 +31949,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32152,7 +32155,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32358,7 +32361,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32564,7 +32567,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32770,7 +32773,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32976,7 +32979,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33800,7 +33803,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34006,7 +34009,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34087,7 +34090,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ158">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR158">
         <v>1.48</v>
@@ -35036,7 +35039,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35114,7 +35117,7 @@
         <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ163">
         <v>1.38</v>
@@ -35448,7 +35451,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35860,7 +35863,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -36066,7 +36069,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36147,7 +36150,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ168">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR168">
         <v>1.13</v>
@@ -36478,7 +36481,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -37096,7 +37099,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37302,7 +37305,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37508,7 +37511,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37920,7 +37923,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38538,7 +38541,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38744,7 +38747,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38822,7 +38825,7 @@
         <v>1.3</v>
       </c>
       <c r="AP181">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ181">
         <v>1.38</v>
@@ -38950,7 +38953,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39031,7 +39034,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ182">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR182">
         <v>1.39</v>
@@ -39568,7 +39571,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39774,7 +39777,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -40186,7 +40189,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40598,7 +40601,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40804,7 +40807,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41010,7 +41013,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41088,7 +41091,7 @@
         <v>0.18</v>
       </c>
       <c r="AP192">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ192">
         <v>0.38</v>
@@ -41422,7 +41425,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41628,7 +41631,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41834,7 +41837,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42246,7 +42249,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42452,7 +42455,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -43070,7 +43073,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43975,7 +43978,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ206">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR206">
         <v>1.37</v>
@@ -44100,7 +44103,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44306,7 +44309,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44718,7 +44721,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44924,7 +44927,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45336,7 +45339,7 @@
         <v>240</v>
       </c>
       <c r="P213" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q213">
         <v>2.2</v>
@@ -45417,7 +45420,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ213">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR213">
         <v>1.74</v>
@@ -45542,7 +45545,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45748,7 +45751,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -46238,7 +46241,7 @@
         <v>0.92</v>
       </c>
       <c r="AP217">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ217">
         <v>0.88</v>
@@ -46572,7 +46575,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46984,7 +46987,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47062,7 +47065,7 @@
         <v>1.58</v>
       </c>
       <c r="AP221">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ221">
         <v>1.67</v>
@@ -47396,7 +47399,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47602,7 +47605,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -48014,7 +48017,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48220,7 +48223,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48632,7 +48635,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -49044,7 +49047,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49456,7 +49459,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49662,7 +49665,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -50074,7 +50077,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50486,7 +50489,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50898,7 +50901,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -50979,7 +50982,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ240">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR240">
         <v>1.5</v>
@@ -51310,7 +51313,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51516,7 +51519,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51928,7 +51931,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -52340,7 +52343,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52546,7 +52549,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53370,7 +53373,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53576,7 +53579,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53654,7 +53657,7 @@
         <v>1.38</v>
       </c>
       <c r="AP253">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ253">
         <v>1.19</v>
@@ -53782,7 +53785,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -54194,7 +54197,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54400,7 +54403,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54606,7 +54609,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54687,7 +54690,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ258">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR258">
         <v>1.42</v>
@@ -55018,7 +55021,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55224,7 +55227,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55636,7 +55639,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q263">
         <v>1.44</v>
@@ -56126,7 +56129,7 @@
         <v>0.21</v>
       </c>
       <c r="AP265">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ265">
         <v>0.2</v>
@@ -56254,7 +56257,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56460,7 +56463,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56666,7 +56669,7 @@
         <v>270</v>
       </c>
       <c r="P268" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -57078,7 +57081,7 @@
         <v>271</v>
       </c>
       <c r="P270" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q270">
         <v>4.75</v>
@@ -57284,7 +57287,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q271">
         <v>6.5</v>
@@ -57490,7 +57493,7 @@
         <v>272</v>
       </c>
       <c r="P272" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q272">
         <v>2.05</v>
@@ -58314,7 +58317,7 @@
         <v>90</v>
       </c>
       <c r="P276" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q276">
         <v>5.5</v>
@@ -58520,7 +58523,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59089,6 +59092,212 @@
       </c>
       <c r="BP279">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7468632</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45774.65625</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>87</v>
+      </c>
+      <c r="H280" t="s">
+        <v>71</v>
+      </c>
+      <c r="I280">
+        <v>3</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>4</v>
+      </c>
+      <c r="L280">
+        <v>4</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>5</v>
+      </c>
+      <c r="O280" t="s">
+        <v>276</v>
+      </c>
+      <c r="P280" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q280">
+        <v>2</v>
+      </c>
+      <c r="R280">
+        <v>2.5</v>
+      </c>
+      <c r="S280">
+        <v>5.5</v>
+      </c>
+      <c r="T280">
+        <v>1.29</v>
+      </c>
+      <c r="U280">
+        <v>3.5</v>
+      </c>
+      <c r="V280">
+        <v>2.25</v>
+      </c>
+      <c r="W280">
+        <v>1.57</v>
+      </c>
+      <c r="X280">
+        <v>5.5</v>
+      </c>
+      <c r="Y280">
+        <v>1.14</v>
+      </c>
+      <c r="Z280">
+        <v>1.56</v>
+      </c>
+      <c r="AA280">
+        <v>4.5</v>
+      </c>
+      <c r="AB280">
+        <v>5.7</v>
+      </c>
+      <c r="AC280">
+        <v>1.02</v>
+      </c>
+      <c r="AD280">
+        <v>13</v>
+      </c>
+      <c r="AE280">
+        <v>1.2</v>
+      </c>
+      <c r="AF280">
+        <v>4.5</v>
+      </c>
+      <c r="AG280">
+        <v>1.6</v>
+      </c>
+      <c r="AH280">
+        <v>2.25</v>
+      </c>
+      <c r="AI280">
+        <v>1.67</v>
+      </c>
+      <c r="AJ280">
+        <v>2.1</v>
+      </c>
+      <c r="AK280">
+        <v>1.16</v>
+      </c>
+      <c r="AL280">
+        <v>1.22</v>
+      </c>
+      <c r="AM280">
+        <v>2.3</v>
+      </c>
+      <c r="AN280">
+        <v>1.87</v>
+      </c>
+      <c r="AO280">
+        <v>1.13</v>
+      </c>
+      <c r="AP280">
+        <v>1.94</v>
+      </c>
+      <c r="AQ280">
+        <v>1.06</v>
+      </c>
+      <c r="AR280">
+        <v>1.87</v>
+      </c>
+      <c r="AS280">
+        <v>1.43</v>
+      </c>
+      <c r="AT280">
+        <v>3.3</v>
+      </c>
+      <c r="AU280">
+        <v>8</v>
+      </c>
+      <c r="AV280">
+        <v>5</v>
+      </c>
+      <c r="AW280">
+        <v>4</v>
+      </c>
+      <c r="AX280">
+        <v>5</v>
+      </c>
+      <c r="AY280">
+        <v>13</v>
+      </c>
+      <c r="AZ280">
+        <v>10</v>
+      </c>
+      <c r="BA280">
+        <v>4</v>
+      </c>
+      <c r="BB280">
+        <v>3</v>
+      </c>
+      <c r="BC280">
+        <v>7</v>
+      </c>
+      <c r="BD280">
+        <v>1.44</v>
+      </c>
+      <c r="BE280">
+        <v>6.75</v>
+      </c>
+      <c r="BF280">
+        <v>3.15</v>
+      </c>
+      <c r="BG280">
+        <v>1.41</v>
+      </c>
+      <c r="BH280">
+        <v>2.63</v>
+      </c>
+      <c r="BI280">
+        <v>1.72</v>
+      </c>
+      <c r="BJ280">
+        <v>1.98</v>
+      </c>
+      <c r="BK280">
+        <v>2.15</v>
+      </c>
+      <c r="BL280">
+        <v>1.61</v>
+      </c>
+      <c r="BM280">
+        <v>2.8</v>
+      </c>
+      <c r="BN280">
+        <v>1.37</v>
+      </c>
+      <c r="BO280">
+        <v>3.65</v>
+      </c>
+      <c r="BP280">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="413">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -847,6 +847,9 @@
     <t>['8', '37', '45', '63']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1157,9 +1160,6 @@
   </si>
   <si>
     <t>['28', '33', '62', '90+1']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
   <si>
     <t>['51', '57', '71', '90+4']</t>
@@ -1614,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1873,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2079,7 +2079,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2285,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2697,7 +2697,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2903,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3933,7 +3933,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4345,7 +4345,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4757,7 +4757,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
         <v>1.19</v>
@@ -5375,7 +5375,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5456,7 +5456,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ19">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5993,7 +5993,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6199,7 +6199,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6405,7 +6405,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6611,7 +6611,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -7229,7 +7229,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7847,7 +7847,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8465,7 +8465,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8671,7 +8671,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8752,7 +8752,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR35">
         <v>1.39</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ38">
         <v>0.38</v>
@@ -9495,7 +9495,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9701,7 +9701,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10525,7 +10525,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10731,7 +10731,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10937,7 +10937,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11761,7 +11761,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11967,7 +11967,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12173,7 +12173,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12379,7 +12379,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12585,7 +12585,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12666,7 +12666,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR54">
         <v>1.25</v>
@@ -13203,7 +13203,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13615,7 +13615,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -14233,7 +14233,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14439,7 +14439,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14645,7 +14645,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14723,7 +14723,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64">
         <v>2.47</v>
@@ -15263,7 +15263,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15469,7 +15469,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15675,7 +15675,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15881,7 +15881,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -16087,7 +16087,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16293,7 +16293,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16374,7 +16374,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16499,7 +16499,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16911,7 +16911,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17117,7 +17117,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17323,7 +17323,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17529,7 +17529,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17735,7 +17735,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -18225,7 +18225,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ81">
         <v>1.27</v>
@@ -18353,7 +18353,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -19670,7 +19670,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -20207,7 +20207,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20413,7 +20413,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20619,7 +20619,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20825,7 +20825,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21031,7 +21031,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21237,7 +21237,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21315,7 +21315,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ96">
         <v>1.44</v>
@@ -21443,7 +21443,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21855,7 +21855,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21936,7 +21936,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -22267,7 +22267,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22679,7 +22679,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23709,7 +23709,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23993,7 +23993,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
@@ -24121,7 +24121,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24945,7 +24945,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25151,7 +25151,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -26593,7 +26593,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26671,7 +26671,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ122">
         <v>1.13</v>
@@ -26799,7 +26799,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27292,7 +27292,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27623,7 +27623,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -28035,7 +28035,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28241,7 +28241,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28653,7 +28653,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28859,7 +28859,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29683,7 +29683,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29889,7 +29889,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29967,7 +29967,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ138">
         <v>0.87</v>
@@ -30176,7 +30176,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>1.2</v>
@@ -30301,7 +30301,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -31537,7 +31537,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31949,7 +31949,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32155,7 +32155,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32361,7 +32361,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32567,7 +32567,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32773,7 +32773,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32979,7 +32979,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33803,7 +33803,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34009,7 +34009,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -35039,7 +35039,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35451,7 +35451,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35863,7 +35863,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -35944,7 +35944,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ167">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR167">
         <v>2.34</v>
@@ -36069,7 +36069,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36481,7 +36481,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36971,7 +36971,7 @@
         <v>2.67</v>
       </c>
       <c r="AP172">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ172">
         <v>1.8</v>
@@ -37099,7 +37099,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37305,7 +37305,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37511,7 +37511,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37923,7 +37923,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38541,7 +38541,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38747,7 +38747,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38953,7 +38953,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39443,7 +39443,7 @@
         <v>1.9</v>
       </c>
       <c r="AP184">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ184">
         <v>1.67</v>
@@ -39571,7 +39571,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39777,7 +39777,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -40064,7 +40064,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ187">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR187">
         <v>1.71</v>
@@ -40189,7 +40189,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40601,7 +40601,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40807,7 +40807,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41013,7 +41013,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41425,7 +41425,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41631,7 +41631,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41837,7 +41837,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42249,7 +42249,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42455,7 +42455,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -42742,7 +42742,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ200">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -43073,7 +43073,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43769,7 +43769,7 @@
         <v>0.3</v>
       </c>
       <c r="AP205">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ205">
         <v>0.2</v>
@@ -44103,7 +44103,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44309,7 +44309,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44596,7 +44596,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ209">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR209">
         <v>1.71</v>
@@ -44721,7 +44721,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44927,7 +44927,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45339,7 +45339,7 @@
         <v>240</v>
       </c>
       <c r="P213" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="Q213">
         <v>2.2</v>
@@ -46987,7 +46987,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47399,7 +47399,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -48095,7 +48095,7 @@
         <v>1.33</v>
       </c>
       <c r="AP226">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ226">
         <v>1.38</v>
@@ -48223,7 +48223,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48301,7 +48301,7 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ227">
         <v>0.9399999999999999</v>
@@ -49334,7 +49334,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ232">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR232">
         <v>1.63</v>
@@ -52009,7 +52009,7 @@
         <v>0.79</v>
       </c>
       <c r="AP245">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ245">
         <v>0.88</v>
@@ -52343,7 +52343,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -53866,7 +53866,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ254">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR254">
         <v>1.73</v>
@@ -56257,7 +56257,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56463,7 +56463,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56541,7 +56541,7 @@
         <v>1.14</v>
       </c>
       <c r="AP267">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ267">
         <v>1.07</v>
@@ -59016,7 +59016,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ279">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR279">
         <v>1.54</v>
@@ -59141,7 +59141,7 @@
         <v>276</v>
       </c>
       <c r="P280" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q280">
         <v>2</v>
@@ -59298,6 +59298,212 @@
       </c>
       <c r="BP280">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7468636</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>86</v>
+      </c>
+      <c r="H281" t="s">
+        <v>72</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>277</v>
+      </c>
+      <c r="P281" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q281">
+        <v>1.91</v>
+      </c>
+      <c r="R281">
+        <v>2.6</v>
+      </c>
+      <c r="S281">
+        <v>6.5</v>
+      </c>
+      <c r="T281">
+        <v>1.29</v>
+      </c>
+      <c r="U281">
+        <v>3.5</v>
+      </c>
+      <c r="V281">
+        <v>2.25</v>
+      </c>
+      <c r="W281">
+        <v>1.57</v>
+      </c>
+      <c r="X281">
+        <v>5.5</v>
+      </c>
+      <c r="Y281">
+        <v>1.14</v>
+      </c>
+      <c r="Z281">
+        <v>1.46</v>
+      </c>
+      <c r="AA281">
+        <v>4.9</v>
+      </c>
+      <c r="AB281">
+        <v>6.8</v>
+      </c>
+      <c r="AC281">
+        <v>1.03</v>
+      </c>
+      <c r="AD281">
+        <v>11</v>
+      </c>
+      <c r="AE281">
+        <v>1.18</v>
+      </c>
+      <c r="AF281">
+        <v>4.75</v>
+      </c>
+      <c r="AG281">
+        <v>1.57</v>
+      </c>
+      <c r="AH281">
+        <v>2.25</v>
+      </c>
+      <c r="AI281">
+        <v>1.75</v>
+      </c>
+      <c r="AJ281">
+        <v>2</v>
+      </c>
+      <c r="AK281">
+        <v>1.11</v>
+      </c>
+      <c r="AL281">
+        <v>1.19</v>
+      </c>
+      <c r="AM281">
+        <v>2.65</v>
+      </c>
+      <c r="AN281">
+        <v>2.07</v>
+      </c>
+      <c r="AO281">
+        <v>1.13</v>
+      </c>
+      <c r="AP281">
+        <v>2.13</v>
+      </c>
+      <c r="AQ281">
+        <v>1.06</v>
+      </c>
+      <c r="AR281">
+        <v>1.87</v>
+      </c>
+      <c r="AS281">
+        <v>1.2</v>
+      </c>
+      <c r="AT281">
+        <v>3.07</v>
+      </c>
+      <c r="AU281">
+        <v>3</v>
+      </c>
+      <c r="AV281">
+        <v>4</v>
+      </c>
+      <c r="AW281">
+        <v>6</v>
+      </c>
+      <c r="AX281">
+        <v>14</v>
+      </c>
+      <c r="AY281">
+        <v>11</v>
+      </c>
+      <c r="AZ281">
+        <v>24</v>
+      </c>
+      <c r="BA281">
+        <v>5</v>
+      </c>
+      <c r="BB281">
+        <v>3</v>
+      </c>
+      <c r="BC281">
+        <v>8</v>
+      </c>
+      <c r="BD281">
+        <v>1.38</v>
+      </c>
+      <c r="BE281">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF281">
+        <v>3.84</v>
+      </c>
+      <c r="BG281">
+        <v>1.21</v>
+      </c>
+      <c r="BH281">
+        <v>3.58</v>
+      </c>
+      <c r="BI281">
+        <v>1.43</v>
+      </c>
+      <c r="BJ281">
+        <v>2.54</v>
+      </c>
+      <c r="BK281">
+        <v>1.76</v>
+      </c>
+      <c r="BL281">
+        <v>1.95</v>
+      </c>
+      <c r="BM281">
+        <v>2.21</v>
+      </c>
+      <c r="BN281">
+        <v>1.56</v>
+      </c>
+      <c r="BO281">
+        <v>2.92</v>
+      </c>
+      <c r="BP281">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="417">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -850,6 +850,12 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['20', '45+3']</t>
+  </si>
+  <si>
+    <t>['28', '82']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1254,6 +1260,12 @@
   <si>
     <t>['33', '40', '44', '73']</t>
   </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['2', '68', '78']</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1885,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1954,7 +1966,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ2">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2079,7 +2091,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2285,7 +2297,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2697,7 +2709,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2903,7 +2915,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3187,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ8">
         <v>0.88</v>
@@ -3933,7 +3945,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4014,7 +4026,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4345,7 +4357,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4423,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ14">
         <v>1.13</v>
@@ -4757,7 +4769,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4835,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ16">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5375,7 +5387,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5581,7 +5593,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5993,7 +6005,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6199,7 +6211,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6277,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ23">
         <v>1.8</v>
@@ -6405,7 +6417,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6611,7 +6623,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -7104,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -7229,7 +7241,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7310,7 +7322,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7513,7 +7525,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ29">
         <v>1.44</v>
@@ -7847,7 +7859,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7928,7 +7940,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>1.86</v>
@@ -8465,7 +8477,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8543,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ34">
         <v>1.07</v>
@@ -8671,7 +8683,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8955,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ36">
         <v>1.13</v>
@@ -9495,7 +9507,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9701,7 +9713,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9988,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR41">
         <v>0.92</v>
@@ -10525,7 +10537,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10731,7 +10743,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10937,7 +10949,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11430,7 +11442,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ48">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR48">
         <v>2.56</v>
@@ -11761,7 +11773,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11967,7 +11979,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12173,7 +12185,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12251,7 +12263,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ52">
         <v>1.38</v>
@@ -12379,7 +12391,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12585,7 +12597,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12869,7 +12881,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ55">
         <v>1.8</v>
@@ -13203,7 +13215,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13281,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13615,7 +13627,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13696,7 +13708,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -14233,7 +14245,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14311,7 +14323,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ62">
         <v>1.67</v>
@@ -14439,7 +14451,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14645,7 +14657,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14726,7 +14738,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR64">
         <v>1.7</v>
@@ -15138,7 +15150,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -15263,7 +15275,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15341,7 +15353,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -15469,7 +15481,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15675,7 +15687,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15881,7 +15893,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15959,7 +15971,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -16087,7 +16099,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16293,7 +16305,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16499,7 +16511,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16911,7 +16923,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17117,7 +17129,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17323,7 +17335,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17529,7 +17541,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17735,7 +17747,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -18019,7 +18031,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ80">
         <v>0.88</v>
@@ -18228,7 +18240,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -18353,7 +18365,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18434,7 +18446,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ82">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR82">
         <v>1.67</v>
@@ -19461,7 +19473,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ87">
         <v>1.38</v>
@@ -19667,7 +19679,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ88">
         <v>1.06</v>
@@ -19876,7 +19888,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ89">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -20207,7 +20219,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20413,7 +20425,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20619,7 +20631,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20697,10 +20709,10 @@
         <v>2.25</v>
       </c>
       <c r="AP93">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ93">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.3</v>
@@ -20825,7 +20837,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21031,7 +21043,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21112,7 +21124,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -21237,7 +21249,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21443,7 +21455,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21855,7 +21867,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22267,7 +22279,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22679,7 +22691,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22963,7 +22975,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ104">
         <v>0.2</v>
@@ -23378,7 +23390,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ106">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR106">
         <v>1.43</v>
@@ -23709,7 +23721,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -24121,7 +24133,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24945,7 +24957,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25151,7 +25163,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25435,7 +25447,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -25850,7 +25862,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -26262,7 +26274,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -26593,7 +26605,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26799,7 +26811,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27289,7 +27301,7 @@
         <v>1.67</v>
       </c>
       <c r="AP125">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ125">
         <v>1.06</v>
@@ -27498,7 +27510,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ126">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27623,7 +27635,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27701,7 +27713,7 @@
         <v>2.57</v>
       </c>
       <c r="AP127">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ127">
         <v>1.8</v>
@@ -27907,7 +27919,7 @@
         <v>0.14</v>
       </c>
       <c r="AP128">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ128">
         <v>0.38</v>
@@ -28035,7 +28047,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28241,7 +28253,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28528,7 +28540,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR131">
         <v>1.24</v>
@@ -28653,7 +28665,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28859,7 +28871,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29683,7 +29695,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29764,7 +29776,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ137">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29889,7 +29901,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -29970,7 +29982,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ138">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -30173,7 +30185,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ139">
         <v>1.06</v>
@@ -30301,7 +30313,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30997,7 +31009,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ143">
         <v>0.9399999999999999</v>
@@ -31537,7 +31549,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31618,7 +31630,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ146">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR146">
         <v>1.45</v>
@@ -31949,7 +31961,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32155,7 +32167,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32361,7 +32373,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32567,7 +32579,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32773,7 +32785,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32979,7 +32991,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33057,7 +33069,7 @@
         <v>0.63</v>
       </c>
       <c r="AP153">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ153">
         <v>1.38</v>
@@ -33472,7 +33484,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ155">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR155">
         <v>1.44</v>
@@ -33803,7 +33815,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33884,7 +33896,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ157">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR157">
         <v>1.67</v>
@@ -34009,7 +34021,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34499,7 +34511,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ160">
         <v>0.88</v>
@@ -35039,7 +35051,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35451,7 +35463,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35532,7 +35544,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ165">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35735,7 +35747,7 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ166">
         <v>1.44</v>
@@ -35863,7 +35875,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -36069,7 +36081,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36481,7 +36493,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36559,7 +36571,7 @@
         <v>0</v>
       </c>
       <c r="AP170">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ170">
         <v>0.2</v>
@@ -37099,7 +37111,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37305,7 +37317,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37386,7 +37398,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ174">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR174">
         <v>1.46</v>
@@ -37511,7 +37523,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37923,7 +37935,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38001,7 +38013,7 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ177">
         <v>1.44</v>
@@ -38541,7 +38553,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38747,7 +38759,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38953,7 +38965,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39240,7 +39252,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ183">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR183">
         <v>2.35</v>
@@ -39571,7 +39583,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39777,7 +39789,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39855,10 +39867,10 @@
         <v>0.11</v>
       </c>
       <c r="AP186">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ186">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR186">
         <v>1.27</v>
@@ -40189,7 +40201,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40473,7 +40485,7 @@
         <v>0.33</v>
       </c>
       <c r="AP189">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ189">
         <v>0.2</v>
@@ -40601,7 +40613,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40807,7 +40819,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41013,7 +41025,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41425,7 +41437,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41503,10 +41515,10 @@
         <v>2.4</v>
       </c>
       <c r="AP194">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ194">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41631,7 +41643,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41837,7 +41849,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -42249,7 +42261,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42455,7 +42467,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -42948,7 +42960,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ201">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR201">
         <v>1.63</v>
@@ -43073,7 +43085,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43151,7 +43163,7 @@
         <v>1.36</v>
       </c>
       <c r="AP202">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ202">
         <v>1.07</v>
@@ -43975,7 +43987,7 @@
         <v>1.09</v>
       </c>
       <c r="AP206">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ206">
         <v>1.06</v>
@@ -44103,7 +44115,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44309,7 +44321,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44390,7 +44402,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ208">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR208">
         <v>1.74</v>
@@ -44721,7 +44733,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44799,7 +44811,7 @@
         <v>1.33</v>
       </c>
       <c r="AP210">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ210">
         <v>1.44</v>
@@ -44927,7 +44939,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45545,7 +45557,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45751,7 +45763,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45832,7 +45844,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ215">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR215">
         <v>1.47</v>
@@ -46447,10 +46459,10 @@
         <v>1.27</v>
       </c>
       <c r="AP218">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ218">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR218">
         <v>1.52</v>
@@ -46575,7 +46587,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46656,7 +46668,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ219">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR219">
         <v>1.62</v>
@@ -46987,7 +46999,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47399,7 +47411,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47605,7 +47617,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -48017,7 +48029,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48223,7 +48235,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48635,7 +48647,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -48716,7 +48728,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ229">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR229">
         <v>1.22</v>
@@ -48922,7 +48934,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ230">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -49047,7 +49059,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49459,7 +49471,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49537,7 +49549,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ233">
         <v>1.19</v>
@@ -49665,7 +49677,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -50077,7 +50089,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50155,7 +50167,7 @@
         <v>1.46</v>
       </c>
       <c r="AP236">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ236">
         <v>1.38</v>
@@ -50489,7 +50501,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50567,10 +50579,10 @@
         <v>2.54</v>
       </c>
       <c r="AP238">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ238">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR238">
         <v>1.42</v>
@@ -50901,7 +50913,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -50979,7 +50991,7 @@
         <v>1</v>
       </c>
       <c r="AP240">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ240">
         <v>1.06</v>
@@ -51313,7 +51325,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51519,7 +51531,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51600,7 +51612,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ243">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR243">
         <v>1.21</v>
@@ -51931,7 +51943,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -52343,7 +52355,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52424,7 +52436,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ247">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR247">
         <v>1.58</v>
@@ -52549,7 +52561,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53373,7 +53385,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53579,7 +53591,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53785,7 +53797,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -54197,7 +54209,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54275,7 +54287,7 @@
         <v>1.21</v>
       </c>
       <c r="AP256">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ256">
         <v>1.44</v>
@@ -54403,7 +54415,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54481,7 +54493,7 @@
         <v>1.36</v>
       </c>
       <c r="AP257">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ257">
         <v>1.44</v>
@@ -54609,7 +54621,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54687,7 +54699,7 @@
         <v>1.14</v>
       </c>
       <c r="AP258">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ258">
         <v>1.06</v>
@@ -55021,7 +55033,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55102,7 +55114,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ260">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR260">
         <v>1.24</v>
@@ -55227,7 +55239,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55639,7 +55651,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q263">
         <v>1.44</v>
@@ -56257,7 +56269,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56463,7 +56475,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56669,7 +56681,7 @@
         <v>270</v>
       </c>
       <c r="P268" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -57081,7 +57093,7 @@
         <v>271</v>
       </c>
       <c r="P270" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q270">
         <v>4.75</v>
@@ -57159,7 +57171,7 @@
         <v>1.47</v>
       </c>
       <c r="AP270">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ270">
         <v>1.38</v>
@@ -57287,7 +57299,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q271">
         <v>6.5</v>
@@ -57368,7 +57380,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ271">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR271">
         <v>1.41</v>
@@ -57493,7 +57505,7 @@
         <v>272</v>
       </c>
       <c r="P272" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q272">
         <v>2.05</v>
@@ -57777,7 +57789,7 @@
         <v>0.4</v>
       </c>
       <c r="AP273">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ273">
         <v>0.38</v>
@@ -57986,7 +57998,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ274">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR274">
         <v>1.25</v>
@@ -58192,7 +58204,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ275">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR275">
         <v>1.7</v>
@@ -58317,7 +58329,7 @@
         <v>90</v>
       </c>
       <c r="P276" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q276">
         <v>5.5</v>
@@ -58523,7 +58535,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59141,7 +59153,7 @@
         <v>276</v>
       </c>
       <c r="P280" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q280">
         <v>2</v>
@@ -59504,6 +59516,624 @@
       </c>
       <c r="BP281">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7468641</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45780.5</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>84</v>
+      </c>
+      <c r="H282" t="s">
+        <v>79</v>
+      </c>
+      <c r="I282">
+        <v>2</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>278</v>
+      </c>
+      <c r="P282" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>2.5</v>
+      </c>
+      <c r="S282">
+        <v>2.88</v>
+      </c>
+      <c r="T282">
+        <v>1.25</v>
+      </c>
+      <c r="U282">
+        <v>3.75</v>
+      </c>
+      <c r="V282">
+        <v>2.1</v>
+      </c>
+      <c r="W282">
+        <v>1.67</v>
+      </c>
+      <c r="X282">
+        <v>5</v>
+      </c>
+      <c r="Y282">
+        <v>1.17</v>
+      </c>
+      <c r="Z282">
+        <v>2.73</v>
+      </c>
+      <c r="AA282">
+        <v>3.95</v>
+      </c>
+      <c r="AB282">
+        <v>2.41</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>17</v>
+      </c>
+      <c r="AE282">
+        <v>1.14</v>
+      </c>
+      <c r="AF282">
+        <v>5.5</v>
+      </c>
+      <c r="AG282">
+        <v>1.42</v>
+      </c>
+      <c r="AH282">
+        <v>2.74</v>
+      </c>
+      <c r="AI282">
+        <v>1.44</v>
+      </c>
+      <c r="AJ282">
+        <v>2.63</v>
+      </c>
+      <c r="AK282">
+        <v>1.53</v>
+      </c>
+      <c r="AL282">
+        <v>1.25</v>
+      </c>
+      <c r="AM282">
+        <v>1.49</v>
+      </c>
+      <c r="AN282">
+        <v>2.13</v>
+      </c>
+      <c r="AO282">
+        <v>2.47</v>
+      </c>
+      <c r="AP282">
+        <v>2.19</v>
+      </c>
+      <c r="AQ282">
+        <v>2.31</v>
+      </c>
+      <c r="AR282">
+        <v>1.44</v>
+      </c>
+      <c r="AS282">
+        <v>2.17</v>
+      </c>
+      <c r="AT282">
+        <v>3.61</v>
+      </c>
+      <c r="AU282">
+        <v>3</v>
+      </c>
+      <c r="AV282">
+        <v>5</v>
+      </c>
+      <c r="AW282">
+        <v>7</v>
+      </c>
+      <c r="AX282">
+        <v>16</v>
+      </c>
+      <c r="AY282">
+        <v>12</v>
+      </c>
+      <c r="AZ282">
+        <v>28</v>
+      </c>
+      <c r="BA282">
+        <v>6</v>
+      </c>
+      <c r="BB282">
+        <v>2</v>
+      </c>
+      <c r="BC282">
+        <v>8</v>
+      </c>
+      <c r="BD282">
+        <v>2.61</v>
+      </c>
+      <c r="BE282">
+        <v>8.9</v>
+      </c>
+      <c r="BF282">
+        <v>1.69</v>
+      </c>
+      <c r="BG282">
+        <v>1.2</v>
+      </c>
+      <c r="BH282">
+        <v>3.7</v>
+      </c>
+      <c r="BI282">
+        <v>1.41</v>
+      </c>
+      <c r="BJ282">
+        <v>2.6</v>
+      </c>
+      <c r="BK282">
+        <v>1.73</v>
+      </c>
+      <c r="BL282">
+        <v>1.99</v>
+      </c>
+      <c r="BM282">
+        <v>2.17</v>
+      </c>
+      <c r="BN282">
+        <v>1.58</v>
+      </c>
+      <c r="BO282">
+        <v>2.88</v>
+      </c>
+      <c r="BP282">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7468640</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>76</v>
+      </c>
+      <c r="H283" t="s">
+        <v>78</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>279</v>
+      </c>
+      <c r="P283" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q283">
+        <v>2.75</v>
+      </c>
+      <c r="R283">
+        <v>2.2</v>
+      </c>
+      <c r="S283">
+        <v>4</v>
+      </c>
+      <c r="T283">
+        <v>1.36</v>
+      </c>
+      <c r="U283">
+        <v>3</v>
+      </c>
+      <c r="V283">
+        <v>2.75</v>
+      </c>
+      <c r="W283">
+        <v>1.4</v>
+      </c>
+      <c r="X283">
+        <v>8</v>
+      </c>
+      <c r="Y283">
+        <v>1.08</v>
+      </c>
+      <c r="Z283">
+        <v>2.13</v>
+      </c>
+      <c r="AA283">
+        <v>3.51</v>
+      </c>
+      <c r="AB283">
+        <v>3.57</v>
+      </c>
+      <c r="AC283">
+        <v>1.06</v>
+      </c>
+      <c r="AD283">
+        <v>8.5</v>
+      </c>
+      <c r="AE283">
+        <v>1.3</v>
+      </c>
+      <c r="AF283">
+        <v>3.4</v>
+      </c>
+      <c r="AG283">
+        <v>1.95</v>
+      </c>
+      <c r="AH283">
+        <v>1.86</v>
+      </c>
+      <c r="AI283">
+        <v>1.75</v>
+      </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283">
+        <v>1.3</v>
+      </c>
+      <c r="AL283">
+        <v>1.3</v>
+      </c>
+      <c r="AM283">
+        <v>1.71</v>
+      </c>
+      <c r="AN283">
+        <v>1.07</v>
+      </c>
+      <c r="AO283">
+        <v>0.87</v>
+      </c>
+      <c r="AP283">
+        <v>1.19</v>
+      </c>
+      <c r="AQ283">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR283">
+        <v>1.51</v>
+      </c>
+      <c r="AS283">
+        <v>1.44</v>
+      </c>
+      <c r="AT283">
+        <v>2.95</v>
+      </c>
+      <c r="AU283">
+        <v>5</v>
+      </c>
+      <c r="AV283">
+        <v>7</v>
+      </c>
+      <c r="AW283">
+        <v>6</v>
+      </c>
+      <c r="AX283">
+        <v>10</v>
+      </c>
+      <c r="AY283">
+        <v>11</v>
+      </c>
+      <c r="AZ283">
+        <v>17</v>
+      </c>
+      <c r="BA283">
+        <v>6</v>
+      </c>
+      <c r="BB283">
+        <v>5</v>
+      </c>
+      <c r="BC283">
+        <v>11</v>
+      </c>
+      <c r="BD283">
+        <v>1.9</v>
+      </c>
+      <c r="BE283">
+        <v>6.4</v>
+      </c>
+      <c r="BF283">
+        <v>2.47</v>
+      </c>
+      <c r="BG283">
+        <v>1.33</v>
+      </c>
+      <c r="BH283">
+        <v>2.81</v>
+      </c>
+      <c r="BI283">
+        <v>1.64</v>
+      </c>
+      <c r="BJ283">
+        <v>2.07</v>
+      </c>
+      <c r="BK283">
+        <v>2.11</v>
+      </c>
+      <c r="BL283">
+        <v>1.65</v>
+      </c>
+      <c r="BM283">
+        <v>2.79</v>
+      </c>
+      <c r="BN283">
+        <v>1.36</v>
+      </c>
+      <c r="BO283">
+        <v>3.88</v>
+      </c>
+      <c r="BP283">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7468638</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45780.67013888889</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>82</v>
+      </c>
+      <c r="H284" t="s">
+        <v>73</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>3</v>
+      </c>
+      <c r="N284">
+        <v>4</v>
+      </c>
+      <c r="O284" t="s">
+        <v>154</v>
+      </c>
+      <c r="P284" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q284">
+        <v>5.5</v>
+      </c>
+      <c r="R284">
+        <v>2.88</v>
+      </c>
+      <c r="S284">
+        <v>1.8</v>
+      </c>
+      <c r="T284">
+        <v>1.18</v>
+      </c>
+      <c r="U284">
+        <v>4.5</v>
+      </c>
+      <c r="V284">
+        <v>1.83</v>
+      </c>
+      <c r="W284">
+        <v>1.83</v>
+      </c>
+      <c r="X284">
+        <v>3.75</v>
+      </c>
+      <c r="Y284">
+        <v>1.25</v>
+      </c>
+      <c r="Z284">
+        <v>6</v>
+      </c>
+      <c r="AA284">
+        <v>5.3</v>
+      </c>
+      <c r="AB284">
+        <v>1.47</v>
+      </c>
+      <c r="AC284">
+        <v>1.01</v>
+      </c>
+      <c r="AD284">
+        <v>26</v>
+      </c>
+      <c r="AE284">
+        <v>1.09</v>
+      </c>
+      <c r="AF284">
+        <v>7</v>
+      </c>
+      <c r="AG284">
+        <v>1.32</v>
+      </c>
+      <c r="AH284">
+        <v>3.21</v>
+      </c>
+      <c r="AI284">
+        <v>1.5</v>
+      </c>
+      <c r="AJ284">
+        <v>2.5</v>
+      </c>
+      <c r="AK284">
+        <v>2.8</v>
+      </c>
+      <c r="AL284">
+        <v>1.17</v>
+      </c>
+      <c r="AM284">
+        <v>1.12</v>
+      </c>
+      <c r="AN284">
+        <v>1.4</v>
+      </c>
+      <c r="AO284">
+        <v>1.27</v>
+      </c>
+      <c r="AP284">
+        <v>1.31</v>
+      </c>
+      <c r="AQ284">
+        <v>1.38</v>
+      </c>
+      <c r="AR284">
+        <v>1.46</v>
+      </c>
+      <c r="AS284">
+        <v>1.69</v>
+      </c>
+      <c r="AT284">
+        <v>3.15</v>
+      </c>
+      <c r="AU284">
+        <v>2</v>
+      </c>
+      <c r="AV284">
+        <v>7</v>
+      </c>
+      <c r="AW284">
+        <v>10</v>
+      </c>
+      <c r="AX284">
+        <v>7</v>
+      </c>
+      <c r="AY284">
+        <v>15</v>
+      </c>
+      <c r="AZ284">
+        <v>16</v>
+      </c>
+      <c r="BA284">
+        <v>6</v>
+      </c>
+      <c r="BB284">
+        <v>5</v>
+      </c>
+      <c r="BC284">
+        <v>11</v>
+      </c>
+      <c r="BD284">
+        <v>3.64</v>
+      </c>
+      <c r="BE284">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF284">
+        <v>1.42</v>
+      </c>
+      <c r="BG284">
+        <v>1.27</v>
+      </c>
+      <c r="BH284">
+        <v>3.14</v>
+      </c>
+      <c r="BI284">
+        <v>1.52</v>
+      </c>
+      <c r="BJ284">
+        <v>2.3</v>
+      </c>
+      <c r="BK284">
+        <v>1.92</v>
+      </c>
+      <c r="BL284">
+        <v>1.79</v>
+      </c>
+      <c r="BM284">
+        <v>2.48</v>
+      </c>
+      <c r="BN284">
+        <v>1.45</v>
+      </c>
+      <c r="BO284">
+        <v>3.34</v>
+      </c>
+      <c r="BP284">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="419">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -856,6 +856,15 @@
     <t>['28', '82']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -904,9 +913,6 @@
     <t>['8', '25', '89']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['34', '90+1']</t>
   </si>
   <si>
@@ -935,9 +941,6 @@
   </si>
   <si>
     <t>['9', '25', '79']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['6', '22']</t>
@@ -1138,9 +1141,6 @@
     <t>['18', '74']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['3', '50', '53', '73']</t>
   </si>
   <si>
@@ -1265,6 +1265,12 @@
   </si>
   <si>
     <t>['2', '68', '78']</t>
+  </si>
+  <si>
+    <t>['79', '90+2']</t>
+  </si>
+  <si>
+    <t>['21', '85']</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP284"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1885,7 +1891,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2091,7 +2097,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2169,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2297,7 +2303,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2709,7 +2715,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2787,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
         <v>1.44</v>
@@ -2915,7 +2921,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3408,7 +3414,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3820,7 +3826,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3945,7 +3951,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4023,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -4229,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ13">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4357,7 +4363,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4438,7 +4444,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4769,7 +4775,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5053,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
         <v>0.9399999999999999</v>
@@ -5387,7 +5393,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5593,7 +5599,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5671,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.38</v>
@@ -5877,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
         <v>0.38</v>
@@ -6005,7 +6011,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6211,7 +6217,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6292,7 +6298,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ23">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.52</v>
@@ -6417,7 +6423,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6498,7 +6504,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.57</v>
@@ -6623,7 +6629,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -7241,7 +7247,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7319,7 +7325,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ28">
         <v>2.31</v>
@@ -7859,7 +7865,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7937,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -8352,7 +8358,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR33">
         <v>2.21</v>
@@ -8477,7 +8483,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8558,7 +8564,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ34">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8683,7 +8689,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8761,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
         <v>1.06</v>
@@ -8970,7 +8976,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -9507,7 +9513,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9585,7 +9591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
         <v>1.38</v>
@@ -9713,7 +9719,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9794,7 +9800,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -10206,7 +10212,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -10409,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
         <v>1.19</v>
@@ -10537,7 +10543,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10743,7 +10749,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10949,7 +10955,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11027,10 +11033,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -11233,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
         <v>1.06</v>
@@ -11773,7 +11779,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11979,7 +11985,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12060,7 +12066,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ51">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -12185,7 +12191,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12391,7 +12397,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12469,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>0.38</v>
@@ -12597,7 +12603,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12884,7 +12890,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ55">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -13090,7 +13096,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ56">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13215,7 +13221,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13499,7 +13505,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
         <v>1.19</v>
@@ -13627,7 +13633,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13911,7 +13917,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -14117,10 +14123,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.6</v>
@@ -14245,7 +14251,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14326,7 +14332,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14451,7 +14457,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14532,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR63">
         <v>0.8100000000000001</v>
@@ -14657,7 +14663,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -15147,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
         <v>0.8100000000000001</v>
@@ -15275,7 +15281,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15356,7 +15362,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -15481,7 +15487,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15687,7 +15693,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15893,7 +15899,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15974,7 +15980,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ70">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR70">
         <v>1.25</v>
@@ -16099,7 +16105,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16177,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71">
         <v>1.44</v>
@@ -16305,7 +16311,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16383,7 +16389,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
         <v>1.06</v>
@@ -16511,7 +16517,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16592,7 +16598,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ73">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16798,7 +16804,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16923,7 +16929,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17129,7 +17135,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17335,7 +17341,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17541,7 +17547,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17619,7 +17625,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.9399999999999999</v>
@@ -17747,7 +17753,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -18365,7 +18371,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18652,7 +18658,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ83">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18855,7 +18861,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -19064,7 +19070,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>2.29</v>
@@ -19267,7 +19273,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ86">
         <v>1.44</v>
@@ -19885,7 +19891,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ89">
         <v>0.8100000000000001</v>
@@ -20094,7 +20100,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ90">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR90">
         <v>1.17</v>
@@ -20219,7 +20225,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20297,10 +20303,10 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR91">
         <v>1.49</v>
@@ -20425,7 +20431,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20631,7 +20637,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20837,7 +20843,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21043,7 +21049,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21249,7 +21255,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21455,7 +21461,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21867,7 +21873,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -22151,7 +22157,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.38</v>
@@ -22279,7 +22285,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22691,7 +22697,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22772,7 +22778,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ103">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22978,7 +22984,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ104">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -23387,7 +23393,7 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ106">
         <v>0.8100000000000001</v>
@@ -23593,10 +23599,10 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR107">
         <v>1.49</v>
@@ -23721,7 +23727,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23799,10 +23805,10 @@
         <v>0.6</v>
       </c>
       <c r="AP108">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -24133,7 +24139,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24214,7 +24220,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>1.22</v>
@@ -24623,7 +24629,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ112">
         <v>1.38</v>
@@ -24957,7 +24963,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25163,7 +25169,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25244,7 +25250,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ115">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR115">
         <v>1.18</v>
@@ -25653,7 +25659,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.44</v>
@@ -26065,7 +26071,7 @@
         <v>0.5</v>
       </c>
       <c r="AP119">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ119">
         <v>1.06</v>
@@ -26271,7 +26277,7 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ120">
         <v>2.31</v>
@@ -26605,7 +26611,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26686,7 +26692,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ122">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26811,7 +26817,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27098,7 +27104,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR124">
         <v>1.73</v>
@@ -27507,7 +27513,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126">
         <v>0.8100000000000001</v>
@@ -27635,7 +27641,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27716,7 +27722,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR127">
         <v>1.3</v>
@@ -28047,7 +28053,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28253,7 +28259,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28331,10 +28337,10 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ130">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR130">
         <v>1.37</v>
@@ -28665,7 +28671,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28871,7 +28877,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29155,7 +29161,7 @@
         <v>0.86</v>
       </c>
       <c r="AP134">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29364,7 +29370,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ135">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29695,7 +29701,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29901,7 +29907,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -30313,7 +30319,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30391,7 +30397,7 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ140">
         <v>0.88</v>
@@ -30597,10 +30603,10 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR141">
         <v>1.78</v>
@@ -31424,7 +31430,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31549,7 +31555,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31627,7 +31633,7 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ146">
         <v>1.38</v>
@@ -31833,7 +31839,7 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ147">
         <v>1.44</v>
@@ -31961,7 +31967,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32039,7 +32045,7 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
         <v>1.38</v>
@@ -32167,7 +32173,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32373,7 +32379,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32454,7 +32460,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ150">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR150">
         <v>1.57</v>
@@ -32579,7 +32585,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32660,7 +32666,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ151">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR151">
         <v>1.15</v>
@@ -32785,7 +32791,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32866,7 +32872,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ152">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -32991,7 +32997,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33687,7 +33693,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ156">
         <v>1.44</v>
@@ -33815,7 +33821,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -34021,7 +34027,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34305,7 +34311,7 @@
         <v>1.25</v>
       </c>
       <c r="AP159">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
         <v>1.19</v>
@@ -34926,7 +34932,7 @@
         <v>1</v>
       </c>
       <c r="AQ162">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -35051,7 +35057,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35335,7 +35341,7 @@
         <v>0.11</v>
       </c>
       <c r="AP164">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ164">
         <v>0.38</v>
@@ -35463,7 +35469,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35875,7 +35881,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -36081,7 +36087,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36365,7 +36371,7 @@
         <v>1.33</v>
       </c>
       <c r="AP169">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ169">
         <v>1.38</v>
@@ -36493,7 +36499,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36574,7 +36580,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ170">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR170">
         <v>1.48</v>
@@ -36780,7 +36786,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ171">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR171">
         <v>1.64</v>
@@ -36986,7 +36992,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ172">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR172">
         <v>1.58</v>
@@ -37111,7 +37117,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37192,7 +37198,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ173">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -37317,7 +37323,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37395,7 +37401,7 @@
         <v>2.33</v>
       </c>
       <c r="AP174">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ174">
         <v>2.31</v>
@@ -37523,7 +37529,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37807,7 +37813,7 @@
         <v>0.2</v>
       </c>
       <c r="AP176">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ176">
         <v>0.38</v>
@@ -37935,7 +37941,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38428,7 +38434,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ179">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR179">
         <v>1.27</v>
@@ -38553,7 +38559,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38759,7 +38765,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38965,7 +38971,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39043,7 +39049,7 @@
         <v>0.9</v>
       </c>
       <c r="AP182">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ182">
         <v>1.06</v>
@@ -39458,7 +39464,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ184">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR184">
         <v>1.58</v>
@@ -39583,7 +39589,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39661,10 +39667,10 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ185">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR185">
         <v>1.58</v>
@@ -39789,7 +39795,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -40073,7 +40079,7 @@
         <v>1.33</v>
       </c>
       <c r="AP187">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ187">
         <v>1.06</v>
@@ -40201,7 +40207,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40279,7 +40285,7 @@
         <v>1.22</v>
       </c>
       <c r="AP188">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ188">
         <v>1.19</v>
@@ -40488,7 +40494,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ189">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR189">
         <v>1.26</v>
@@ -40613,7 +40619,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40694,7 +40700,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ190">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -40819,7 +40825,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40897,7 +40903,7 @@
         <v>0.4</v>
       </c>
       <c r="AP191">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ191">
         <v>0.9399999999999999</v>
@@ -41025,7 +41031,7 @@
         <v>227</v>
       </c>
       <c r="P192" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="Q192">
         <v>1.67</v>
@@ -41437,7 +41443,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -42136,7 +42142,7 @@
         <v>1</v>
       </c>
       <c r="AQ197">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR197">
         <v>1.26</v>
@@ -42957,7 +42963,7 @@
         <v>1.4</v>
       </c>
       <c r="AP201">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ201">
         <v>1.38</v>
@@ -43166,7 +43172,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ202">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR202">
         <v>1.29</v>
@@ -43369,10 +43375,10 @@
         <v>2.45</v>
       </c>
       <c r="AP203">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ203">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR203">
         <v>1.31</v>
@@ -43575,10 +43581,10 @@
         <v>1.73</v>
       </c>
       <c r="AP204">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ204">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR204">
         <v>1.42</v>
@@ -43784,7 +43790,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ205">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR205">
         <v>1.64</v>
@@ -44399,7 +44405,7 @@
         <v>2.45</v>
       </c>
       <c r="AP208">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ208">
         <v>2.31</v>
@@ -45020,7 +45026,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ211">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR211">
         <v>1.62</v>
@@ -45429,7 +45435,7 @@
         <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ213">
         <v>1.06</v>
@@ -46047,7 +46053,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ216">
         <v>1.38</v>
@@ -46871,10 +46877,10 @@
         <v>0.27</v>
       </c>
       <c r="AP220">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ220">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR220">
         <v>1.6</v>
@@ -46999,7 +47005,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47080,7 +47086,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ221">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR221">
         <v>1.82</v>
@@ -47283,10 +47289,10 @@
         <v>1.33</v>
       </c>
       <c r="AP222">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ222">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR222">
         <v>1.57</v>
@@ -47411,7 +47417,7 @@
         <v>90</v>
       </c>
       <c r="P223" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="Q223">
         <v>3.25</v>
@@ -47489,7 +47495,7 @@
         <v>1.15</v>
       </c>
       <c r="AP223">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ223">
         <v>1.38</v>
@@ -48235,7 +48241,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48519,7 +48525,7 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ228">
         <v>1.44</v>
@@ -49137,10 +49143,10 @@
         <v>1.17</v>
       </c>
       <c r="AP231">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ231">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR231">
         <v>1.71</v>
@@ -49343,7 +49349,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ232">
         <v>1.06</v>
@@ -49964,7 +49970,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ235">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR235">
         <v>2.39</v>
@@ -50376,7 +50382,7 @@
         <v>1</v>
       </c>
       <c r="AQ237">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR237">
         <v>1.35</v>
@@ -51197,10 +51203,10 @@
         <v>0.25</v>
       </c>
       <c r="AP241">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ241">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR241">
         <v>1.36</v>
@@ -51815,10 +51821,10 @@
         <v>1.69</v>
       </c>
       <c r="AP244">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ244">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR244">
         <v>1.66</v>
@@ -52230,7 +52236,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ246">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR246">
         <v>2.34</v>
@@ -52355,7 +52361,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52433,7 +52439,7 @@
         <v>1.38</v>
       </c>
       <c r="AP247">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ247">
         <v>1.38</v>
@@ -52639,7 +52645,7 @@
         <v>1.31</v>
       </c>
       <c r="AP248">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ248">
         <v>1.44</v>
@@ -53466,7 +53472,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ252">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR252">
         <v>1.52</v>
@@ -54084,7 +54090,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ255">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AR255">
         <v>1.81</v>
@@ -54908,7 +54914,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ259">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR259">
         <v>1.22</v>
@@ -55317,7 +55323,7 @@
         <v>1.36</v>
       </c>
       <c r="AP261">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ261">
         <v>1.38</v>
@@ -55732,7 +55738,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ263">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR263">
         <v>2.35</v>
@@ -56144,7 +56150,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ265">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR265">
         <v>1.83</v>
@@ -56269,7 +56275,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56347,7 +56353,7 @@
         <v>0.86</v>
       </c>
       <c r="AP266">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ266">
         <v>0.9399999999999999</v>
@@ -56475,7 +56481,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56556,7 +56562,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ267">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR267">
         <v>1.81</v>
@@ -56759,10 +56765,10 @@
         <v>1.57</v>
       </c>
       <c r="AP268">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ268">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR268">
         <v>1.58</v>
@@ -57377,7 +57383,7 @@
         <v>2.57</v>
       </c>
       <c r="AP271">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ271">
         <v>2.31</v>
@@ -58201,7 +58207,7 @@
         <v>0.93</v>
       </c>
       <c r="AP275">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ275">
         <v>0.8100000000000001</v>
@@ -58819,7 +58825,7 @@
         <v>1.2</v>
       </c>
       <c r="AP278">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ278">
         <v>1.19</v>
@@ -59153,7 +59159,7 @@
         <v>276</v>
       </c>
       <c r="P280" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q280">
         <v>2</v>
@@ -60134,6 +60140,1036 @@
       </c>
       <c r="BP284">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7468639</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>85</v>
+      </c>
+      <c r="H285" t="s">
+        <v>77</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
+        <v>90</v>
+      </c>
+      <c r="P285" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q285">
+        <v>2.6</v>
+      </c>
+      <c r="R285">
+        <v>2.1</v>
+      </c>
+      <c r="S285">
+        <v>4.5</v>
+      </c>
+      <c r="T285">
+        <v>1.44</v>
+      </c>
+      <c r="U285">
+        <v>2.63</v>
+      </c>
+      <c r="V285">
+        <v>3.25</v>
+      </c>
+      <c r="W285">
+        <v>1.33</v>
+      </c>
+      <c r="X285">
+        <v>9</v>
+      </c>
+      <c r="Y285">
+        <v>1.07</v>
+      </c>
+      <c r="Z285">
+        <v>1.94</v>
+      </c>
+      <c r="AA285">
+        <v>3.45</v>
+      </c>
+      <c r="AB285">
+        <v>4.33</v>
+      </c>
+      <c r="AC285">
+        <v>1.07</v>
+      </c>
+      <c r="AD285">
+        <v>8</v>
+      </c>
+      <c r="AE285">
+        <v>1.36</v>
+      </c>
+      <c r="AF285">
+        <v>3.1</v>
+      </c>
+      <c r="AG285">
+        <v>2.01</v>
+      </c>
+      <c r="AH285">
+        <v>1.81</v>
+      </c>
+      <c r="AI285">
+        <v>1.95</v>
+      </c>
+      <c r="AJ285">
+        <v>1.8</v>
+      </c>
+      <c r="AK285">
+        <v>1.26</v>
+      </c>
+      <c r="AL285">
+        <v>1.3</v>
+      </c>
+      <c r="AM285">
+        <v>1.77</v>
+      </c>
+      <c r="AN285">
+        <v>1.2</v>
+      </c>
+      <c r="AO285">
+        <v>1.07</v>
+      </c>
+      <c r="AP285">
+        <v>1.13</v>
+      </c>
+      <c r="AQ285">
+        <v>1.19</v>
+      </c>
+      <c r="AR285">
+        <v>1.39</v>
+      </c>
+      <c r="AS285">
+        <v>1.05</v>
+      </c>
+      <c r="AT285">
+        <v>2.44</v>
+      </c>
+      <c r="AU285">
+        <v>4</v>
+      </c>
+      <c r="AV285">
+        <v>2</v>
+      </c>
+      <c r="AW285">
+        <v>4</v>
+      </c>
+      <c r="AX285">
+        <v>12</v>
+      </c>
+      <c r="AY285">
+        <v>8</v>
+      </c>
+      <c r="AZ285">
+        <v>16</v>
+      </c>
+      <c r="BA285">
+        <v>4</v>
+      </c>
+      <c r="BB285">
+        <v>6</v>
+      </c>
+      <c r="BC285">
+        <v>10</v>
+      </c>
+      <c r="BD285">
+        <v>1.6</v>
+      </c>
+      <c r="BE285">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF285">
+        <v>2.88</v>
+      </c>
+      <c r="BG285">
+        <v>1.27</v>
+      </c>
+      <c r="BH285">
+        <v>3.14</v>
+      </c>
+      <c r="BI285">
+        <v>1.53</v>
+      </c>
+      <c r="BJ285">
+        <v>2.28</v>
+      </c>
+      <c r="BK285">
+        <v>1.93</v>
+      </c>
+      <c r="BL285">
+        <v>1.78</v>
+      </c>
+      <c r="BM285">
+        <v>2.5</v>
+      </c>
+      <c r="BN285">
+        <v>1.44</v>
+      </c>
+      <c r="BO285">
+        <v>3.34</v>
+      </c>
+      <c r="BP285">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7468637</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45781.51041666666</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>71</v>
+      </c>
+      <c r="H286" t="s">
+        <v>75</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
+        <v>277</v>
+      </c>
+      <c r="P286" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q286">
+        <v>1.8</v>
+      </c>
+      <c r="R286">
+        <v>2.63</v>
+      </c>
+      <c r="S286">
+        <v>7</v>
+      </c>
+      <c r="T286">
+        <v>1.25</v>
+      </c>
+      <c r="U286">
+        <v>3.75</v>
+      </c>
+      <c r="V286">
+        <v>2.25</v>
+      </c>
+      <c r="W286">
+        <v>1.57</v>
+      </c>
+      <c r="X286">
+        <v>5.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.14</v>
+      </c>
+      <c r="Z286">
+        <v>1.4</v>
+      </c>
+      <c r="AA286">
+        <v>5.2</v>
+      </c>
+      <c r="AB286">
+        <v>7.7</v>
+      </c>
+      <c r="AC286">
+        <v>1.03</v>
+      </c>
+      <c r="AD286">
+        <v>11</v>
+      </c>
+      <c r="AE286">
+        <v>1.18</v>
+      </c>
+      <c r="AF286">
+        <v>4.75</v>
+      </c>
+      <c r="AG286">
+        <v>1.57</v>
+      </c>
+      <c r="AH286">
+        <v>2.25</v>
+      </c>
+      <c r="AI286">
+        <v>1.8</v>
+      </c>
+      <c r="AJ286">
+        <v>1.95</v>
+      </c>
+      <c r="AK286">
+        <v>1.09</v>
+      </c>
+      <c r="AL286">
+        <v>1.17</v>
+      </c>
+      <c r="AM286">
+        <v>2.9</v>
+      </c>
+      <c r="AN286">
+        <v>1.8</v>
+      </c>
+      <c r="AO286">
+        <v>0.2</v>
+      </c>
+      <c r="AP286">
+        <v>1.88</v>
+      </c>
+      <c r="AQ286">
+        <v>0.19</v>
+      </c>
+      <c r="AR286">
+        <v>1.56</v>
+      </c>
+      <c r="AS286">
+        <v>1.17</v>
+      </c>
+      <c r="AT286">
+        <v>2.73</v>
+      </c>
+      <c r="AU286">
+        <v>7</v>
+      </c>
+      <c r="AV286">
+        <v>2</v>
+      </c>
+      <c r="AW286">
+        <v>9</v>
+      </c>
+      <c r="AX286">
+        <v>4</v>
+      </c>
+      <c r="AY286">
+        <v>18</v>
+      </c>
+      <c r="AZ286">
+        <v>8</v>
+      </c>
+      <c r="BA286">
+        <v>4</v>
+      </c>
+      <c r="BB286">
+        <v>6</v>
+      </c>
+      <c r="BC286">
+        <v>10</v>
+      </c>
+      <c r="BD286">
+        <v>1.39</v>
+      </c>
+      <c r="BE286">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF286">
+        <v>3.78</v>
+      </c>
+      <c r="BG286">
+        <v>1.24</v>
+      </c>
+      <c r="BH286">
+        <v>3.34</v>
+      </c>
+      <c r="BI286">
+        <v>1.48</v>
+      </c>
+      <c r="BJ286">
+        <v>2.4</v>
+      </c>
+      <c r="BK286">
+        <v>1.85</v>
+      </c>
+      <c r="BL286">
+        <v>1.85</v>
+      </c>
+      <c r="BM286">
+        <v>2.38</v>
+      </c>
+      <c r="BN286">
+        <v>1.49</v>
+      </c>
+      <c r="BO286">
+        <v>3.14</v>
+      </c>
+      <c r="BP286">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7468642</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45781.51041666666</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>74</v>
+      </c>
+      <c r="H287" t="s">
+        <v>70</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>280</v>
+      </c>
+      <c r="P287" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q287">
+        <v>2.63</v>
+      </c>
+      <c r="R287">
+        <v>2.25</v>
+      </c>
+      <c r="S287">
+        <v>3.75</v>
+      </c>
+      <c r="T287">
+        <v>1.36</v>
+      </c>
+      <c r="U287">
+        <v>3</v>
+      </c>
+      <c r="V287">
+        <v>2.63</v>
+      </c>
+      <c r="W287">
+        <v>1.44</v>
+      </c>
+      <c r="X287">
+        <v>7</v>
+      </c>
+      <c r="Y287">
+        <v>1.1</v>
+      </c>
+      <c r="Z287">
+        <v>2.09</v>
+      </c>
+      <c r="AA287">
+        <v>3.55</v>
+      </c>
+      <c r="AB287">
+        <v>3.66</v>
+      </c>
+      <c r="AC287">
+        <v>1.05</v>
+      </c>
+      <c r="AD287">
+        <v>9.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.28</v>
+      </c>
+      <c r="AF287">
+        <v>3.65</v>
+      </c>
+      <c r="AG287">
+        <v>1.92</v>
+      </c>
+      <c r="AH287">
+        <v>1.89</v>
+      </c>
+      <c r="AI287">
+        <v>1.67</v>
+      </c>
+      <c r="AJ287">
+        <v>2.1</v>
+      </c>
+      <c r="AK287">
+        <v>1.3</v>
+      </c>
+      <c r="AL287">
+        <v>1.29</v>
+      </c>
+      <c r="AM287">
+        <v>1.72</v>
+      </c>
+      <c r="AN287">
+        <v>1.73</v>
+      </c>
+      <c r="AO287">
+        <v>1.13</v>
+      </c>
+      <c r="AP287">
+        <v>1.63</v>
+      </c>
+      <c r="AQ287">
+        <v>1.25</v>
+      </c>
+      <c r="AR287">
+        <v>1.42</v>
+      </c>
+      <c r="AS287">
+        <v>1.08</v>
+      </c>
+      <c r="AT287">
+        <v>2.5</v>
+      </c>
+      <c r="AU287">
+        <v>2</v>
+      </c>
+      <c r="AV287">
+        <v>8</v>
+      </c>
+      <c r="AW287">
+        <v>2</v>
+      </c>
+      <c r="AX287">
+        <v>6</v>
+      </c>
+      <c r="AY287">
+        <v>4</v>
+      </c>
+      <c r="AZ287">
+        <v>18</v>
+      </c>
+      <c r="BA287">
+        <v>0</v>
+      </c>
+      <c r="BB287">
+        <v>9</v>
+      </c>
+      <c r="BC287">
+        <v>9</v>
+      </c>
+      <c r="BD287">
+        <v>1.68</v>
+      </c>
+      <c r="BE287">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF287">
+        <v>2.65</v>
+      </c>
+      <c r="BG287">
+        <v>1.26</v>
+      </c>
+      <c r="BH287">
+        <v>3.22</v>
+      </c>
+      <c r="BI287">
+        <v>1.52</v>
+      </c>
+      <c r="BJ287">
+        <v>2.3</v>
+      </c>
+      <c r="BK287">
+        <v>1.9</v>
+      </c>
+      <c r="BL287">
+        <v>1.8</v>
+      </c>
+      <c r="BM287">
+        <v>2.48</v>
+      </c>
+      <c r="BN287">
+        <v>1.45</v>
+      </c>
+      <c r="BO287">
+        <v>3.28</v>
+      </c>
+      <c r="BP287">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7468634</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45781.51041666666</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>80</v>
+      </c>
+      <c r="H288" t="s">
+        <v>83</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>281</v>
+      </c>
+      <c r="P288" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q288">
+        <v>2.1</v>
+      </c>
+      <c r="R288">
+        <v>2.5</v>
+      </c>
+      <c r="S288">
+        <v>5</v>
+      </c>
+      <c r="T288">
+        <v>1.25</v>
+      </c>
+      <c r="U288">
+        <v>3.75</v>
+      </c>
+      <c r="V288">
+        <v>2.2</v>
+      </c>
+      <c r="W288">
+        <v>1.62</v>
+      </c>
+      <c r="X288">
+        <v>5</v>
+      </c>
+      <c r="Y288">
+        <v>1.17</v>
+      </c>
+      <c r="Z288">
+        <v>1.75</v>
+      </c>
+      <c r="AA288">
+        <v>4.3</v>
+      </c>
+      <c r="AB288">
+        <v>4.33</v>
+      </c>
+      <c r="AC288">
+        <v>1.03</v>
+      </c>
+      <c r="AD288">
+        <v>11</v>
+      </c>
+      <c r="AE288">
+        <v>1.17</v>
+      </c>
+      <c r="AF288">
+        <v>5</v>
+      </c>
+      <c r="AG288">
+        <v>1.48</v>
+      </c>
+      <c r="AH288">
+        <v>2.54</v>
+      </c>
+      <c r="AI288">
+        <v>1.57</v>
+      </c>
+      <c r="AJ288">
+        <v>2.25</v>
+      </c>
+      <c r="AK288">
+        <v>1.19</v>
+      </c>
+      <c r="AL288">
+        <v>1.22</v>
+      </c>
+      <c r="AM288">
+        <v>2.15</v>
+      </c>
+      <c r="AN288">
+        <v>2.13</v>
+      </c>
+      <c r="AO288">
+        <v>1.67</v>
+      </c>
+      <c r="AP288">
+        <v>2</v>
+      </c>
+      <c r="AQ288">
+        <v>1.75</v>
+      </c>
+      <c r="AR288">
+        <v>1.72</v>
+      </c>
+      <c r="AS288">
+        <v>1.43</v>
+      </c>
+      <c r="AT288">
+        <v>3.15</v>
+      </c>
+      <c r="AU288">
+        <v>3</v>
+      </c>
+      <c r="AV288">
+        <v>4</v>
+      </c>
+      <c r="AW288">
+        <v>14</v>
+      </c>
+      <c r="AX288">
+        <v>5</v>
+      </c>
+      <c r="AY288">
+        <v>19</v>
+      </c>
+      <c r="AZ288">
+        <v>9</v>
+      </c>
+      <c r="BA288">
+        <v>8</v>
+      </c>
+      <c r="BB288">
+        <v>2</v>
+      </c>
+      <c r="BC288">
+        <v>10</v>
+      </c>
+      <c r="BD288">
+        <v>1.7</v>
+      </c>
+      <c r="BE288">
+        <v>8.6</v>
+      </c>
+      <c r="BF288">
+        <v>2.61</v>
+      </c>
+      <c r="BG288">
+        <v>1.26</v>
+      </c>
+      <c r="BH288">
+        <v>3.22</v>
+      </c>
+      <c r="BI288">
+        <v>1.5</v>
+      </c>
+      <c r="BJ288">
+        <v>2.35</v>
+      </c>
+      <c r="BK288">
+        <v>1.88</v>
+      </c>
+      <c r="BL288">
+        <v>1.82</v>
+      </c>
+      <c r="BM288">
+        <v>2.42</v>
+      </c>
+      <c r="BN288">
+        <v>1.47</v>
+      </c>
+      <c r="BO288">
+        <v>3.28</v>
+      </c>
+      <c r="BP288">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7468635</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45781.65625</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>81</v>
+      </c>
+      <c r="H289" t="s">
+        <v>87</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>282</v>
+      </c>
+      <c r="P289" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q289">
+        <v>3</v>
+      </c>
+      <c r="R289">
+        <v>2.2</v>
+      </c>
+      <c r="S289">
+        <v>3.5</v>
+      </c>
+      <c r="T289">
+        <v>1.36</v>
+      </c>
+      <c r="U289">
+        <v>3</v>
+      </c>
+      <c r="V289">
+        <v>2.75</v>
+      </c>
+      <c r="W289">
+        <v>1.4</v>
+      </c>
+      <c r="X289">
+        <v>7</v>
+      </c>
+      <c r="Y289">
+        <v>1.1</v>
+      </c>
+      <c r="Z289">
+        <v>2.46</v>
+      </c>
+      <c r="AA289">
+        <v>3.36</v>
+      </c>
+      <c r="AB289">
+        <v>3.02</v>
+      </c>
+      <c r="AC289">
+        <v>1.05</v>
+      </c>
+      <c r="AD289">
+        <v>9</v>
+      </c>
+      <c r="AE289">
+        <v>1.28</v>
+      </c>
+      <c r="AF289">
+        <v>3.5</v>
+      </c>
+      <c r="AG289">
+        <v>1.88</v>
+      </c>
+      <c r="AH289">
+        <v>1.93</v>
+      </c>
+      <c r="AI289">
+        <v>1.67</v>
+      </c>
+      <c r="AJ289">
+        <v>2.1</v>
+      </c>
+      <c r="AK289">
+        <v>1.37</v>
+      </c>
+      <c r="AL289">
+        <v>1.31</v>
+      </c>
+      <c r="AM289">
+        <v>1.58</v>
+      </c>
+      <c r="AN289">
+        <v>2.2</v>
+      </c>
+      <c r="AO289">
+        <v>1.8</v>
+      </c>
+      <c r="AP289">
+        <v>2.13</v>
+      </c>
+      <c r="AQ289">
+        <v>1.75</v>
+      </c>
+      <c r="AR289">
+        <v>1.66</v>
+      </c>
+      <c r="AS289">
+        <v>1.53</v>
+      </c>
+      <c r="AT289">
+        <v>3.19</v>
+      </c>
+      <c r="AU289">
+        <v>3</v>
+      </c>
+      <c r="AV289">
+        <v>7</v>
+      </c>
+      <c r="AW289">
+        <v>3</v>
+      </c>
+      <c r="AX289">
+        <v>6</v>
+      </c>
+      <c r="AY289">
+        <v>8</v>
+      </c>
+      <c r="AZ289">
+        <v>18</v>
+      </c>
+      <c r="BA289">
+        <v>2</v>
+      </c>
+      <c r="BB289">
+        <v>5</v>
+      </c>
+      <c r="BC289">
+        <v>7</v>
+      </c>
+      <c r="BD289">
+        <v>1.9</v>
+      </c>
+      <c r="BE289">
+        <v>8</v>
+      </c>
+      <c r="BF289">
+        <v>2.29</v>
+      </c>
+      <c r="BG289">
+        <v>1.41</v>
+      </c>
+      <c r="BH289">
+        <v>2.6</v>
+      </c>
+      <c r="BI289">
+        <v>1.75</v>
+      </c>
+      <c r="BJ289">
+        <v>1.96</v>
+      </c>
+      <c r="BK289">
+        <v>2.23</v>
+      </c>
+      <c r="BL289">
+        <v>1.55</v>
+      </c>
+      <c r="BM289">
+        <v>3.04</v>
+      </c>
+      <c r="BN289">
+        <v>1.29</v>
+      </c>
+      <c r="BO289">
+        <v>4.3</v>
+      </c>
+      <c r="BP289">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="427">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,21 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['62', '68']</t>
+  </si>
+  <si>
+    <t>['42', '64']</t>
+  </si>
+  <si>
+    <t>['15', '48']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['15', '80']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1272,6 +1287,15 @@
   <si>
     <t>['21', '85']</t>
   </si>
+  <si>
+    <t>['44', '49', '59', '65']</t>
+  </si>
+  <si>
+    <t>['3', '41']</t>
+  </si>
+  <si>
+    <t>['56', '85', '90+9']</t>
+  </si>
 </sst>
 </file>
 
@@ -1632,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1891,7 +1915,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1969,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ2">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2097,7 +2121,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2175,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2303,7 +2327,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2381,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ4">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2587,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2715,7 +2739,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2793,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2921,7 +2945,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2999,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3205,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8">
         <v>0.88</v>
@@ -3411,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3617,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3951,7 +3975,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4363,7 +4387,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4775,7 +4799,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -5393,7 +5417,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5599,7 +5623,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5680,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>0.4</v>
@@ -5883,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR21">
         <v>1.56</v>
@@ -6011,7 +6035,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6089,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6217,7 +6241,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6295,10 +6319,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR23">
         <v>1.52</v>
@@ -6423,7 +6447,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6501,10 +6525,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR24">
         <v>1.57</v>
@@ -6629,7 +6653,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6707,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR25">
         <v>1.11</v>
@@ -6913,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -7119,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ27">
         <v>0.8100000000000001</v>
@@ -7247,7 +7271,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7328,7 +7352,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ28">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7534,7 +7558,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR29">
         <v>1.65</v>
@@ -7740,7 +7764,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ30">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR30">
         <v>2.21</v>
@@ -7865,7 +7889,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7943,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -8355,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ33">
         <v>0.19</v>
@@ -8689,7 +8713,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8973,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -9182,7 +9206,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR37">
         <v>2.03</v>
@@ -9388,7 +9412,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ38">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR38">
         <v>1.16</v>
@@ -9513,7 +9537,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9594,7 +9618,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
         <v>1.47</v>
@@ -9719,7 +9743,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9797,10 +9821,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.95</v>
@@ -10003,10 +10027,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR41">
         <v>0.92</v>
@@ -10209,7 +10233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ42">
         <v>1.25</v>
@@ -10415,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ43">
         <v>1.19</v>
@@ -10543,7 +10567,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10621,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.88</v>
@@ -10749,7 +10773,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10827,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ45">
         <v>0.9399999999999999</v>
@@ -10955,7 +10979,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11036,7 +11060,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -11239,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ47">
         <v>1.06</v>
@@ -11654,7 +11678,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11779,7 +11803,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11857,10 +11881,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ50">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR50">
         <v>1.41</v>
@@ -11985,7 +12009,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12063,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
         <v>0.19</v>
@@ -12191,7 +12215,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12269,10 +12293,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12397,7 +12421,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12478,7 +12502,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ53">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR53">
         <v>1.5</v>
@@ -12603,7 +12627,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12681,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.06</v>
@@ -12890,7 +12914,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -13633,7 +13657,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13711,7 +13735,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ59">
         <v>1.38</v>
@@ -14123,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -14251,7 +14275,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14332,7 +14356,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14457,7 +14481,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14535,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ63">
         <v>0.19</v>
@@ -14663,7 +14687,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14744,7 +14768,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ64">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR64">
         <v>1.7</v>
@@ -14947,10 +14971,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR65">
         <v>1.54</v>
@@ -15153,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
         <v>0.8100000000000001</v>
@@ -15281,7 +15305,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15362,7 +15386,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR67">
         <v>1.42</v>
@@ -15487,7 +15511,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15568,7 +15592,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ68">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>2.38</v>
@@ -15693,7 +15717,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15771,10 +15795,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ69">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.32</v>
@@ -15899,7 +15923,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -15977,7 +16001,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ70">
         <v>1.19</v>
@@ -16105,7 +16129,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16186,7 +16210,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ71">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR71">
         <v>1.52</v>
@@ -16311,7 +16335,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16389,7 +16413,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ72">
         <v>1.06</v>
@@ -16517,7 +16541,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16595,10 +16619,10 @@
         <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ73">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR73">
         <v>1.44</v>
@@ -16801,7 +16825,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16929,7 +16953,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17007,10 +17031,10 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -17135,7 +17159,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17213,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
         <v>1.06</v>
@@ -17341,7 +17365,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17422,7 +17446,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
         <v>1.98</v>
@@ -17547,7 +17571,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17753,7 +17777,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17831,7 +17855,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ79">
         <v>1.19</v>
@@ -18371,7 +18395,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18452,7 +18476,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ82">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR82">
         <v>1.67</v>
@@ -18655,7 +18679,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83">
         <v>1.19</v>
@@ -18864,7 +18888,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
         <v>1.48</v>
@@ -19070,7 +19094,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>2.29</v>
@@ -19273,10 +19297,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ86">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR86">
         <v>1.37</v>
@@ -19482,7 +19506,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.3</v>
@@ -19685,7 +19709,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ88">
         <v>1.06</v>
@@ -19891,7 +19915,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ89">
         <v>0.8100000000000001</v>
@@ -20097,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ90">
         <v>0.19</v>
@@ -20225,7 +20249,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20306,7 +20330,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR91">
         <v>1.49</v>
@@ -20431,7 +20455,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20637,7 +20661,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20843,7 +20867,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -21049,7 +21073,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21127,10 +21151,10 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -21255,7 +21279,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21336,7 +21360,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -21461,7 +21485,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21539,7 +21563,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ97">
         <v>1.19</v>
@@ -21745,7 +21769,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ98">
         <v>1.06</v>
@@ -21873,7 +21897,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21951,7 +21975,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ99">
         <v>1.06</v>
@@ -22160,7 +22184,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22285,7 +22309,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22363,7 +22387,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ101">
         <v>1.06</v>
@@ -22697,7 +22721,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22778,7 +22802,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ103">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -23187,10 +23211,10 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ105">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR105">
         <v>1.09</v>
@@ -23599,7 +23623,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ107">
         <v>1.19</v>
@@ -23727,7 +23751,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -24014,7 +24038,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ109">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -24139,7 +24163,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24217,10 +24241,10 @@
         <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ110">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR110">
         <v>1.22</v>
@@ -24423,10 +24447,10 @@
         <v>0.17</v>
       </c>
       <c r="AP111">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ111">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24629,10 +24653,10 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24963,7 +24987,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25041,10 +25065,10 @@
         <v>1.83</v>
       </c>
       <c r="AP114">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ114">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -25169,7 +25193,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25247,7 +25271,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ115">
         <v>1.19</v>
@@ -25453,7 +25477,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -25662,7 +25686,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR117">
         <v>1.77</v>
@@ -26277,10 +26301,10 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ120">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -26483,7 +26507,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ121">
         <v>1.19</v>
@@ -26611,7 +26635,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26817,7 +26841,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -26895,10 +26919,10 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -27641,7 +27665,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27722,7 +27746,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR127">
         <v>1.3</v>
@@ -27925,10 +27949,10 @@
         <v>0.14</v>
       </c>
       <c r="AP128">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ128">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -28053,7 +28077,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28134,7 +28158,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ129">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -28259,7 +28283,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28337,10 +28361,10 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ130">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR130">
         <v>1.37</v>
@@ -28543,7 +28567,7 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ131">
         <v>1.38</v>
@@ -28671,7 +28695,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28749,10 +28773,10 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ132">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR132">
         <v>1.36</v>
@@ -28877,7 +28901,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28955,10 +28979,10 @@
         <v>0.29</v>
       </c>
       <c r="AP133">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ133">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR133">
         <v>1.14</v>
@@ -29161,7 +29185,7 @@
         <v>0.86</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29367,7 +29391,7 @@
         <v>1.29</v>
       </c>
       <c r="AP135">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ135">
         <v>1.19</v>
@@ -29576,7 +29600,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>2.35</v>
@@ -29701,7 +29725,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29779,10 +29803,10 @@
         <v>2.14</v>
       </c>
       <c r="AP137">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ137">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29907,7 +29931,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -30319,7 +30343,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -31221,7 +31245,7 @@
         <v>0.43</v>
       </c>
       <c r="AP144">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
@@ -31555,7 +31579,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31839,10 +31863,10 @@
         <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ147">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR147">
         <v>1.33</v>
@@ -31967,7 +31991,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32045,10 +32069,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ148">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR148">
         <v>1.48</v>
@@ -32173,7 +32197,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32251,10 +32275,10 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ149">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR149">
         <v>1.18</v>
@@ -32379,7 +32403,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32457,10 +32481,10 @@
         <v>2.63</v>
       </c>
       <c r="AP150">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ150">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR150">
         <v>1.57</v>
@@ -32585,7 +32609,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32663,10 +32687,10 @@
         <v>1.63</v>
       </c>
       <c r="AP151">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ151">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR151">
         <v>1.15</v>
@@ -32791,7 +32815,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32869,7 +32893,7 @@
         <v>1.13</v>
       </c>
       <c r="AP152">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ152">
         <v>1.19</v>
@@ -32997,7 +33021,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33075,10 +33099,10 @@
         <v>0.63</v>
       </c>
       <c r="AP153">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ153">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR153">
         <v>1.39</v>
@@ -33284,7 +33308,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ154">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR154">
         <v>2.26</v>
@@ -33487,7 +33511,7 @@
         <v>1.75</v>
       </c>
       <c r="AP155">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ155">
         <v>1.38</v>
@@ -33696,7 +33720,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ156">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR156">
         <v>1.36</v>
@@ -33821,7 +33845,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33902,7 +33926,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ157">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR157">
         <v>1.67</v>
@@ -34027,7 +34051,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34105,7 +34129,7 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -34723,7 +34747,7 @@
         <v>0.5</v>
       </c>
       <c r="AP161">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
         <v>0.9399999999999999</v>
@@ -34929,7 +34953,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ162">
         <v>1.25</v>
@@ -35057,7 +35081,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35138,7 +35162,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ163">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR163">
         <v>1.45</v>
@@ -35341,10 +35365,10 @@
         <v>0.11</v>
       </c>
       <c r="AP164">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ164">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR164">
         <v>1.3</v>
@@ -35469,7 +35493,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35547,7 +35571,7 @@
         <v>0.13</v>
       </c>
       <c r="AP165">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ165">
         <v>0.8100000000000001</v>
@@ -35756,7 +35780,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ166">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35881,7 +35905,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -36087,7 +36111,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36165,7 +36189,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ168">
         <v>1.06</v>
@@ -36374,7 +36398,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ169">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR169">
         <v>1.4</v>
@@ -36499,7 +36523,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36577,7 +36601,7 @@
         <v>0</v>
       </c>
       <c r="AP170">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ170">
         <v>0.19</v>
@@ -36992,7 +37016,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ172">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR172">
         <v>1.58</v>
@@ -37117,7 +37141,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37195,10 +37219,10 @@
         <v>1.78</v>
       </c>
       <c r="AP173">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ173">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR173">
         <v>1.44</v>
@@ -37323,7 +37347,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37401,10 +37425,10 @@
         <v>2.33</v>
       </c>
       <c r="AP174">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR174">
         <v>1.46</v>
@@ -37529,7 +37553,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37607,7 +37631,7 @@
         <v>0.44</v>
       </c>
       <c r="AP175">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ175">
         <v>0.9399999999999999</v>
@@ -37816,7 +37840,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ176">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR176">
         <v>1.38</v>
@@ -37941,7 +37965,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38019,10 +38043,10 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR177">
         <v>1.51</v>
@@ -38225,10 +38249,10 @@
         <v>0.9</v>
       </c>
       <c r="AP178">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ178">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR178">
         <v>1.61</v>
@@ -38431,7 +38455,7 @@
         <v>0.78</v>
       </c>
       <c r="AP179">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ179">
         <v>1.25</v>
@@ -38559,7 +38583,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38637,7 +38661,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
@@ -38765,7 +38789,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38846,7 +38870,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR181">
         <v>1.5</v>
@@ -38971,7 +38995,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39464,7 +39488,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ184">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR184">
         <v>1.58</v>
@@ -39589,7 +39613,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39795,7 +39819,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -40207,7 +40231,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40285,7 +40309,7 @@
         <v>1.22</v>
       </c>
       <c r="AP188">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ188">
         <v>1.19</v>
@@ -40619,7 +40643,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40697,10 +40721,10 @@
         <v>2.4</v>
       </c>
       <c r="AP190">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -40825,7 +40849,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40903,7 +40927,7 @@
         <v>0.4</v>
       </c>
       <c r="AP191">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ191">
         <v>0.9399999999999999</v>
@@ -41112,7 +41136,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ192">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR192">
         <v>1.6</v>
@@ -41315,7 +41339,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ193">
         <v>0.88</v>
@@ -41443,7 +41467,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41521,10 +41545,10 @@
         <v>2.4</v>
       </c>
       <c r="AP194">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ194">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41649,7 +41673,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41727,10 +41751,10 @@
         <v>1.18</v>
       </c>
       <c r="AP195">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ195">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41855,7 +41879,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -41936,7 +41960,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ196">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR196">
         <v>1.69</v>
@@ -42139,7 +42163,7 @@
         <v>1.2</v>
       </c>
       <c r="AP197">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ197">
         <v>1.19</v>
@@ -42267,7 +42291,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42345,10 +42369,10 @@
         <v>1.18</v>
       </c>
       <c r="AP198">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ198">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR198">
         <v>1.12</v>
@@ -42473,7 +42497,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -42551,10 +42575,10 @@
         <v>1.4</v>
       </c>
       <c r="AP199">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ199">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR199">
         <v>1.59</v>
@@ -42757,7 +42781,7 @@
         <v>1.2</v>
       </c>
       <c r="AP200">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ200">
         <v>1.06</v>
@@ -43091,7 +43115,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43375,10 +43399,10 @@
         <v>2.45</v>
       </c>
       <c r="AP203">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ203">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR203">
         <v>1.31</v>
@@ -43584,7 +43608,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ204">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR204">
         <v>1.42</v>
@@ -44121,7 +44145,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44199,7 +44223,7 @@
         <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ207">
         <v>1.19</v>
@@ -44327,7 +44351,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44408,7 +44432,7 @@
         <v>2</v>
       </c>
       <c r="AQ208">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR208">
         <v>1.74</v>
@@ -44611,7 +44635,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -44739,7 +44763,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44820,7 +44844,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ210">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR210">
         <v>1.39</v>
@@ -44945,7 +44969,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45232,7 +45256,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ212">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR212">
         <v>2.34</v>
@@ -45563,7 +45587,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45641,7 +45665,7 @@
         <v>1.36</v>
       </c>
       <c r="AP214">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ214">
         <v>1.19</v>
@@ -45769,7 +45793,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45847,7 +45871,7 @@
         <v>0.4</v>
       </c>
       <c r="AP215">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ215">
         <v>0.8100000000000001</v>
@@ -46053,10 +46077,10 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ216">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR216">
         <v>1.31</v>
@@ -46465,7 +46489,7 @@
         <v>1.27</v>
       </c>
       <c r="AP218">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ218">
         <v>1.38</v>
@@ -46593,7 +46617,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46671,10 +46695,10 @@
         <v>2.5</v>
       </c>
       <c r="AP219">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ219">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR219">
         <v>1.62</v>
@@ -47005,7 +47029,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47086,7 +47110,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ221">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR221">
         <v>1.82</v>
@@ -47289,7 +47313,7 @@
         <v>1.33</v>
       </c>
       <c r="AP222">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ222">
         <v>1.19</v>
@@ -47498,7 +47522,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ223">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR223">
         <v>1.45</v>
@@ -47623,7 +47647,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47701,7 +47725,7 @@
         <v>0.45</v>
       </c>
       <c r="AP224">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ224">
         <v>0.9399999999999999</v>
@@ -47907,10 +47931,10 @@
         <v>0.17</v>
       </c>
       <c r="AP225">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ225">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR225">
         <v>1.19</v>
@@ -48035,7 +48059,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48116,7 +48140,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ226">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR226">
         <v>1.66</v>
@@ -48241,7 +48265,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48528,7 +48552,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ228">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR228">
         <v>1.43</v>
@@ -48653,7 +48677,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -48731,7 +48755,7 @@
         <v>1.25</v>
       </c>
       <c r="AP229">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ229">
         <v>1.38</v>
@@ -49065,7 +49089,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49349,7 +49373,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ232">
         <v>1.06</v>
@@ -49477,7 +49501,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49683,7 +49707,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49761,10 +49785,10 @@
         <v>0.23</v>
       </c>
       <c r="AP234">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ234">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR234">
         <v>1.53</v>
@@ -49970,7 +49994,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ235">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR235">
         <v>2.39</v>
@@ -50095,7 +50119,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50176,7 +50200,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ236">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR236">
         <v>1.35</v>
@@ -50379,10 +50403,10 @@
         <v>2.08</v>
       </c>
       <c r="AP237">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ237">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR237">
         <v>1.35</v>
@@ -50507,7 +50531,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50588,7 +50612,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ238">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR238">
         <v>1.42</v>
@@ -50791,10 +50815,10 @@
         <v>1.46</v>
       </c>
       <c r="AP239">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ239">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR239">
         <v>1.79</v>
@@ -50919,7 +50943,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -50997,7 +51021,7 @@
         <v>1</v>
       </c>
       <c r="AP240">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ240">
         <v>1.06</v>
@@ -51203,7 +51227,7 @@
         <v>0.25</v>
       </c>
       <c r="AP241">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ241">
         <v>0.19</v>
@@ -51331,7 +51355,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51409,7 +51433,7 @@
         <v>0.85</v>
       </c>
       <c r="AP242">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ242">
         <v>0.88</v>
@@ -51537,7 +51561,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51615,7 +51639,7 @@
         <v>0.58</v>
       </c>
       <c r="AP243">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ243">
         <v>0.8100000000000001</v>
@@ -51824,7 +51848,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ244">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR244">
         <v>1.66</v>
@@ -51949,7 +51973,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -52361,7 +52385,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52439,7 +52463,7 @@
         <v>1.38</v>
       </c>
       <c r="AP247">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ247">
         <v>1.38</v>
@@ -52567,7 +52591,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52648,7 +52672,7 @@
         <v>2</v>
       </c>
       <c r="AQ248">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR248">
         <v>1.73</v>
@@ -52854,7 +52878,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ249">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -53057,10 +53081,10 @@
         <v>1.29</v>
       </c>
       <c r="AP250">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ250">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR250">
         <v>1.32</v>
@@ -53263,7 +53287,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP251">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ251">
         <v>0.9399999999999999</v>
@@ -53391,7 +53415,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53469,7 +53493,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ252">
         <v>1.25</v>
@@ -53597,7 +53621,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53803,7 +53827,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -54087,10 +54111,10 @@
         <v>1.93</v>
       </c>
       <c r="AP255">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ255">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR255">
         <v>1.81</v>
@@ -54215,7 +54239,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54293,10 +54317,10 @@
         <v>1.21</v>
       </c>
       <c r="AP256">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ256">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR256">
         <v>1.52</v>
@@ -54421,7 +54445,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54502,7 +54526,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ257">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR257">
         <v>1.38</v>
@@ -54627,7 +54651,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54911,7 +54935,7 @@
         <v>0.23</v>
       </c>
       <c r="AP259">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ259">
         <v>0.19</v>
@@ -55039,7 +55063,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55117,7 +55141,7 @@
         <v>0.77</v>
       </c>
       <c r="AP260">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ260">
         <v>0.8100000000000001</v>
@@ -55245,7 +55269,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55323,10 +55347,10 @@
         <v>1.36</v>
       </c>
       <c r="AP261">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ261">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR261">
         <v>1.42</v>
@@ -55529,7 +55553,7 @@
         <v>0.93</v>
       </c>
       <c r="AP262">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ262">
         <v>0.88</v>
@@ -55657,7 +55681,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q263">
         <v>1.44</v>
@@ -55941,10 +55965,10 @@
         <v>1.4</v>
       </c>
       <c r="AP264">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ264">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR264">
         <v>1.8</v>
@@ -56275,7 +56299,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56481,7 +56505,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56687,7 +56711,7 @@
         <v>270</v>
       </c>
       <c r="P268" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -56765,10 +56789,10 @@
         <v>1.57</v>
       </c>
       <c r="AP268">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ268">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR268">
         <v>1.58</v>
@@ -56971,7 +56995,7 @@
         <v>1.29</v>
       </c>
       <c r="AP269">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ269">
         <v>1.19</v>
@@ -57099,7 +57123,7 @@
         <v>271</v>
       </c>
       <c r="P270" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q270">
         <v>4.75</v>
@@ -57180,7 +57204,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ270">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR270">
         <v>1.41</v>
@@ -57305,7 +57329,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q271">
         <v>6.5</v>
@@ -57386,7 +57410,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ271">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR271">
         <v>1.41</v>
@@ -57511,7 +57535,7 @@
         <v>272</v>
       </c>
       <c r="P272" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q272">
         <v>2.05</v>
@@ -57592,7 +57616,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ272">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR272">
         <v>2.37</v>
@@ -57798,7 +57822,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ273">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="AR273">
         <v>1.38</v>
@@ -58001,7 +58025,7 @@
         <v>1.29</v>
       </c>
       <c r="AP274">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ274">
         <v>1.38</v>
@@ -58335,7 +58359,7 @@
         <v>90</v>
       </c>
       <c r="P276" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q276">
         <v>5.5</v>
@@ -58413,10 +58437,10 @@
         <v>1.33</v>
       </c>
       <c r="AP276">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ276">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR276">
         <v>1.22</v>
@@ -58541,7 +58565,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -59031,7 +59055,7 @@
         <v>1.14</v>
       </c>
       <c r="AP279">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ279">
         <v>1.06</v>
@@ -59159,7 +59183,7 @@
         <v>276</v>
       </c>
       <c r="P280" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q280">
         <v>2</v>
@@ -59571,7 +59595,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -59652,7 +59676,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ282">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR282">
         <v>1.44</v>
@@ -59855,7 +59879,7 @@
         <v>0.87</v>
       </c>
       <c r="AP283">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ283">
         <v>0.8100000000000001</v>
@@ -59983,7 +60007,7 @@
         <v>154</v>
       </c>
       <c r="P284" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q284">
         <v>5.5</v>
@@ -60189,7 +60213,7 @@
         <v>90</v>
       </c>
       <c r="P285" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q285">
         <v>2.6</v>
@@ -60473,7 +60497,7 @@
         <v>0.2</v>
       </c>
       <c r="AP286">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ286">
         <v>0.19</v>
@@ -60601,7 +60625,7 @@
         <v>280</v>
       </c>
       <c r="P287" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -60679,7 +60703,7 @@
         <v>1.13</v>
       </c>
       <c r="AP287">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ287">
         <v>1.25</v>
@@ -60807,7 +60831,7 @@
         <v>281</v>
       </c>
       <c r="P288" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q288">
         <v>2.1</v>
@@ -60888,7 +60912,7 @@
         <v>2</v>
       </c>
       <c r="AQ288">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR288">
         <v>1.72</v>
@@ -61013,7 +61037,7 @@
         <v>282</v>
       </c>
       <c r="P289" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -61094,7 +61118,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ289">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR289">
         <v>1.66</v>
@@ -61170,6 +61194,1860 @@
       </c>
       <c r="BP289">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7468651</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>73</v>
+      </c>
+      <c r="H290" t="s">
+        <v>80</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>2</v>
+      </c>
+      <c r="O290" t="s">
+        <v>283</v>
+      </c>
+      <c r="P290" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>0</v>
+      </c>
+      <c r="S290">
+        <v>0</v>
+      </c>
+      <c r="T290">
+        <v>0</v>
+      </c>
+      <c r="U290">
+        <v>0</v>
+      </c>
+      <c r="V290">
+        <v>0</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>1.8</v>
+      </c>
+      <c r="AA290">
+        <v>4.1</v>
+      </c>
+      <c r="AB290">
+        <v>3.69</v>
+      </c>
+      <c r="AC290">
+        <v>0</v>
+      </c>
+      <c r="AD290">
+        <v>0</v>
+      </c>
+      <c r="AE290">
+        <v>0</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>1.37</v>
+      </c>
+      <c r="AH290">
+        <v>2.94</v>
+      </c>
+      <c r="AI290">
+        <v>0</v>
+      </c>
+      <c r="AJ290">
+        <v>0</v>
+      </c>
+      <c r="AK290">
+        <v>0</v>
+      </c>
+      <c r="AL290">
+        <v>0</v>
+      </c>
+      <c r="AM290">
+        <v>0</v>
+      </c>
+      <c r="AN290">
+        <v>2.25</v>
+      </c>
+      <c r="AO290">
+        <v>1.38</v>
+      </c>
+      <c r="AP290">
+        <v>2.29</v>
+      </c>
+      <c r="AQ290">
+        <v>1.29</v>
+      </c>
+      <c r="AR290">
+        <v>1.77</v>
+      </c>
+      <c r="AS290">
+        <v>1.4</v>
+      </c>
+      <c r="AT290">
+        <v>3.17</v>
+      </c>
+      <c r="AU290">
+        <v>-1</v>
+      </c>
+      <c r="AV290">
+        <v>-1</v>
+      </c>
+      <c r="AW290">
+        <v>-1</v>
+      </c>
+      <c r="AX290">
+        <v>-1</v>
+      </c>
+      <c r="AY290">
+        <v>-1</v>
+      </c>
+      <c r="AZ290">
+        <v>-1</v>
+      </c>
+      <c r="BA290">
+        <v>-1</v>
+      </c>
+      <c r="BB290">
+        <v>-1</v>
+      </c>
+      <c r="BC290">
+        <v>-1</v>
+      </c>
+      <c r="BD290">
+        <v>0</v>
+      </c>
+      <c r="BE290">
+        <v>0</v>
+      </c>
+      <c r="BF290">
+        <v>0</v>
+      </c>
+      <c r="BG290">
+        <v>0</v>
+      </c>
+      <c r="BH290">
+        <v>0</v>
+      </c>
+      <c r="BI290">
+        <v>0</v>
+      </c>
+      <c r="BJ290">
+        <v>0</v>
+      </c>
+      <c r="BK290">
+        <v>0</v>
+      </c>
+      <c r="BL290">
+        <v>0</v>
+      </c>
+      <c r="BM290">
+        <v>0</v>
+      </c>
+      <c r="BN290">
+        <v>0</v>
+      </c>
+      <c r="BO290">
+        <v>0</v>
+      </c>
+      <c r="BP290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7468650</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>71</v>
+      </c>
+      <c r="H291" t="s">
+        <v>81</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>284</v>
+      </c>
+      <c r="P291" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>0</v>
+      </c>
+      <c r="S291">
+        <v>0</v>
+      </c>
+      <c r="T291">
+        <v>0</v>
+      </c>
+      <c r="U291">
+        <v>0</v>
+      </c>
+      <c r="V291">
+        <v>0</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>4.3</v>
+      </c>
+      <c r="AA291">
+        <v>3.73</v>
+      </c>
+      <c r="AB291">
+        <v>1.76</v>
+      </c>
+      <c r="AC291">
+        <v>0</v>
+      </c>
+      <c r="AD291">
+        <v>0</v>
+      </c>
+      <c r="AE291">
+        <v>0</v>
+      </c>
+      <c r="AF291">
+        <v>0</v>
+      </c>
+      <c r="AG291">
+        <v>1.77</v>
+      </c>
+      <c r="AH291">
+        <v>1.98</v>
+      </c>
+      <c r="AI291">
+        <v>0</v>
+      </c>
+      <c r="AJ291">
+        <v>0</v>
+      </c>
+      <c r="AK291">
+        <v>0</v>
+      </c>
+      <c r="AL291">
+        <v>0</v>
+      </c>
+      <c r="AM291">
+        <v>0</v>
+      </c>
+      <c r="AN291">
+        <v>1.88</v>
+      </c>
+      <c r="AO291">
+        <v>1.44</v>
+      </c>
+      <c r="AP291">
+        <v>1.94</v>
+      </c>
+      <c r="AQ291">
+        <v>1.35</v>
+      </c>
+      <c r="AR291">
+        <v>1.59</v>
+      </c>
+      <c r="AS291">
+        <v>1.46</v>
+      </c>
+      <c r="AT291">
+        <v>3.05</v>
+      </c>
+      <c r="AU291">
+        <v>-1</v>
+      </c>
+      <c r="AV291">
+        <v>-1</v>
+      </c>
+      <c r="AW291">
+        <v>-1</v>
+      </c>
+      <c r="AX291">
+        <v>-1</v>
+      </c>
+      <c r="AY291">
+        <v>-1</v>
+      </c>
+      <c r="AZ291">
+        <v>-1</v>
+      </c>
+      <c r="BA291">
+        <v>-1</v>
+      </c>
+      <c r="BB291">
+        <v>-1</v>
+      </c>
+      <c r="BC291">
+        <v>-1</v>
+      </c>
+      <c r="BD291">
+        <v>0</v>
+      </c>
+      <c r="BE291">
+        <v>0</v>
+      </c>
+      <c r="BF291">
+        <v>0</v>
+      </c>
+      <c r="BG291">
+        <v>0</v>
+      </c>
+      <c r="BH291">
+        <v>0</v>
+      </c>
+      <c r="BI291">
+        <v>0</v>
+      </c>
+      <c r="BJ291">
+        <v>0</v>
+      </c>
+      <c r="BK291">
+        <v>0</v>
+      </c>
+      <c r="BL291">
+        <v>0</v>
+      </c>
+      <c r="BM291">
+        <v>0</v>
+      </c>
+      <c r="BN291">
+        <v>0</v>
+      </c>
+      <c r="BO291">
+        <v>0</v>
+      </c>
+      <c r="BP291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7468648</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>75</v>
+      </c>
+      <c r="H292" t="s">
+        <v>79</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>4</v>
+      </c>
+      <c r="N292">
+        <v>5</v>
+      </c>
+      <c r="O292" t="s">
+        <v>141</v>
+      </c>
+      <c r="P292" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>0</v>
+      </c>
+      <c r="S292">
+        <v>0</v>
+      </c>
+      <c r="T292">
+        <v>0</v>
+      </c>
+      <c r="U292">
+        <v>0</v>
+      </c>
+      <c r="V292">
+        <v>0</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA292">
+        <v>7.1</v>
+      </c>
+      <c r="AB292">
+        <v>1.21</v>
+      </c>
+      <c r="AC292">
+        <v>0</v>
+      </c>
+      <c r="AD292">
+        <v>0</v>
+      </c>
+      <c r="AE292">
+        <v>0</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>1.28</v>
+      </c>
+      <c r="AH292">
+        <v>3.47</v>
+      </c>
+      <c r="AI292">
+        <v>0</v>
+      </c>
+      <c r="AJ292">
+        <v>0</v>
+      </c>
+      <c r="AK292">
+        <v>0</v>
+      </c>
+      <c r="AL292">
+        <v>0</v>
+      </c>
+      <c r="AM292">
+        <v>0</v>
+      </c>
+      <c r="AN292">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO292">
+        <v>2.31</v>
+      </c>
+      <c r="AP292">
+        <v>0.76</v>
+      </c>
+      <c r="AQ292">
+        <v>2.35</v>
+      </c>
+      <c r="AR292">
+        <v>1.53</v>
+      </c>
+      <c r="AS292">
+        <v>2.16</v>
+      </c>
+      <c r="AT292">
+        <v>3.69</v>
+      </c>
+      <c r="AU292">
+        <v>-1</v>
+      </c>
+      <c r="AV292">
+        <v>-1</v>
+      </c>
+      <c r="AW292">
+        <v>-1</v>
+      </c>
+      <c r="AX292">
+        <v>-1</v>
+      </c>
+      <c r="AY292">
+        <v>-1</v>
+      </c>
+      <c r="AZ292">
+        <v>-1</v>
+      </c>
+      <c r="BA292">
+        <v>-1</v>
+      </c>
+      <c r="BB292">
+        <v>-1</v>
+      </c>
+      <c r="BC292">
+        <v>-1</v>
+      </c>
+      <c r="BD292">
+        <v>0</v>
+      </c>
+      <c r="BE292">
+        <v>0</v>
+      </c>
+      <c r="BF292">
+        <v>0</v>
+      </c>
+      <c r="BG292">
+        <v>0</v>
+      </c>
+      <c r="BH292">
+        <v>0</v>
+      </c>
+      <c r="BI292">
+        <v>0</v>
+      </c>
+      <c r="BJ292">
+        <v>0</v>
+      </c>
+      <c r="BK292">
+        <v>0</v>
+      </c>
+      <c r="BL292">
+        <v>0</v>
+      </c>
+      <c r="BM292">
+        <v>0</v>
+      </c>
+      <c r="BN292">
+        <v>0</v>
+      </c>
+      <c r="BO292">
+        <v>0</v>
+      </c>
+      <c r="BP292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7468649</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>76</v>
+      </c>
+      <c r="H293" t="s">
+        <v>83</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>162</v>
+      </c>
+      <c r="P293" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>0</v>
+      </c>
+      <c r="S293">
+        <v>0</v>
+      </c>
+      <c r="T293">
+        <v>0</v>
+      </c>
+      <c r="U293">
+        <v>0</v>
+      </c>
+      <c r="V293">
+        <v>0</v>
+      </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>0</v>
+      </c>
+      <c r="Z293">
+        <v>2.22</v>
+      </c>
+      <c r="AA293">
+        <v>3.41</v>
+      </c>
+      <c r="AB293">
+        <v>3.07</v>
+      </c>
+      <c r="AC293">
+        <v>0</v>
+      </c>
+      <c r="AD293">
+        <v>0</v>
+      </c>
+      <c r="AE293">
+        <v>0</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>1.79</v>
+      </c>
+      <c r="AH293">
+        <v>1.95</v>
+      </c>
+      <c r="AI293">
+        <v>0</v>
+      </c>
+      <c r="AJ293">
+        <v>0</v>
+      </c>
+      <c r="AK293">
+        <v>0</v>
+      </c>
+      <c r="AL293">
+        <v>0</v>
+      </c>
+      <c r="AM293">
+        <v>0</v>
+      </c>
+      <c r="AN293">
+        <v>1.19</v>
+      </c>
+      <c r="AO293">
+        <v>1.75</v>
+      </c>
+      <c r="AP293">
+        <v>1.18</v>
+      </c>
+      <c r="AQ293">
+        <v>1.71</v>
+      </c>
+      <c r="AR293">
+        <v>1.5</v>
+      </c>
+      <c r="AS293">
+        <v>1.4</v>
+      </c>
+      <c r="AT293">
+        <v>2.9</v>
+      </c>
+      <c r="AU293">
+        <v>-1</v>
+      </c>
+      <c r="AV293">
+        <v>-1</v>
+      </c>
+      <c r="AW293">
+        <v>-1</v>
+      </c>
+      <c r="AX293">
+        <v>-1</v>
+      </c>
+      <c r="AY293">
+        <v>-1</v>
+      </c>
+      <c r="AZ293">
+        <v>-1</v>
+      </c>
+      <c r="BA293">
+        <v>-1</v>
+      </c>
+      <c r="BB293">
+        <v>-1</v>
+      </c>
+      <c r="BC293">
+        <v>-1</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>0</v>
+      </c>
+      <c r="BG293">
+        <v>0</v>
+      </c>
+      <c r="BH293">
+        <v>0</v>
+      </c>
+      <c r="BI293">
+        <v>0</v>
+      </c>
+      <c r="BJ293">
+        <v>0</v>
+      </c>
+      <c r="BK293">
+        <v>0</v>
+      </c>
+      <c r="BL293">
+        <v>0</v>
+      </c>
+      <c r="BM293">
+        <v>0</v>
+      </c>
+      <c r="BN293">
+        <v>0</v>
+      </c>
+      <c r="BO293">
+        <v>0</v>
+      </c>
+      <c r="BP293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7468645</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>77</v>
+      </c>
+      <c r="H294" t="s">
+        <v>84</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>2</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294" t="s">
+        <v>285</v>
+      </c>
+      <c r="P294" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>0</v>
+      </c>
+      <c r="S294">
+        <v>0</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <v>0</v>
+      </c>
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>3.45</v>
+      </c>
+      <c r="AA294">
+        <v>3.55</v>
+      </c>
+      <c r="AB294">
+        <v>2.01</v>
+      </c>
+      <c r="AC294">
+        <v>0</v>
+      </c>
+      <c r="AD294">
+        <v>0</v>
+      </c>
+      <c r="AE294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>1.73</v>
+      </c>
+      <c r="AH294">
+        <v>2</v>
+      </c>
+      <c r="AI294">
+        <v>0</v>
+      </c>
+      <c r="AJ294">
+        <v>0</v>
+      </c>
+      <c r="AK294">
+        <v>0</v>
+      </c>
+      <c r="AL294">
+        <v>0</v>
+      </c>
+      <c r="AM294">
+        <v>0</v>
+      </c>
+      <c r="AN294">
+        <v>0.88</v>
+      </c>
+      <c r="AO294">
+        <v>1.38</v>
+      </c>
+      <c r="AP294">
+        <v>1</v>
+      </c>
+      <c r="AQ294">
+        <v>1.29</v>
+      </c>
+      <c r="AR294">
+        <v>1.21</v>
+      </c>
+      <c r="AS294">
+        <v>1.22</v>
+      </c>
+      <c r="AT294">
+        <v>2.43</v>
+      </c>
+      <c r="AU294">
+        <v>-1</v>
+      </c>
+      <c r="AV294">
+        <v>-1</v>
+      </c>
+      <c r="AW294">
+        <v>-1</v>
+      </c>
+      <c r="AX294">
+        <v>-1</v>
+      </c>
+      <c r="AY294">
+        <v>-1</v>
+      </c>
+      <c r="AZ294">
+        <v>-1</v>
+      </c>
+      <c r="BA294">
+        <v>-1</v>
+      </c>
+      <c r="BB294">
+        <v>-1</v>
+      </c>
+      <c r="BC294">
+        <v>-1</v>
+      </c>
+      <c r="BD294">
+        <v>0</v>
+      </c>
+      <c r="BE294">
+        <v>0</v>
+      </c>
+      <c r="BF294">
+        <v>0</v>
+      </c>
+      <c r="BG294">
+        <v>0</v>
+      </c>
+      <c r="BH294">
+        <v>0</v>
+      </c>
+      <c r="BI294">
+        <v>0</v>
+      </c>
+      <c r="BJ294">
+        <v>0</v>
+      </c>
+      <c r="BK294">
+        <v>0</v>
+      </c>
+      <c r="BL294">
+        <v>0</v>
+      </c>
+      <c r="BM294">
+        <v>0</v>
+      </c>
+      <c r="BN294">
+        <v>0</v>
+      </c>
+      <c r="BO294">
+        <v>0</v>
+      </c>
+      <c r="BP294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7468644</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>74</v>
+      </c>
+      <c r="H295" t="s">
+        <v>85</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>164</v>
+      </c>
+      <c r="P295" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>0</v>
+      </c>
+      <c r="S295">
+        <v>0</v>
+      </c>
+      <c r="T295">
+        <v>0</v>
+      </c>
+      <c r="U295">
+        <v>0</v>
+      </c>
+      <c r="V295">
+        <v>0</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="Z295">
+        <v>2.35</v>
+      </c>
+      <c r="AA295">
+        <v>3.31</v>
+      </c>
+      <c r="AB295">
+        <v>2.92</v>
+      </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
+      <c r="AE295">
+        <v>0</v>
+      </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
+      <c r="AG295">
+        <v>1.89</v>
+      </c>
+      <c r="AH295">
+        <v>1.85</v>
+      </c>
+      <c r="AI295">
+        <v>0</v>
+      </c>
+      <c r="AJ295">
+        <v>0</v>
+      </c>
+      <c r="AK295">
+        <v>0</v>
+      </c>
+      <c r="AL295">
+        <v>0</v>
+      </c>
+      <c r="AM295">
+        <v>0</v>
+      </c>
+      <c r="AN295">
+        <v>1.63</v>
+      </c>
+      <c r="AO295">
+        <v>0.88</v>
+      </c>
+      <c r="AP295">
+        <v>1.59</v>
+      </c>
+      <c r="AQ295">
+        <v>0.88</v>
+      </c>
+      <c r="AR295">
+        <v>1.37</v>
+      </c>
+      <c r="AS295">
+        <v>1.07</v>
+      </c>
+      <c r="AT295">
+        <v>2.44</v>
+      </c>
+      <c r="AU295">
+        <v>-1</v>
+      </c>
+      <c r="AV295">
+        <v>-1</v>
+      </c>
+      <c r="AW295">
+        <v>-1</v>
+      </c>
+      <c r="AX295">
+        <v>-1</v>
+      </c>
+      <c r="AY295">
+        <v>-1</v>
+      </c>
+      <c r="AZ295">
+        <v>-1</v>
+      </c>
+      <c r="BA295">
+        <v>-1</v>
+      </c>
+      <c r="BB295">
+        <v>-1</v>
+      </c>
+      <c r="BC295">
+        <v>-1</v>
+      </c>
+      <c r="BD295">
+        <v>0</v>
+      </c>
+      <c r="BE295">
+        <v>0</v>
+      </c>
+      <c r="BF295">
+        <v>0</v>
+      </c>
+      <c r="BG295">
+        <v>0</v>
+      </c>
+      <c r="BH295">
+        <v>0</v>
+      </c>
+      <c r="BI295">
+        <v>0</v>
+      </c>
+      <c r="BJ295">
+        <v>0</v>
+      </c>
+      <c r="BK295">
+        <v>0</v>
+      </c>
+      <c r="BL295">
+        <v>0</v>
+      </c>
+      <c r="BM295">
+        <v>0</v>
+      </c>
+      <c r="BN295">
+        <v>0</v>
+      </c>
+      <c r="BO295">
+        <v>0</v>
+      </c>
+      <c r="BP295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7468643</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>72</v>
+      </c>
+      <c r="H296" t="s">
+        <v>82</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>90</v>
+      </c>
+      <c r="P296" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>0</v>
+      </c>
+      <c r="T296">
+        <v>0</v>
+      </c>
+      <c r="U296">
+        <v>0</v>
+      </c>
+      <c r="V296">
+        <v>0</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>2.04</v>
+      </c>
+      <c r="AA296">
+        <v>3.61</v>
+      </c>
+      <c r="AB296">
+        <v>3.3</v>
+      </c>
+      <c r="AC296">
+        <v>0</v>
+      </c>
+      <c r="AD296">
+        <v>0</v>
+      </c>
+      <c r="AE296">
+        <v>0</v>
+      </c>
+      <c r="AF296">
+        <v>0</v>
+      </c>
+      <c r="AG296">
+        <v>1.67</v>
+      </c>
+      <c r="AH296">
+        <v>2.1</v>
+      </c>
+      <c r="AI296">
+        <v>0</v>
+      </c>
+      <c r="AJ296">
+        <v>0</v>
+      </c>
+      <c r="AK296">
+        <v>0</v>
+      </c>
+      <c r="AL296">
+        <v>0</v>
+      </c>
+      <c r="AM296">
+        <v>0</v>
+      </c>
+      <c r="AN296">
+        <v>1</v>
+      </c>
+      <c r="AO296">
+        <v>0.38</v>
+      </c>
+      <c r="AP296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ296">
+        <v>0.53</v>
+      </c>
+      <c r="AR296">
+        <v>1.33</v>
+      </c>
+      <c r="AS296">
+        <v>1.12</v>
+      </c>
+      <c r="AT296">
+        <v>2.45</v>
+      </c>
+      <c r="AU296">
+        <v>-1</v>
+      </c>
+      <c r="AV296">
+        <v>-1</v>
+      </c>
+      <c r="AW296">
+        <v>-1</v>
+      </c>
+      <c r="AX296">
+        <v>-1</v>
+      </c>
+      <c r="AY296">
+        <v>-1</v>
+      </c>
+      <c r="AZ296">
+        <v>-1</v>
+      </c>
+      <c r="BA296">
+        <v>-1</v>
+      </c>
+      <c r="BB296">
+        <v>-1</v>
+      </c>
+      <c r="BC296">
+        <v>-1</v>
+      </c>
+      <c r="BD296">
+        <v>0</v>
+      </c>
+      <c r="BE296">
+        <v>0</v>
+      </c>
+      <c r="BF296">
+        <v>0</v>
+      </c>
+      <c r="BG296">
+        <v>0</v>
+      </c>
+      <c r="BH296">
+        <v>0</v>
+      </c>
+      <c r="BI296">
+        <v>0</v>
+      </c>
+      <c r="BJ296">
+        <v>0</v>
+      </c>
+      <c r="BK296">
+        <v>0</v>
+      </c>
+      <c r="BL296">
+        <v>0</v>
+      </c>
+      <c r="BM296">
+        <v>0</v>
+      </c>
+      <c r="BN296">
+        <v>0</v>
+      </c>
+      <c r="BO296">
+        <v>0</v>
+      </c>
+      <c r="BP296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7468646</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>70</v>
+      </c>
+      <c r="H297" t="s">
+        <v>87</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>3</v>
+      </c>
+      <c r="N297">
+        <v>4</v>
+      </c>
+      <c r="O297" t="s">
+        <v>286</v>
+      </c>
+      <c r="P297" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <v>0</v>
+      </c>
+      <c r="T297">
+        <v>0</v>
+      </c>
+      <c r="U297">
+        <v>0</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>5.4</v>
+      </c>
+      <c r="AA297">
+        <v>4.3</v>
+      </c>
+      <c r="AB297">
+        <v>1.53</v>
+      </c>
+      <c r="AC297">
+        <v>0</v>
+      </c>
+      <c r="AD297">
+        <v>0</v>
+      </c>
+      <c r="AE297">
+        <v>0</v>
+      </c>
+      <c r="AF297">
+        <v>0</v>
+      </c>
+      <c r="AG297">
+        <v>1.6</v>
+      </c>
+      <c r="AH297">
+        <v>2.25</v>
+      </c>
+      <c r="AI297">
+        <v>0</v>
+      </c>
+      <c r="AJ297">
+        <v>0</v>
+      </c>
+      <c r="AK297">
+        <v>0</v>
+      </c>
+      <c r="AL297">
+        <v>0</v>
+      </c>
+      <c r="AM297">
+        <v>0</v>
+      </c>
+      <c r="AN297">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO297">
+        <v>1.75</v>
+      </c>
+      <c r="AP297">
+        <v>0.65</v>
+      </c>
+      <c r="AQ297">
+        <v>1.82</v>
+      </c>
+      <c r="AR297">
+        <v>1.24</v>
+      </c>
+      <c r="AS297">
+        <v>1.55</v>
+      </c>
+      <c r="AT297">
+        <v>2.79</v>
+      </c>
+      <c r="AU297">
+        <v>-1</v>
+      </c>
+      <c r="AV297">
+        <v>-1</v>
+      </c>
+      <c r="AW297">
+        <v>-1</v>
+      </c>
+      <c r="AX297">
+        <v>-1</v>
+      </c>
+      <c r="AY297">
+        <v>-1</v>
+      </c>
+      <c r="AZ297">
+        <v>-1</v>
+      </c>
+      <c r="BA297">
+        <v>-1</v>
+      </c>
+      <c r="BB297">
+        <v>-1</v>
+      </c>
+      <c r="BC297">
+        <v>-1</v>
+      </c>
+      <c r="BD297">
+        <v>0</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>0</v>
+      </c>
+      <c r="BG297">
+        <v>0</v>
+      </c>
+      <c r="BH297">
+        <v>0</v>
+      </c>
+      <c r="BI297">
+        <v>0</v>
+      </c>
+      <c r="BJ297">
+        <v>0</v>
+      </c>
+      <c r="BK297">
+        <v>0</v>
+      </c>
+      <c r="BL297">
+        <v>0</v>
+      </c>
+      <c r="BM297">
+        <v>0</v>
+      </c>
+      <c r="BN297">
+        <v>0</v>
+      </c>
+      <c r="BO297">
+        <v>0</v>
+      </c>
+      <c r="BP297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7468647</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>78</v>
+      </c>
+      <c r="H298" t="s">
+        <v>86</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298" t="s">
+        <v>287</v>
+      </c>
+      <c r="P298" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <v>0</v>
+      </c>
+      <c r="U298">
+        <v>0</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+      <c r="Z298">
+        <v>3.33</v>
+      </c>
+      <c r="AA298">
+        <v>3.47</v>
+      </c>
+      <c r="AB298">
+        <v>2.07</v>
+      </c>
+      <c r="AC298">
+        <v>0</v>
+      </c>
+      <c r="AD298">
+        <v>0</v>
+      </c>
+      <c r="AE298">
+        <v>0</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>1.82</v>
+      </c>
+      <c r="AH298">
+        <v>1.92</v>
+      </c>
+      <c r="AI298">
+        <v>0</v>
+      </c>
+      <c r="AJ298">
+        <v>0</v>
+      </c>
+      <c r="AK298">
+        <v>0</v>
+      </c>
+      <c r="AL298">
+        <v>0</v>
+      </c>
+      <c r="AM298">
+        <v>0</v>
+      </c>
+      <c r="AN298">
+        <v>1.56</v>
+      </c>
+      <c r="AO298">
+        <v>1.44</v>
+      </c>
+      <c r="AP298">
+        <v>1.65</v>
+      </c>
+      <c r="AQ298">
+        <v>1.35</v>
+      </c>
+      <c r="AR298">
+        <v>1.68</v>
+      </c>
+      <c r="AS298">
+        <v>1.52</v>
+      </c>
+      <c r="AT298">
+        <v>3.2</v>
+      </c>
+      <c r="AU298">
+        <v>-1</v>
+      </c>
+      <c r="AV298">
+        <v>-1</v>
+      </c>
+      <c r="AW298">
+        <v>-1</v>
+      </c>
+      <c r="AX298">
+        <v>-1</v>
+      </c>
+      <c r="AY298">
+        <v>-1</v>
+      </c>
+      <c r="AZ298">
+        <v>-1</v>
+      </c>
+      <c r="BA298">
+        <v>-1</v>
+      </c>
+      <c r="BB298">
+        <v>-1</v>
+      </c>
+      <c r="BC298">
+        <v>-1</v>
+      </c>
+      <c r="BD298">
+        <v>0</v>
+      </c>
+      <c r="BE298">
+        <v>0</v>
+      </c>
+      <c r="BF298">
+        <v>0</v>
+      </c>
+      <c r="BG298">
+        <v>0</v>
+      </c>
+      <c r="BH298">
+        <v>0</v>
+      </c>
+      <c r="BI298">
+        <v>0</v>
+      </c>
+      <c r="BJ298">
+        <v>0</v>
+      </c>
+      <c r="BK298">
+        <v>0</v>
+      </c>
+      <c r="BL298">
+        <v>0</v>
+      </c>
+      <c r="BM298">
+        <v>0</v>
+      </c>
+      <c r="BN298">
+        <v>0</v>
+      </c>
+      <c r="BO298">
+        <v>0</v>
+      </c>
+      <c r="BP298">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -61210,7 +61210,7 @@
         <v>69</v>
       </c>
       <c r="E290" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F290">
         <v>33</v>
@@ -61416,7 +61416,7 @@
         <v>69</v>
       </c>
       <c r="E291" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F291">
         <v>33</v>
@@ -61622,7 +61622,7 @@
         <v>69</v>
       </c>
       <c r="E292" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F292">
         <v>33</v>
@@ -61828,7 +61828,7 @@
         <v>69</v>
       </c>
       <c r="E293" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F293">
         <v>33</v>
@@ -62034,7 +62034,7 @@
         <v>69</v>
       </c>
       <c r="E294" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F294">
         <v>33</v>
@@ -62070,31 +62070,31 @@
         <v>195</v>
       </c>
       <c r="Q294">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R294">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S294">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T294">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U294">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V294">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W294">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X294">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y294">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z294">
         <v>3.45</v>
@@ -62106,16 +62106,16 @@
         <v>2.01</v>
       </c>
       <c r="AC294">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AD294">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE294">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF294">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AG294">
         <v>1.73</v>
@@ -62124,19 +62124,19 @@
         <v>2</v>
       </c>
       <c r="AI294">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AJ294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK294">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AL294">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AM294">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN294">
         <v>0.88</v>
@@ -62160,70 +62160,70 @@
         <v>2.43</v>
       </c>
       <c r="AU294">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV294">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW294">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX294">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY294">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ294">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA294">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB294">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC294">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD294">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="BE294">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="BF294">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="BG294">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BH294">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="BI294">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BJ294">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BK294">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BL294">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BM294">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BN294">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BO294">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BP294">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="295" spans="1:68">
@@ -62240,7 +62240,7 @@
         <v>69</v>
       </c>
       <c r="E295" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F295">
         <v>33</v>
@@ -62276,31 +62276,31 @@
         <v>280</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R295">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S295">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T295">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U295">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V295">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W295">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X295">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y295">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z295">
         <v>2.35</v>
@@ -62312,16 +62312,16 @@
         <v>2.92</v>
       </c>
       <c r="AC295">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD295">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE295">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF295">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AG295">
         <v>1.89</v>
@@ -62330,19 +62330,19 @@
         <v>1.85</v>
       </c>
       <c r="AI295">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AJ295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK295">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AL295">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM295">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AN295">
         <v>1.63</v>
@@ -62366,70 +62366,70 @@
         <v>2.44</v>
       </c>
       <c r="AU295">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV295">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW295">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX295">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY295">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ295">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA295">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB295">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC295">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD295">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BE295">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="BF295">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BG295">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BH295">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="BI295">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="BJ295">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BK295">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BL295">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="BM295">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BN295">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BO295">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="BP295">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="296" spans="1:68">
@@ -62446,7 +62446,7 @@
         <v>69</v>
       </c>
       <c r="E296" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F296">
         <v>33</v>
@@ -62482,31 +62482,31 @@
         <v>425</v>
       </c>
       <c r="Q296">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R296">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S296">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T296">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U296">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V296">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W296">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X296">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y296">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z296">
         <v>2.04</v>
@@ -62518,16 +62518,16 @@
         <v>3.3</v>
       </c>
       <c r="AC296">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AD296">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE296">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF296">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG296">
         <v>1.67</v>
@@ -62536,19 +62536,19 @@
         <v>2.1</v>
       </c>
       <c r="AI296">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AJ296">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AK296">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AL296">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AM296">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN296">
         <v>1</v>
@@ -62572,70 +62572,70 @@
         <v>2.45</v>
       </c>
       <c r="AU296">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV296">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW296">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AX296">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY296">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="AZ296">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA296">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB296">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC296">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD296">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BE296">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BF296">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BG296">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH296">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="BI296">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BJ296">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BK296">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BL296">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BM296">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BN296">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BO296">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="BP296">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="297" spans="1:68">
@@ -62652,7 +62652,7 @@
         <v>69</v>
       </c>
       <c r="E297" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F297">
         <v>33</v>
@@ -62688,31 +62688,31 @@
         <v>426</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R297">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S297">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U297">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V297">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W297">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X297">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Y297">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="Z297">
         <v>5.4</v>
@@ -62724,16 +62724,16 @@
         <v>1.53</v>
       </c>
       <c r="AC297">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD297">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE297">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF297">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AG297">
         <v>1.6</v>
@@ -62742,19 +62742,19 @@
         <v>2.25</v>
       </c>
       <c r="AI297">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AJ297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK297">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL297">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM297">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AN297">
         <v>0.6899999999999999</v>
@@ -62778,70 +62778,70 @@
         <v>2.79</v>
       </c>
       <c r="AU297">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV297">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW297">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX297">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AY297">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ297">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="BA297">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB297">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC297">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD297">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="BE297">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="BF297">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BG297">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BH297">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BI297">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="BJ297">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BK297">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BL297">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BM297">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="BN297">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BO297">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BP297">
-        <v>0</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="298" spans="1:68">
@@ -62858,7 +62858,7 @@
         <v>69</v>
       </c>
       <c r="E298" s="2">
-        <v>45787.79166666666</v>
+        <v>45787.66666666666</v>
       </c>
       <c r="F298">
         <v>33</v>
@@ -62894,31 +62894,31 @@
         <v>90</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R298">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S298">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="T298">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U298">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="V298">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W298">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X298">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y298">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Z298">
         <v>3.33</v>
@@ -62930,16 +62930,16 @@
         <v>2.07</v>
       </c>
       <c r="AC298">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD298">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE298">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF298">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AG298">
         <v>1.82</v>
@@ -62948,19 +62948,19 @@
         <v>1.92</v>
       </c>
       <c r="AI298">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AJ298">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AK298">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AL298">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AM298">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AN298">
         <v>1.56</v>
@@ -62984,70 +62984,70 @@
         <v>3.2</v>
       </c>
       <c r="AU298">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV298">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW298">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX298">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY298">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ298">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA298">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB298">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC298">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD298">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="BE298">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="BF298">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="BG298">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH298">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="BI298">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BJ298">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BK298">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BL298">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BM298">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BN298">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BO298">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="BP298">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -61246,31 +61246,31 @@
         <v>90</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R290">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="S290">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T290">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U290">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="V290">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W290">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X290">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y290">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Z290">
         <v>1.8</v>
@@ -61282,16 +61282,16 @@
         <v>3.69</v>
       </c>
       <c r="AC290">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD290">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE290">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF290">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG290">
         <v>1.37</v>
@@ -61300,19 +61300,19 @@
         <v>2.94</v>
       </c>
       <c r="AI290">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AJ290">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AK290">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AL290">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM290">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AN290">
         <v>2.25</v>
@@ -61336,70 +61336,70 @@
         <v>3.17</v>
       </c>
       <c r="AU290">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV290">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW290">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX290">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY290">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ290">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA290">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB290">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC290">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD290">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BE290">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF290">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="BG290">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH290">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="BI290">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BJ290">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BK290">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BL290">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BM290">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BN290">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BO290">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="BP290">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="291" spans="1:68">
@@ -61452,31 +61452,31 @@
         <v>90</v>
       </c>
       <c r="Q291">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R291">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S291">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T291">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U291">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V291">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W291">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X291">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y291">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z291">
         <v>4.3</v>
@@ -61488,16 +61488,16 @@
         <v>1.76</v>
       </c>
       <c r="AC291">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD291">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE291">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF291">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AG291">
         <v>1.77</v>
@@ -61506,19 +61506,19 @@
         <v>1.98</v>
       </c>
       <c r="AI291">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ291">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AK291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL291">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM291">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AN291">
         <v>1.88</v>
@@ -61542,70 +61542,70 @@
         <v>3.05</v>
       </c>
       <c r="AU291">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV291">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW291">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX291">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AY291">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ291">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BA291">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB291">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC291">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD291">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BE291">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BF291">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BG291">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BH291">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="BI291">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BJ291">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BK291">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="BL291">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BM291">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="BN291">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BO291">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="BP291">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="292" spans="1:68">
@@ -61658,31 +61658,31 @@
         <v>424</v>
       </c>
       <c r="Q292">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R292">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S292">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T292">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U292">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V292">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W292">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X292">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y292">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z292">
         <v>9.800000000000001</v>
@@ -61694,16 +61694,16 @@
         <v>1.21</v>
       </c>
       <c r="AC292">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD292">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE292">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AF292">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG292">
         <v>1.28</v>
@@ -61712,19 +61712,19 @@
         <v>3.47</v>
       </c>
       <c r="AI292">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AJ292">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AK292">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AL292">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AM292">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AN292">
         <v>0.8100000000000001</v>
@@ -61748,70 +61748,70 @@
         <v>3.69</v>
       </c>
       <c r="AU292">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV292">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW292">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX292">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY292">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ292">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA292">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB292">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC292">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD292">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE292">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BF292">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BG292">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BH292">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BI292">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BJ292">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BK292">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BL292">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BM292">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BN292">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BO292">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BP292">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="293" spans="1:68">
@@ -61864,31 +61864,31 @@
         <v>197</v>
       </c>
       <c r="Q293">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R293">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S293">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T293">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U293">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V293">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W293">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X293">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y293">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z293">
         <v>2.22</v>
@@ -61900,16 +61900,16 @@
         <v>3.07</v>
       </c>
       <c r="AC293">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD293">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE293">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF293">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AG293">
         <v>1.79</v>
@@ -61918,19 +61918,19 @@
         <v>1.95</v>
       </c>
       <c r="AI293">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AJ293">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AK293">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AL293">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AM293">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AN293">
         <v>1.19</v>
@@ -61954,70 +61954,70 @@
         <v>2.9</v>
       </c>
       <c r="AU293">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV293">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW293">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX293">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY293">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ293">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA293">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC293">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD293">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BE293">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BF293">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BG293">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BH293">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BI293">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="BJ293">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK293">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BL293">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BM293">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="BN293">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BO293">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="BP293">
-        <v>0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="294" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 1_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="439">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,33 @@
     <t>['15', '80']</t>
   </si>
   <si>
+    <t>['21', '38', '45+1', '90+2']</t>
+  </si>
+  <si>
+    <t>['55', '72']</t>
+  </si>
+  <si>
+    <t>['16', '19', '28', '75', '82', '90+4']</t>
+  </si>
+  <si>
+    <t>['38', '63']</t>
+  </si>
+  <si>
+    <t>['37', '86']</t>
+  </si>
+  <si>
+    <t>['20', '53']</t>
+  </si>
+  <si>
+    <t>['18', '31', '79']</t>
+  </si>
+  <si>
+    <t>['21', '56', '73', '78']</t>
+  </si>
+  <si>
+    <t>['59', '67', '88']</t>
+  </si>
+  <si>
     <t>['3', '84', '86', '90']</t>
   </si>
   <si>
@@ -1296,6 +1323,15 @@
   <si>
     <t>['56', '85', '90+9']</t>
   </si>
+  <si>
+    <t>['14', '77']</t>
+  </si>
+  <si>
+    <t>['10', '15', '58']</t>
+  </si>
+  <si>
+    <t>['43', '70', '90+9']</t>
+  </si>
 </sst>
 </file>
 
@@ -1656,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1951,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -2121,7 +2157,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2327,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2739,7 +2775,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2945,7 +2981,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -3847,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ11">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3975,7 +4011,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q12">
         <v>2.8</v>
@@ -4053,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4259,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ13">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4387,7 +4423,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q14">
         <v>2.65</v>
@@ -4465,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4671,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4799,7 +4835,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q16">
         <v>3.6</v>
@@ -4877,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ16">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5083,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ17">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5289,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ18">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5417,7 +5453,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -5495,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5623,7 +5659,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q20">
         <v>2.45</v>
@@ -5701,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ20">
         <v>1.29</v>
@@ -6035,7 +6071,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q22">
         <v>2.8</v>
@@ -6241,7 +6277,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q23">
         <v>4.2</v>
@@ -6447,7 +6483,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -6653,7 +6689,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q25">
         <v>4.5</v>
@@ -6940,7 +6976,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR26">
         <v>0.74</v>
@@ -7146,7 +7182,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ27">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -7271,7 +7307,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q28">
         <v>4.33</v>
@@ -7349,7 +7385,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ28">
         <v>2.35</v>
@@ -7555,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ29">
         <v>1.35</v>
@@ -7761,7 +7797,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.35</v>
@@ -7889,7 +7925,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7970,7 +8006,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ31">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>1.86</v>
@@ -8173,10 +8209,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ32">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>2.81</v>
@@ -8382,7 +8418,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ33">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR33">
         <v>2.21</v>
@@ -8585,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ34">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8713,7 +8749,7 @@
         <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8791,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.39</v>
@@ -9000,7 +9036,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -9203,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ37">
         <v>1.29</v>
@@ -9409,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ38">
         <v>0.53</v>
@@ -9537,7 +9573,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q39">
         <v>2.2</v>
@@ -9615,7 +9651,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ39">
         <v>1.29</v>
@@ -9743,7 +9779,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -10236,7 +10272,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -10442,7 +10478,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ43">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.86</v>
@@ -10567,7 +10603,7 @@
         <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -10773,7 +10809,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10854,7 +10890,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ45">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR45">
         <v>1.4</v>
@@ -10979,7 +11015,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q46">
         <v>3.25</v>
@@ -11057,7 +11093,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ46">
         <v>1.82</v>
@@ -11266,7 +11302,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ47">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.61</v>
@@ -11469,10 +11505,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ48">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR48">
         <v>2.56</v>
@@ -11675,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ49">
         <v>1.35</v>
@@ -11803,7 +11839,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -12009,7 +12045,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q51">
         <v>1.8</v>
@@ -12090,7 +12126,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -12215,7 +12251,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q52">
         <v>3.1</v>
@@ -12421,7 +12457,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12499,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ53">
         <v>0.53</v>
@@ -12627,7 +12663,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12708,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.25</v>
@@ -12911,7 +12947,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ55">
         <v>1.82</v>
@@ -13117,10 +13153,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13323,10 +13359,10 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13529,10 +13565,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ58">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13657,7 +13693,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13738,7 +13774,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ59">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13941,7 +13977,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -14150,7 +14186,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR61">
         <v>1.6</v>
@@ -14275,7 +14311,7 @@
         <v>136</v>
       </c>
       <c r="P62" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14353,7 +14389,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ62">
         <v>1.71</v>
@@ -14481,7 +14517,7 @@
         <v>137</v>
       </c>
       <c r="P63" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q63">
         <v>2.38</v>
@@ -14562,7 +14598,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ63">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR63">
         <v>0.8100000000000001</v>
@@ -14687,7 +14723,7 @@
         <v>138</v>
       </c>
       <c r="P64" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q64">
         <v>4.75</v>
@@ -14765,7 +14801,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ64">
         <v>2.35</v>
@@ -15180,7 +15216,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -15305,7 +15341,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15383,7 +15419,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ67">
         <v>1.71</v>
@@ -15511,7 +15547,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q68">
         <v>1.73</v>
@@ -15589,7 +15625,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ68">
         <v>1.29</v>
@@ -15717,7 +15753,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15923,7 +15959,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q70">
         <v>2.1</v>
@@ -16004,7 +16040,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ70">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR70">
         <v>1.25</v>
@@ -16129,7 +16165,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q71">
         <v>3.6</v>
@@ -16207,7 +16243,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ71">
         <v>1.35</v>
@@ -16335,7 +16371,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16416,7 +16452,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ72">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16541,7 +16577,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16828,7 +16864,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16953,7 +16989,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17159,7 +17195,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17240,7 +17276,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ76">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.01</v>
@@ -17365,7 +17401,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17443,7 +17479,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ77">
         <v>1.35</v>
@@ -17571,7 +17607,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q78">
         <v>2.1</v>
@@ -17649,10 +17685,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ78">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.8</v>
@@ -17777,7 +17813,7 @@
         <v>90</v>
       </c>
       <c r="P79" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17858,7 +17894,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ79">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
         <v>1.36</v>
@@ -18061,7 +18097,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ80">
         <v>0.88</v>
@@ -18267,10 +18303,10 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ81">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -18395,7 +18431,7 @@
         <v>90</v>
       </c>
       <c r="P82" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q82">
         <v>3.6</v>
@@ -18473,7 +18509,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>2.35</v>
@@ -18682,7 +18718,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ83">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18885,7 +18921,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ84">
         <v>1.29</v>
@@ -19091,7 +19127,7 @@
         <v>1.8</v>
       </c>
       <c r="AP85">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ85">
         <v>1.71</v>
@@ -19503,7 +19539,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ87">
         <v>1.29</v>
@@ -19712,7 +19748,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ88">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.33</v>
@@ -19918,7 +19954,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ89">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -20124,7 +20160,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ90">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR90">
         <v>1.17</v>
@@ -20249,7 +20285,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20327,7 +20363,7 @@
         <v>2.4</v>
       </c>
       <c r="AP91">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ91">
         <v>1.82</v>
@@ -20455,7 +20491,7 @@
         <v>154</v>
       </c>
       <c r="P92" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q92">
         <v>1.91</v>
@@ -20533,10 +20569,10 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>1.38</v>
@@ -20661,7 +20697,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20739,10 +20775,10 @@
         <v>2.25</v>
       </c>
       <c r="AP93">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.3</v>
@@ -20867,7 +20903,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q94">
         <v>2.2</v>
@@ -20945,7 +20981,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -21073,7 +21109,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q95">
         <v>8.5</v>
@@ -21279,7 +21315,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21357,7 +21393,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ96">
         <v>1.35</v>
@@ -21485,7 +21521,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21566,7 +21602,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ97">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR97">
         <v>1.67</v>
@@ -21772,7 +21808,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ98">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.3</v>
@@ -21897,7 +21933,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q99">
         <v>3.75</v>
@@ -21978,7 +22014,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ99">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.18</v>
@@ -22181,7 +22217,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ100">
         <v>0.53</v>
@@ -22309,7 +22345,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q101">
         <v>2.05</v>
@@ -22390,7 +22426,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ101">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22593,10 +22629,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ102">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR102">
         <v>2.25</v>
@@ -22721,7 +22757,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22799,7 +22835,7 @@
         <v>2.5</v>
       </c>
       <c r="AP103">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ103">
         <v>1.82</v>
@@ -23005,10 +23041,10 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ104">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -23417,10 +23453,10 @@
         <v>0.2</v>
       </c>
       <c r="AP106">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ106">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR106">
         <v>1.43</v>
@@ -23626,7 +23662,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ107">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR107">
         <v>1.49</v>
@@ -23751,7 +23787,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23829,10 +23865,10 @@
         <v>0.6</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ108">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -24035,7 +24071,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ109">
         <v>1.29</v>
@@ -24163,7 +24199,7 @@
         <v>90</v>
       </c>
       <c r="P110" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -24859,7 +24895,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ113">
         <v>0.88</v>
@@ -24987,7 +25023,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q114">
         <v>4.33</v>
@@ -25193,7 +25229,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -25274,7 +25310,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ115">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR115">
         <v>1.18</v>
@@ -25480,7 +25516,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25683,7 +25719,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ117">
         <v>1.35</v>
@@ -25889,10 +25925,10 @@
         <v>2.4</v>
       </c>
       <c r="AP118">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -26095,10 +26131,10 @@
         <v>0.5</v>
       </c>
       <c r="AP119">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ119">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.36</v>
@@ -26510,7 +26546,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ121">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26635,7 +26671,7 @@
         <v>176</v>
       </c>
       <c r="P122" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26713,10 +26749,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26841,7 +26877,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q123">
         <v>4.75</v>
@@ -27125,10 +27161,10 @@
         <v>0</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ124">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR124">
         <v>1.73</v>
@@ -27331,10 +27367,10 @@
         <v>1.67</v>
       </c>
       <c r="AP125">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ125">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.21</v>
@@ -27537,10 +27573,10 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ126">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27665,7 +27701,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -27743,7 +27779,7 @@
         <v>2.57</v>
       </c>
       <c r="AP127">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ127">
         <v>1.82</v>
@@ -28077,7 +28113,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28155,7 +28191,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1.35</v>
@@ -28283,7 +28319,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q130">
         <v>4.33</v>
@@ -28570,7 +28606,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ131">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR131">
         <v>1.24</v>
@@ -28695,7 +28731,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28901,7 +28937,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -29394,7 +29430,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ135">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR135">
         <v>1.64</v>
@@ -29597,7 +29633,7 @@
         <v>1.71</v>
       </c>
       <c r="AP136">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ136">
         <v>1.29</v>
@@ -29725,7 +29761,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29931,7 +29967,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q138">
         <v>2.88</v>
@@ -30009,10 +30045,10 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ138">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR138">
         <v>1.63</v>
@@ -30215,10 +30251,10 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ139">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.2</v>
@@ -30343,7 +30379,7 @@
         <v>129</v>
       </c>
       <c r="P140" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q140">
         <v>2.2</v>
@@ -30421,7 +30457,7 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ140">
         <v>0.88</v>
@@ -30627,10 +30663,10 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ141">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR141">
         <v>1.78</v>
@@ -30833,10 +30869,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ142">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -31039,10 +31075,10 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ143">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR143">
         <v>1.2</v>
@@ -31248,7 +31284,7 @@
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.26</v>
@@ -31451,10 +31487,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31579,7 +31615,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31657,10 +31693,10 @@
         <v>1.86</v>
       </c>
       <c r="AP146">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ146">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR146">
         <v>1.45</v>
@@ -31991,7 +32027,7 @@
         <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32197,7 +32233,7 @@
         <v>194</v>
       </c>
       <c r="P149" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q149">
         <v>3.2</v>
@@ -32403,7 +32439,7 @@
         <v>195</v>
       </c>
       <c r="P150" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q150">
         <v>3.5</v>
@@ -32609,7 +32645,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q151">
         <v>5.25</v>
@@ -32815,7 +32851,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q152">
         <v>2.6</v>
@@ -32896,7 +32932,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ152">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR152">
         <v>1.44</v>
@@ -33021,7 +33057,7 @@
         <v>198</v>
       </c>
       <c r="P153" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q153">
         <v>2.3</v>
@@ -33305,7 +33341,7 @@
         <v>0.13</v>
       </c>
       <c r="AP154">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ154">
         <v>0.53</v>
@@ -33514,7 +33550,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ155">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR155">
         <v>1.44</v>
@@ -33717,7 +33753,7 @@
         <v>1.33</v>
       </c>
       <c r="AP156">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ156">
         <v>1.35</v>
@@ -33845,7 +33881,7 @@
         <v>202</v>
       </c>
       <c r="P157" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33923,7 +33959,7 @@
         <v>2.25</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ157">
         <v>2.35</v>
@@ -34051,7 +34087,7 @@
         <v>203</v>
       </c>
       <c r="P158" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q158">
         <v>2.6</v>
@@ -34132,7 +34168,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ158">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.48</v>
@@ -34335,10 +34371,10 @@
         <v>1.25</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ159">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR159">
         <v>1.74</v>
@@ -34541,7 +34577,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ160">
         <v>0.88</v>
@@ -34750,7 +34786,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -34956,7 +34992,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ162">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR162">
         <v>1.2</v>
@@ -35081,7 +35117,7 @@
         <v>207</v>
       </c>
       <c r="P163" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35159,7 +35195,7 @@
         <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ163">
         <v>1.29</v>
@@ -35493,7 +35529,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q165">
         <v>2.25</v>
@@ -35574,7 +35610,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ165">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35777,7 +35813,7 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ166">
         <v>1.35</v>
@@ -35905,7 +35941,7 @@
         <v>162</v>
       </c>
       <c r="P167" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q167">
         <v>1.62</v>
@@ -35983,10 +36019,10 @@
         <v>1.38</v>
       </c>
       <c r="AP167">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ167">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR167">
         <v>2.34</v>
@@ -36111,7 +36147,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -36192,7 +36228,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ168">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR168">
         <v>1.13</v>
@@ -36395,7 +36431,7 @@
         <v>1.33</v>
       </c>
       <c r="AP169">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
         <v>1.29</v>
@@ -36523,7 +36559,7 @@
         <v>211</v>
       </c>
       <c r="P170" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36604,7 +36640,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ170">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR170">
         <v>1.48</v>
@@ -36807,10 +36843,10 @@
         <v>1.33</v>
       </c>
       <c r="AP171">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ171">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR171">
         <v>1.64</v>
@@ -37013,7 +37049,7 @@
         <v>2.67</v>
       </c>
       <c r="AP172">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ172">
         <v>1.82</v>
@@ -37141,7 +37177,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q173">
         <v>4.33</v>
@@ -37347,7 +37383,7 @@
         <v>214</v>
       </c>
       <c r="P174" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q174">
         <v>5.25</v>
@@ -37553,7 +37589,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q175">
         <v>1.73</v>
@@ -37634,7 +37670,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR175">
         <v>1.59</v>
@@ -37837,7 +37873,7 @@
         <v>0.2</v>
       </c>
       <c r="AP176">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ176">
         <v>0.53</v>
@@ -37965,7 +38001,7 @@
         <v>217</v>
       </c>
       <c r="P177" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q177">
         <v>3.1</v>
@@ -38458,7 +38494,7 @@
         <v>1</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR179">
         <v>1.27</v>
@@ -38583,7 +38619,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38789,7 +38825,7 @@
         <v>219</v>
       </c>
       <c r="P181" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Q181">
         <v>2.5</v>
@@ -38867,7 +38903,7 @@
         <v>1.3</v>
       </c>
       <c r="AP181">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
         <v>1.29</v>
@@ -38995,7 +39031,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q182">
         <v>3.3</v>
@@ -39073,10 +39109,10 @@
         <v>0.9</v>
       </c>
       <c r="AP182">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ182">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR182">
         <v>1.39</v>
@@ -39279,10 +39315,10 @@
         <v>1.56</v>
       </c>
       <c r="AP183">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ183">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR183">
         <v>2.35</v>
@@ -39485,7 +39521,7 @@
         <v>1.9</v>
       </c>
       <c r="AP184">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ184">
         <v>1.71</v>
@@ -39613,7 +39649,7 @@
         <v>222</v>
       </c>
       <c r="P185" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q185">
         <v>1.83</v>
@@ -39691,10 +39727,10 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ185">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR185">
         <v>1.58</v>
@@ -39819,7 +39855,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39897,10 +39933,10 @@
         <v>0.11</v>
       </c>
       <c r="AP186">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ186">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR186">
         <v>1.27</v>
@@ -40103,10 +40139,10 @@
         <v>1.33</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ187">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR187">
         <v>1.71</v>
@@ -40231,7 +40267,7 @@
         <v>224</v>
       </c>
       <c r="P188" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q188">
         <v>3.6</v>
@@ -40312,7 +40348,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ188">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR188">
         <v>1.32</v>
@@ -40515,10 +40551,10 @@
         <v>0.33</v>
       </c>
       <c r="AP189">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ189">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR189">
         <v>1.26</v>
@@ -40643,7 +40679,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40849,7 +40885,7 @@
         <v>226</v>
       </c>
       <c r="P191" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40930,7 +40966,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ191">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR191">
         <v>1.49</v>
@@ -41133,7 +41169,7 @@
         <v>0.18</v>
       </c>
       <c r="AP192">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
         <v>0.53</v>
@@ -41467,7 +41503,7 @@
         <v>90</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41673,7 +41709,7 @@
         <v>138</v>
       </c>
       <c r="P195" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q195">
         <v>4.5</v>
@@ -41879,7 +41915,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q196">
         <v>2.3</v>
@@ -41957,7 +41993,7 @@
         <v>0.82</v>
       </c>
       <c r="AP196">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ196">
         <v>1.29</v>
@@ -42166,7 +42202,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ197">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR197">
         <v>1.26</v>
@@ -42291,7 +42327,7 @@
         <v>91</v>
       </c>
       <c r="P198" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42497,7 +42533,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q199">
         <v>3.2</v>
@@ -42784,7 +42820,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ200">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR200">
         <v>1.51</v>
@@ -42987,10 +43023,10 @@
         <v>1.4</v>
       </c>
       <c r="AP201">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ201">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR201">
         <v>1.63</v>
@@ -43115,7 +43151,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="Q202">
         <v>3.1</v>
@@ -43193,10 +43229,10 @@
         <v>1.36</v>
       </c>
       <c r="AP202">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ202">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR202">
         <v>1.29</v>
@@ -43605,7 +43641,7 @@
         <v>1.73</v>
       </c>
       <c r="AP204">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
         <v>1.71</v>
@@ -43811,10 +43847,10 @@
         <v>0.3</v>
       </c>
       <c r="AP205">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ205">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR205">
         <v>1.64</v>
@@ -44017,10 +44053,10 @@
         <v>1.09</v>
       </c>
       <c r="AP206">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ206">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR206">
         <v>1.37</v>
@@ -44145,7 +44181,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q207">
         <v>4.5</v>
@@ -44226,7 +44262,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ207">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR207">
         <v>1.17</v>
@@ -44351,7 +44387,7 @@
         <v>235</v>
       </c>
       <c r="P208" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44429,7 +44465,7 @@
         <v>2.45</v>
       </c>
       <c r="AP208">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ208">
         <v>2.35</v>
@@ -44638,7 +44674,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ209">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR209">
         <v>1.71</v>
@@ -44763,7 +44799,7 @@
         <v>237</v>
       </c>
       <c r="P210" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="Q210">
         <v>4.75</v>
@@ -44841,7 +44877,7 @@
         <v>1.33</v>
       </c>
       <c r="AP210">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ210">
         <v>1.35</v>
@@ -44969,7 +45005,7 @@
         <v>238</v>
       </c>
       <c r="P211" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q211">
         <v>1.83</v>
@@ -45047,10 +45083,10 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ211">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR211">
         <v>1.62</v>
@@ -45253,7 +45289,7 @@
         <v>1.55</v>
       </c>
       <c r="AP212">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ212">
         <v>1.35</v>
@@ -45459,10 +45495,10 @@
         <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ213">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR213">
         <v>1.74</v>
@@ -45587,7 +45623,7 @@
         <v>90</v>
       </c>
       <c r="P214" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45668,7 +45704,7 @@
         <v>1</v>
       </c>
       <c r="AQ214">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR214">
         <v>1.25</v>
@@ -45793,7 +45829,7 @@
         <v>90</v>
       </c>
       <c r="P215" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -45874,7 +45910,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ215">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR215">
         <v>1.47</v>
@@ -46283,7 +46319,7 @@
         <v>0.92</v>
       </c>
       <c r="AP217">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ217">
         <v>0.88</v>
@@ -46492,7 +46528,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ218">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR218">
         <v>1.52</v>
@@ -46617,7 +46653,7 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q219">
         <v>5.5</v>
@@ -46901,10 +46937,10 @@
         <v>0.27</v>
       </c>
       <c r="AP220">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ220">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR220">
         <v>1.6</v>
@@ -47029,7 +47065,7 @@
         <v>90</v>
       </c>
       <c r="P221" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q221">
         <v>2.1</v>
@@ -47107,7 +47143,7 @@
         <v>1.58</v>
       </c>
       <c r="AP221">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ221">
         <v>1.71</v>
@@ -47316,7 +47352,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ222">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR222">
         <v>1.57</v>
@@ -47519,7 +47555,7 @@
         <v>1.15</v>
       </c>
       <c r="AP223">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ223">
         <v>1.29</v>
@@ -47647,7 +47683,7 @@
         <v>90</v>
       </c>
       <c r="P224" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47728,7 +47764,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ224">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR224">
         <v>1.31</v>
@@ -48059,7 +48095,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="Q226">
         <v>2.6</v>
@@ -48137,7 +48173,7 @@
         <v>1.33</v>
       </c>
       <c r="AP226">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ226">
         <v>1.29</v>
@@ -48265,7 +48301,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q227">
         <v>2.1</v>
@@ -48343,10 +48379,10 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ227">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR227">
         <v>1.7</v>
@@ -48549,7 +48585,7 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ228">
         <v>1.35</v>
@@ -48677,7 +48713,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -48758,7 +48794,7 @@
         <v>1</v>
       </c>
       <c r="AQ229">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR229">
         <v>1.22</v>
@@ -48961,10 +48997,10 @@
         <v>0.64</v>
       </c>
       <c r="AP230">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ230">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -49089,7 +49125,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Q231">
         <v>1.83</v>
@@ -49167,10 +49203,10 @@
         <v>1.17</v>
       </c>
       <c r="AP231">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ231">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR231">
         <v>1.71</v>
@@ -49376,7 +49412,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ232">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR232">
         <v>1.63</v>
@@ -49501,7 +49537,7 @@
         <v>247</v>
       </c>
       <c r="P233" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -49579,10 +49615,10 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ233">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR233">
         <v>1.34</v>
@@ -49707,7 +49743,7 @@
         <v>90</v>
       </c>
       <c r="P234" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Q234">
         <v>2.75</v>
@@ -49991,7 +50027,7 @@
         <v>2.25</v>
       </c>
       <c r="AP235">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ235">
         <v>1.82</v>
@@ -50119,7 +50155,7 @@
         <v>249</v>
       </c>
       <c r="P236" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Q236">
         <v>3.2</v>
@@ -50197,7 +50233,7 @@
         <v>1.46</v>
       </c>
       <c r="AP236">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ236">
         <v>1.29</v>
@@ -50531,7 +50567,7 @@
         <v>119</v>
       </c>
       <c r="P238" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="Q238">
         <v>10</v>
@@ -50609,7 +50645,7 @@
         <v>2.54</v>
       </c>
       <c r="AP238">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ238">
         <v>2.35</v>
@@ -50943,7 +50979,7 @@
         <v>252</v>
       </c>
       <c r="P240" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q240">
         <v>2.75</v>
@@ -51024,7 +51060,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ240">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR240">
         <v>1.5</v>
@@ -51230,7 +51266,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ241">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR241">
         <v>1.36</v>
@@ -51355,7 +51391,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51561,7 +51597,7 @@
         <v>90</v>
       </c>
       <c r="P243" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="Q243">
         <v>4.5</v>
@@ -51642,7 +51678,7 @@
         <v>1</v>
       </c>
       <c r="AQ243">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR243">
         <v>1.21</v>
@@ -51845,7 +51881,7 @@
         <v>1.69</v>
       </c>
       <c r="AP244">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ244">
         <v>1.71</v>
@@ -51973,7 +52009,7 @@
         <v>127</v>
       </c>
       <c r="P245" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q245">
         <v>2.1</v>
@@ -52051,7 +52087,7 @@
         <v>0.79</v>
       </c>
       <c r="AP245">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ245">
         <v>0.88</v>
@@ -52257,10 +52293,10 @@
         <v>1.23</v>
       </c>
       <c r="AP246">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ246">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR246">
         <v>2.34</v>
@@ -52385,7 +52421,7 @@
         <v>256</v>
       </c>
       <c r="P247" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q247">
         <v>4</v>
@@ -52466,7 +52502,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ247">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR247">
         <v>1.58</v>
@@ -52591,7 +52627,7 @@
         <v>257</v>
       </c>
       <c r="P248" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52669,7 +52705,7 @@
         <v>1.31</v>
       </c>
       <c r="AP248">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ248">
         <v>1.35</v>
@@ -52875,7 +52911,7 @@
         <v>0.43</v>
       </c>
       <c r="AP249">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ249">
         <v>0.53</v>
@@ -53290,7 +53326,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ251">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR251">
         <v>1.6</v>
@@ -53415,7 +53451,7 @@
         <v>90</v>
       </c>
       <c r="P252" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53496,7 +53532,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ252">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR252">
         <v>1.52</v>
@@ -53621,7 +53657,7 @@
         <v>259</v>
       </c>
       <c r="P253" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q253">
         <v>2.38</v>
@@ -53699,10 +53735,10 @@
         <v>1.38</v>
       </c>
       <c r="AP253">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ253">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR253">
         <v>1.84</v>
@@ -53827,7 +53863,7 @@
         <v>90</v>
       </c>
       <c r="P254" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="Q254">
         <v>2.2</v>
@@ -53905,10 +53941,10 @@
         <v>1</v>
       </c>
       <c r="AP254">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ254">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR254">
         <v>1.73</v>
@@ -54239,7 +54275,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54445,7 +54481,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54523,7 +54559,7 @@
         <v>1.36</v>
       </c>
       <c r="AP257">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ257">
         <v>1.35</v>
@@ -54651,7 +54687,7 @@
         <v>263</v>
       </c>
       <c r="P258" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54729,10 +54765,10 @@
         <v>1.14</v>
       </c>
       <c r="AP258">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ258">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR258">
         <v>1.42</v>
@@ -54938,7 +54974,7 @@
         <v>1</v>
       </c>
       <c r="AQ259">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR259">
         <v>1.22</v>
@@ -55063,7 +55099,7 @@
         <v>261</v>
       </c>
       <c r="P260" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -55144,7 +55180,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ260">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR260">
         <v>1.24</v>
@@ -55269,7 +55305,7 @@
         <v>203</v>
       </c>
       <c r="P261" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="Q261">
         <v>3.75</v>
@@ -55681,7 +55717,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q263">
         <v>1.44</v>
@@ -55759,10 +55795,10 @@
         <v>1.21</v>
       </c>
       <c r="AP263">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ263">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR263">
         <v>2.35</v>
@@ -56171,10 +56207,10 @@
         <v>0.21</v>
       </c>
       <c r="AP265">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ265">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR265">
         <v>1.83</v>
@@ -56299,7 +56335,7 @@
         <v>268</v>
       </c>
       <c r="P266" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56377,10 +56413,10 @@
         <v>0.86</v>
       </c>
       <c r="AP266">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ266">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR266">
         <v>1.64</v>
@@ -56505,7 +56541,7 @@
         <v>269</v>
       </c>
       <c r="P267" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q267">
         <v>1.91</v>
@@ -56583,10 +56619,10 @@
         <v>1.14</v>
       </c>
       <c r="AP267">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ267">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR267">
         <v>1.81</v>
@@ -56711,7 +56747,7 @@
         <v>270</v>
       </c>
       <c r="P268" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="Q268">
         <v>3</v>
@@ -56998,7 +57034,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ269">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR269">
         <v>1.35</v>
@@ -57123,7 +57159,7 @@
         <v>271</v>
       </c>
       <c r="P270" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="Q270">
         <v>4.75</v>
@@ -57201,7 +57237,7 @@
         <v>1.47</v>
       </c>
       <c r="AP270">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ270">
         <v>1.29</v>
@@ -57329,7 +57365,7 @@
         <v>245</v>
       </c>
       <c r="P271" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="Q271">
         <v>6.5</v>
@@ -57407,7 +57443,7 @@
         <v>2.57</v>
       </c>
       <c r="AP271">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ271">
         <v>2.35</v>
@@ -57535,7 +57571,7 @@
         <v>272</v>
       </c>
       <c r="P272" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q272">
         <v>2.05</v>
@@ -57613,7 +57649,7 @@
         <v>1.33</v>
       </c>
       <c r="AP272">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ272">
         <v>1.35</v>
@@ -57819,7 +57855,7 @@
         <v>0.4</v>
       </c>
       <c r="AP273">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ273">
         <v>0.53</v>
@@ -58028,7 +58064,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ274">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR274">
         <v>1.25</v>
@@ -58231,10 +58267,10 @@
         <v>0.93</v>
       </c>
       <c r="AP275">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ275">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR275">
         <v>1.7</v>
@@ -58359,7 +58395,7 @@
         <v>90</v>
       </c>
       <c r="P276" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q276">
         <v>5.5</v>
@@ -58565,7 +58601,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q277">
         <v>2.2</v>
@@ -58643,10 +58679,10 @@
         <v>0.8</v>
       </c>
       <c r="AP277">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ277">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR277">
         <v>1.89</v>
@@ -58849,10 +58885,10 @@
         <v>1.2</v>
       </c>
       <c r="AP278">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ278">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR278">
         <v>1.38</v>
@@ -59058,7 +59094,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ279">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR279">
         <v>1.54</v>
@@ -59183,7 +59219,7 @@
         <v>276</v>
       </c>
       <c r="P280" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q280">
         <v>2</v>
@@ -59261,10 +59297,10 @@
         <v>1.13</v>
       </c>
       <c r="AP280">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ280">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR280">
         <v>1.87</v>
@@ -59467,10 +59503,10 @@
         <v>1.13</v>
       </c>
       <c r="AP281">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ281">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR281">
         <v>1.87</v>
@@ -59595,7 +59631,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q282">
         <v>3</v>
@@ -59673,7 +59709,7 @@
         <v>2.47</v>
       </c>
       <c r="AP282">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AQ282">
         <v>2.35</v>
@@ -59882,7 +59918,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ283">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR283">
         <v>1.51</v>
@@ -60007,7 +60043,7 @@
         <v>154</v>
       </c>
       <c r="P284" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="Q284">
         <v>5.5</v>
@@ -60085,10 +60121,10 @@
         <v>1.27</v>
       </c>
       <c r="AP284">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ284">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR284">
         <v>1.46</v>
@@ -60213,7 +60249,7 @@
         <v>90</v>
       </c>
       <c r="P285" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q285">
         <v>2.6</v>
@@ -60291,10 +60327,10 @@
         <v>1.07</v>
       </c>
       <c r="AP285">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ285">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR285">
         <v>1.39</v>
@@ -60500,7 +60536,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ286">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR286">
         <v>1.56</v>
@@ -60625,7 +60661,7 @@
         <v>280</v>
       </c>
       <c r="P287" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -60706,7 +60742,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ287">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR287">
         <v>1.42</v>
@@ -60831,7 +60867,7 @@
         <v>281</v>
       </c>
       <c r="P288" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="Q288">
         <v>2.1</v>
@@ -60909,7 +60945,7 @@
         <v>1.67</v>
       </c>
       <c r="AP288">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ288">
         <v>1.71</v>
@@ -61037,7 +61073,7 @@
         <v>282</v>
       </c>
       <c r="P289" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q289">
         <v>3</v>
@@ -61115,7 +61151,7 @@
         <v>1.8</v>
       </c>
       <c r="AP289">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ289">
         <v>1.82</v>
@@ -61655,7 +61691,7 @@
         <v>141</v>
       </c>
       <c r="P292" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="Q292">
         <v>6</v>
@@ -62479,7 +62515,7 @@
         <v>90</v>
       </c>
       <c r="P296" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="Q296">
         <v>2.63</v>
@@ -62685,7 +62721,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="Q297">
         <v>6</v>
@@ -63048,6 +63084,1860 @@
       </c>
       <c r="BP298">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7468652</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>87</v>
+      </c>
+      <c r="H299" t="s">
+        <v>78</v>
+      </c>
+      <c r="I299">
+        <v>3</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299">
+        <v>4</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
+      <c r="M299">
+        <v>2</v>
+      </c>
+      <c r="N299">
+        <v>6</v>
+      </c>
+      <c r="O299" t="s">
+        <v>288</v>
+      </c>
+      <c r="P299" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q299">
+        <v>2.1</v>
+      </c>
+      <c r="R299">
+        <v>2.6</v>
+      </c>
+      <c r="S299">
+        <v>4.75</v>
+      </c>
+      <c r="T299">
+        <v>1.25</v>
+      </c>
+      <c r="U299">
+        <v>3.75</v>
+      </c>
+      <c r="V299">
+        <v>2.1</v>
+      </c>
+      <c r="W299">
+        <v>1.67</v>
+      </c>
+      <c r="X299">
+        <v>5</v>
+      </c>
+      <c r="Y299">
+        <v>1.17</v>
+      </c>
+      <c r="Z299">
+        <v>1.55</v>
+      </c>
+      <c r="AA299">
+        <v>4.33</v>
+      </c>
+      <c r="AB299">
+        <v>5.1</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>13</v>
+      </c>
+      <c r="AE299">
+        <v>1.17</v>
+      </c>
+      <c r="AF299">
+        <v>5</v>
+      </c>
+      <c r="AG299">
+        <v>1.45</v>
+      </c>
+      <c r="AH299">
+        <v>2.63</v>
+      </c>
+      <c r="AI299">
+        <v>1.53</v>
+      </c>
+      <c r="AJ299">
+        <v>2.38</v>
+      </c>
+      <c r="AK299">
+        <v>1.18</v>
+      </c>
+      <c r="AL299">
+        <v>1.18</v>
+      </c>
+      <c r="AM299">
+        <v>2.2</v>
+      </c>
+      <c r="AN299">
+        <v>1.94</v>
+      </c>
+      <c r="AO299">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP299">
+        <v>2</v>
+      </c>
+      <c r="AQ299">
+        <v>0.76</v>
+      </c>
+      <c r="AR299">
+        <v>1.85</v>
+      </c>
+      <c r="AS299">
+        <v>1.47</v>
+      </c>
+      <c r="AT299">
+        <v>3.32</v>
+      </c>
+      <c r="AU299">
+        <v>10</v>
+      </c>
+      <c r="AV299">
+        <v>4</v>
+      </c>
+      <c r="AW299">
+        <v>9</v>
+      </c>
+      <c r="AX299">
+        <v>6</v>
+      </c>
+      <c r="AY299">
+        <v>22</v>
+      </c>
+      <c r="AZ299">
+        <v>10</v>
+      </c>
+      <c r="BA299">
+        <v>5</v>
+      </c>
+      <c r="BB299">
+        <v>5</v>
+      </c>
+      <c r="BC299">
+        <v>10</v>
+      </c>
+      <c r="BD299">
+        <v>1.56</v>
+      </c>
+      <c r="BE299">
+        <v>6.4</v>
+      </c>
+      <c r="BF299">
+        <v>2.7</v>
+      </c>
+      <c r="BG299">
+        <v>1.38</v>
+      </c>
+      <c r="BH299">
+        <v>2.7</v>
+      </c>
+      <c r="BI299">
+        <v>1.66</v>
+      </c>
+      <c r="BJ299">
+        <v>2.06</v>
+      </c>
+      <c r="BK299">
+        <v>2.08</v>
+      </c>
+      <c r="BL299">
+        <v>1.65</v>
+      </c>
+      <c r="BM299">
+        <v>2.65</v>
+      </c>
+      <c r="BN299">
+        <v>1.41</v>
+      </c>
+      <c r="BO299">
+        <v>3.55</v>
+      </c>
+      <c r="BP299">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7468653</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>80</v>
+      </c>
+      <c r="H300" t="s">
+        <v>77</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>289</v>
+      </c>
+      <c r="P300" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q300">
+        <v>1.67</v>
+      </c>
+      <c r="R300">
+        <v>2.88</v>
+      </c>
+      <c r="S300">
+        <v>7.5</v>
+      </c>
+      <c r="T300">
+        <v>1.22</v>
+      </c>
+      <c r="U300">
+        <v>4</v>
+      </c>
+      <c r="V300">
+        <v>2</v>
+      </c>
+      <c r="W300">
+        <v>1.73</v>
+      </c>
+      <c r="X300">
+        <v>4.33</v>
+      </c>
+      <c r="Y300">
+        <v>1.2</v>
+      </c>
+      <c r="Z300">
+        <v>1.35</v>
+      </c>
+      <c r="AA300">
+        <v>5.2</v>
+      </c>
+      <c r="AB300">
+        <v>7.3</v>
+      </c>
+      <c r="AC300">
+        <v>1.03</v>
+      </c>
+      <c r="AD300">
+        <v>11</v>
+      </c>
+      <c r="AE300">
+        <v>1.12</v>
+      </c>
+      <c r="AF300">
+        <v>6</v>
+      </c>
+      <c r="AG300">
+        <v>1.58</v>
+      </c>
+      <c r="AH300">
+        <v>2.37</v>
+      </c>
+      <c r="AI300">
+        <v>1.75</v>
+      </c>
+      <c r="AJ300">
+        <v>2</v>
+      </c>
+      <c r="AK300">
+        <v>1.07</v>
+      </c>
+      <c r="AL300">
+        <v>1.09</v>
+      </c>
+      <c r="AM300">
+        <v>3.4</v>
+      </c>
+      <c r="AN300">
+        <v>2</v>
+      </c>
+      <c r="AO300">
+        <v>1.19</v>
+      </c>
+      <c r="AP300">
+        <v>2.06</v>
+      </c>
+      <c r="AQ300">
+        <v>1.12</v>
+      </c>
+      <c r="AR300">
+        <v>1.75</v>
+      </c>
+      <c r="AS300">
+        <v>1.06</v>
+      </c>
+      <c r="AT300">
+        <v>2.81</v>
+      </c>
+      <c r="AU300">
+        <v>5</v>
+      </c>
+      <c r="AV300">
+        <v>4</v>
+      </c>
+      <c r="AW300">
+        <v>15</v>
+      </c>
+      <c r="AX300">
+        <v>10</v>
+      </c>
+      <c r="AY300">
+        <v>26</v>
+      </c>
+      <c r="AZ300">
+        <v>19</v>
+      </c>
+      <c r="BA300">
+        <v>8</v>
+      </c>
+      <c r="BB300">
+        <v>8</v>
+      </c>
+      <c r="BC300">
+        <v>16</v>
+      </c>
+      <c r="BD300">
+        <v>1.27</v>
+      </c>
+      <c r="BE300">
+        <v>7.5</v>
+      </c>
+      <c r="BF300">
+        <v>4.1</v>
+      </c>
+      <c r="BG300">
+        <v>1.29</v>
+      </c>
+      <c r="BH300">
+        <v>3.15</v>
+      </c>
+      <c r="BI300">
+        <v>1.5</v>
+      </c>
+      <c r="BJ300">
+        <v>2.33</v>
+      </c>
+      <c r="BK300">
+        <v>1.83</v>
+      </c>
+      <c r="BL300">
+        <v>1.85</v>
+      </c>
+      <c r="BM300">
+        <v>2.3</v>
+      </c>
+      <c r="BN300">
+        <v>1.53</v>
+      </c>
+      <c r="BO300">
+        <v>2.95</v>
+      </c>
+      <c r="BP300">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7468654</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>86</v>
+      </c>
+      <c r="H301" t="s">
+        <v>71</v>
+      </c>
+      <c r="I301">
+        <v>3</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>3</v>
+      </c>
+      <c r="L301">
+        <v>6</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>6</v>
+      </c>
+      <c r="O301" t="s">
+        <v>290</v>
+      </c>
+      <c r="P301" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q301">
+        <v>1.91</v>
+      </c>
+      <c r="R301">
+        <v>2.63</v>
+      </c>
+      <c r="S301">
+        <v>6</v>
+      </c>
+      <c r="T301">
+        <v>1.25</v>
+      </c>
+      <c r="U301">
+        <v>3.75</v>
+      </c>
+      <c r="V301">
+        <v>2.2</v>
+      </c>
+      <c r="W301">
+        <v>1.62</v>
+      </c>
+      <c r="X301">
+        <v>5</v>
+      </c>
+      <c r="Y301">
+        <v>1.17</v>
+      </c>
+      <c r="Z301">
+        <v>1.63</v>
+      </c>
+      <c r="AA301">
+        <v>3.9</v>
+      </c>
+      <c r="AB301">
+        <v>5</v>
+      </c>
+      <c r="AC301">
+        <v>1.03</v>
+      </c>
+      <c r="AD301">
+        <v>11</v>
+      </c>
+      <c r="AE301">
+        <v>1.17</v>
+      </c>
+      <c r="AF301">
+        <v>5</v>
+      </c>
+      <c r="AG301">
+        <v>1.6</v>
+      </c>
+      <c r="AH301">
+        <v>2.25</v>
+      </c>
+      <c r="AI301">
+        <v>1.67</v>
+      </c>
+      <c r="AJ301">
+        <v>2.1</v>
+      </c>
+      <c r="AK301">
+        <v>1.11</v>
+      </c>
+      <c r="AL301">
+        <v>1.14</v>
+      </c>
+      <c r="AM301">
+        <v>2.7</v>
+      </c>
+      <c r="AN301">
+        <v>2.13</v>
+      </c>
+      <c r="AO301">
+        <v>1.06</v>
+      </c>
+      <c r="AP301">
+        <v>2.18</v>
+      </c>
+      <c r="AQ301">
+        <v>1</v>
+      </c>
+      <c r="AR301">
+        <v>1.82</v>
+      </c>
+      <c r="AS301">
+        <v>1.42</v>
+      </c>
+      <c r="AT301">
+        <v>3.24</v>
+      </c>
+      <c r="AU301">
+        <v>8</v>
+      </c>
+      <c r="AV301">
+        <v>2</v>
+      </c>
+      <c r="AW301">
+        <v>11</v>
+      </c>
+      <c r="AX301">
+        <v>9</v>
+      </c>
+      <c r="AY301">
+        <v>19</v>
+      </c>
+      <c r="AZ301">
+        <v>11</v>
+      </c>
+      <c r="BA301">
+        <v>5</v>
+      </c>
+      <c r="BB301">
+        <v>2</v>
+      </c>
+      <c r="BC301">
+        <v>7</v>
+      </c>
+      <c r="BD301">
+        <v>1.27</v>
+      </c>
+      <c r="BE301">
+        <v>7.5</v>
+      </c>
+      <c r="BF301">
+        <v>4.1</v>
+      </c>
+      <c r="BG301">
+        <v>1.29</v>
+      </c>
+      <c r="BH301">
+        <v>3.2</v>
+      </c>
+      <c r="BI301">
+        <v>1.5</v>
+      </c>
+      <c r="BJ301">
+        <v>2.38</v>
+      </c>
+      <c r="BK301">
+        <v>1.82</v>
+      </c>
+      <c r="BL301">
+        <v>1.86</v>
+      </c>
+      <c r="BM301">
+        <v>2.28</v>
+      </c>
+      <c r="BN301">
+        <v>1.54</v>
+      </c>
+      <c r="BO301">
+        <v>2.9</v>
+      </c>
+      <c r="BP301">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7468655</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>82</v>
+      </c>
+      <c r="H302" t="s">
+        <v>76</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>2</v>
+      </c>
+      <c r="K302">
+        <v>3</v>
+      </c>
+      <c r="L302">
+        <v>2</v>
+      </c>
+      <c r="M302">
+        <v>3</v>
+      </c>
+      <c r="N302">
+        <v>5</v>
+      </c>
+      <c r="O302" t="s">
+        <v>291</v>
+      </c>
+      <c r="P302" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q302">
+        <v>2.4</v>
+      </c>
+      <c r="R302">
+        <v>2.4</v>
+      </c>
+      <c r="S302">
+        <v>4</v>
+      </c>
+      <c r="T302">
+        <v>1.29</v>
+      </c>
+      <c r="U302">
+        <v>3.5</v>
+      </c>
+      <c r="V302">
+        <v>2.25</v>
+      </c>
+      <c r="W302">
+        <v>1.57</v>
+      </c>
+      <c r="X302">
+        <v>5.5</v>
+      </c>
+      <c r="Y302">
+        <v>1.14</v>
+      </c>
+      <c r="Z302">
+        <v>1.86</v>
+      </c>
+      <c r="AA302">
+        <v>4.1</v>
+      </c>
+      <c r="AB302">
+        <v>3.41</v>
+      </c>
+      <c r="AC302">
+        <v>1.03</v>
+      </c>
+      <c r="AD302">
+        <v>11</v>
+      </c>
+      <c r="AE302">
+        <v>1.18</v>
+      </c>
+      <c r="AF302">
+        <v>4.75</v>
+      </c>
+      <c r="AG302">
+        <v>1.57</v>
+      </c>
+      <c r="AH302">
+        <v>2.25</v>
+      </c>
+      <c r="AI302">
+        <v>1.53</v>
+      </c>
+      <c r="AJ302">
+        <v>2.38</v>
+      </c>
+      <c r="AK302">
+        <v>1.3</v>
+      </c>
+      <c r="AL302">
+        <v>1.2</v>
+      </c>
+      <c r="AM302">
+        <v>1.83</v>
+      </c>
+      <c r="AN302">
+        <v>1.31</v>
+      </c>
+      <c r="AO302">
+        <v>1.19</v>
+      </c>
+      <c r="AP302">
+        <v>1.24</v>
+      </c>
+      <c r="AQ302">
+        <v>1.29</v>
+      </c>
+      <c r="AR302">
+        <v>1.45</v>
+      </c>
+      <c r="AS302">
+        <v>1.36</v>
+      </c>
+      <c r="AT302">
+        <v>2.81</v>
+      </c>
+      <c r="AU302">
+        <v>7</v>
+      </c>
+      <c r="AV302">
+        <v>9</v>
+      </c>
+      <c r="AW302">
+        <v>11</v>
+      </c>
+      <c r="AX302">
+        <v>10</v>
+      </c>
+      <c r="AY302">
+        <v>19</v>
+      </c>
+      <c r="AZ302">
+        <v>20</v>
+      </c>
+      <c r="BA302">
+        <v>7</v>
+      </c>
+      <c r="BB302">
+        <v>6</v>
+      </c>
+      <c r="BC302">
+        <v>13</v>
+      </c>
+      <c r="BD302">
+        <v>1.68</v>
+      </c>
+      <c r="BE302">
+        <v>6.5</v>
+      </c>
+      <c r="BF302">
+        <v>2.4</v>
+      </c>
+      <c r="BG302">
+        <v>1.24</v>
+      </c>
+      <c r="BH302">
+        <v>3.55</v>
+      </c>
+      <c r="BI302">
+        <v>1.43</v>
+      </c>
+      <c r="BJ302">
+        <v>2.55</v>
+      </c>
+      <c r="BK302">
+        <v>1.72</v>
+      </c>
+      <c r="BL302">
+        <v>1.98</v>
+      </c>
+      <c r="BM302">
+        <v>2.1</v>
+      </c>
+      <c r="BN302">
+        <v>1.64</v>
+      </c>
+      <c r="BO302">
+        <v>2.65</v>
+      </c>
+      <c r="BP302">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7468656</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>81</v>
+      </c>
+      <c r="H303" t="s">
+        <v>72</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>2</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>292</v>
+      </c>
+      <c r="P303" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q303">
+        <v>1.83</v>
+      </c>
+      <c r="R303">
+        <v>2.5</v>
+      </c>
+      <c r="S303">
+        <v>7</v>
+      </c>
+      <c r="T303">
+        <v>1.3</v>
+      </c>
+      <c r="U303">
+        <v>3.4</v>
+      </c>
+      <c r="V303">
+        <v>2.5</v>
+      </c>
+      <c r="W303">
+        <v>1.5</v>
+      </c>
+      <c r="X303">
+        <v>6</v>
+      </c>
+      <c r="Y303">
+        <v>1.13</v>
+      </c>
+      <c r="Z303">
+        <v>1.43</v>
+      </c>
+      <c r="AA303">
+        <v>4.4</v>
+      </c>
+      <c r="AB303">
+        <v>6.9</v>
+      </c>
+      <c r="AC303">
+        <v>1.04</v>
+      </c>
+      <c r="AD303">
+        <v>10</v>
+      </c>
+      <c r="AE303">
+        <v>1.22</v>
+      </c>
+      <c r="AF303">
+        <v>4.2</v>
+      </c>
+      <c r="AG303">
+        <v>1.98</v>
+      </c>
+      <c r="AH303">
+        <v>1.77</v>
+      </c>
+      <c r="AI303">
+        <v>1.95</v>
+      </c>
+      <c r="AJ303">
+        <v>1.8</v>
+      </c>
+      <c r="AK303">
+        <v>1.08</v>
+      </c>
+      <c r="AL303">
+        <v>1.14</v>
+      </c>
+      <c r="AM303">
+        <v>2.9</v>
+      </c>
+      <c r="AN303">
+        <v>2.13</v>
+      </c>
+      <c r="AO303">
+        <v>1.06</v>
+      </c>
+      <c r="AP303">
+        <v>2.18</v>
+      </c>
+      <c r="AQ303">
+        <v>1</v>
+      </c>
+      <c r="AR303">
+        <v>1.6</v>
+      </c>
+      <c r="AS303">
+        <v>1.23</v>
+      </c>
+      <c r="AT303">
+        <v>2.83</v>
+      </c>
+      <c r="AU303">
+        <v>6</v>
+      </c>
+      <c r="AV303">
+        <v>3</v>
+      </c>
+      <c r="AW303">
+        <v>15</v>
+      </c>
+      <c r="AX303">
+        <v>2</v>
+      </c>
+      <c r="AY303">
+        <v>27</v>
+      </c>
+      <c r="AZ303">
+        <v>5</v>
+      </c>
+      <c r="BA303">
+        <v>10</v>
+      </c>
+      <c r="BB303">
+        <v>3</v>
+      </c>
+      <c r="BC303">
+        <v>13</v>
+      </c>
+      <c r="BD303">
+        <v>1.23</v>
+      </c>
+      <c r="BE303">
+        <v>8.5</v>
+      </c>
+      <c r="BF303">
+        <v>4.6</v>
+      </c>
+      <c r="BG303">
+        <v>1.26</v>
+      </c>
+      <c r="BH303">
+        <v>3.4</v>
+      </c>
+      <c r="BI303">
+        <v>1.47</v>
+      </c>
+      <c r="BJ303">
+        <v>2.48</v>
+      </c>
+      <c r="BK303">
+        <v>1.75</v>
+      </c>
+      <c r="BL303">
+        <v>1.95</v>
+      </c>
+      <c r="BM303">
+        <v>2.17</v>
+      </c>
+      <c r="BN303">
+        <v>1.6</v>
+      </c>
+      <c r="BO303">
+        <v>2.75</v>
+      </c>
+      <c r="BP303">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7468657</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>84</v>
+      </c>
+      <c r="H304" t="s">
+        <v>70</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>2</v>
+      </c>
+      <c r="M304">
+        <v>3</v>
+      </c>
+      <c r="N304">
+        <v>5</v>
+      </c>
+      <c r="O304" t="s">
+        <v>293</v>
+      </c>
+      <c r="P304" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q304">
+        <v>2.05</v>
+      </c>
+      <c r="R304">
+        <v>2.5</v>
+      </c>
+      <c r="S304">
+        <v>5</v>
+      </c>
+      <c r="T304">
+        <v>1.25</v>
+      </c>
+      <c r="U304">
+        <v>3.75</v>
+      </c>
+      <c r="V304">
+        <v>2.25</v>
+      </c>
+      <c r="W304">
+        <v>1.57</v>
+      </c>
+      <c r="X304">
+        <v>5.5</v>
+      </c>
+      <c r="Y304">
+        <v>1.14</v>
+      </c>
+      <c r="Z304">
+        <v>1.53</v>
+      </c>
+      <c r="AA304">
+        <v>4.2</v>
+      </c>
+      <c r="AB304">
+        <v>5.7</v>
+      </c>
+      <c r="AC304">
+        <v>1.03</v>
+      </c>
+      <c r="AD304">
+        <v>11</v>
+      </c>
+      <c r="AE304">
+        <v>1.17</v>
+      </c>
+      <c r="AF304">
+        <v>5</v>
+      </c>
+      <c r="AG304">
+        <v>1.57</v>
+      </c>
+      <c r="AH304">
+        <v>2.25</v>
+      </c>
+      <c r="AI304">
+        <v>1.67</v>
+      </c>
+      <c r="AJ304">
+        <v>2.1</v>
+      </c>
+      <c r="AK304">
+        <v>1.17</v>
+      </c>
+      <c r="AL304">
+        <v>1.17</v>
+      </c>
+      <c r="AM304">
+        <v>2.3</v>
+      </c>
+      <c r="AN304">
+        <v>2.19</v>
+      </c>
+      <c r="AO304">
+        <v>1.25</v>
+      </c>
+      <c r="AP304">
+        <v>2.06</v>
+      </c>
+      <c r="AQ304">
+        <v>1.35</v>
+      </c>
+      <c r="AR304">
+        <v>1.41</v>
+      </c>
+      <c r="AS304">
+        <v>1.12</v>
+      </c>
+      <c r="AT304">
+        <v>2.53</v>
+      </c>
+      <c r="AU304">
+        <v>5</v>
+      </c>
+      <c r="AV304">
+        <v>7</v>
+      </c>
+      <c r="AW304">
+        <v>2</v>
+      </c>
+      <c r="AX304">
+        <v>5</v>
+      </c>
+      <c r="AY304">
+        <v>7</v>
+      </c>
+      <c r="AZ304">
+        <v>12</v>
+      </c>
+      <c r="BA304">
+        <v>4</v>
+      </c>
+      <c r="BB304">
+        <v>3</v>
+      </c>
+      <c r="BC304">
+        <v>7</v>
+      </c>
+      <c r="BD304">
+        <v>1.52</v>
+      </c>
+      <c r="BE304">
+        <v>6.75</v>
+      </c>
+      <c r="BF304">
+        <v>2.8</v>
+      </c>
+      <c r="BG304">
+        <v>1.29</v>
+      </c>
+      <c r="BH304">
+        <v>3.2</v>
+      </c>
+      <c r="BI304">
+        <v>1.5</v>
+      </c>
+      <c r="BJ304">
+        <v>2.38</v>
+      </c>
+      <c r="BK304">
+        <v>1.82</v>
+      </c>
+      <c r="BL304">
+        <v>1.86</v>
+      </c>
+      <c r="BM304">
+        <v>2.3</v>
+      </c>
+      <c r="BN304">
+        <v>1.54</v>
+      </c>
+      <c r="BO304">
+        <v>2.9</v>
+      </c>
+      <c r="BP304">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7468658</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>85</v>
+      </c>
+      <c r="H305" t="s">
+        <v>75</v>
+      </c>
+      <c r="I305">
+        <v>2</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>2</v>
+      </c>
+      <c r="L305">
+        <v>3</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305" t="s">
+        <v>294</v>
+      </c>
+      <c r="P305" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q305">
+        <v>2.1</v>
+      </c>
+      <c r="R305">
+        <v>2.38</v>
+      </c>
+      <c r="S305">
+        <v>5.5</v>
+      </c>
+      <c r="T305">
+        <v>1.33</v>
+      </c>
+      <c r="U305">
+        <v>3.25</v>
+      </c>
+      <c r="V305">
+        <v>2.5</v>
+      </c>
+      <c r="W305">
+        <v>1.5</v>
+      </c>
+      <c r="X305">
+        <v>6.5</v>
+      </c>
+      <c r="Y305">
+        <v>1.11</v>
+      </c>
+      <c r="Z305">
+        <v>1.57</v>
+      </c>
+      <c r="AA305">
+        <v>4.33</v>
+      </c>
+      <c r="AB305">
+        <v>4.9</v>
+      </c>
+      <c r="AC305">
+        <v>1.04</v>
+      </c>
+      <c r="AD305">
+        <v>10</v>
+      </c>
+      <c r="AE305">
+        <v>1.25</v>
+      </c>
+      <c r="AF305">
+        <v>3.95</v>
+      </c>
+      <c r="AG305">
+        <v>1.87</v>
+      </c>
+      <c r="AH305">
+        <v>1.87</v>
+      </c>
+      <c r="AI305">
+        <v>1.8</v>
+      </c>
+      <c r="AJ305">
+        <v>1.95</v>
+      </c>
+      <c r="AK305">
+        <v>1.15</v>
+      </c>
+      <c r="AL305">
+        <v>1.18</v>
+      </c>
+      <c r="AM305">
+        <v>2.3</v>
+      </c>
+      <c r="AN305">
+        <v>1.13</v>
+      </c>
+      <c r="AO305">
+        <v>0.19</v>
+      </c>
+      <c r="AP305">
+        <v>1.24</v>
+      </c>
+      <c r="AQ305">
+        <v>0.18</v>
+      </c>
+      <c r="AR305">
+        <v>1.38</v>
+      </c>
+      <c r="AS305">
+        <v>1.15</v>
+      </c>
+      <c r="AT305">
+        <v>2.53</v>
+      </c>
+      <c r="AU305">
+        <v>8</v>
+      </c>
+      <c r="AV305">
+        <v>0</v>
+      </c>
+      <c r="AW305">
+        <v>11</v>
+      </c>
+      <c r="AX305">
+        <v>11</v>
+      </c>
+      <c r="AY305">
+        <v>23</v>
+      </c>
+      <c r="AZ305">
+        <v>14</v>
+      </c>
+      <c r="BA305">
+        <v>7</v>
+      </c>
+      <c r="BB305">
+        <v>2</v>
+      </c>
+      <c r="BC305">
+        <v>9</v>
+      </c>
+      <c r="BD305">
+        <v>1.5</v>
+      </c>
+      <c r="BE305">
+        <v>6.75</v>
+      </c>
+      <c r="BF305">
+        <v>2.9</v>
+      </c>
+      <c r="BG305">
+        <v>1.26</v>
+      </c>
+      <c r="BH305">
+        <v>3.4</v>
+      </c>
+      <c r="BI305">
+        <v>1.46</v>
+      </c>
+      <c r="BJ305">
+        <v>2.48</v>
+      </c>
+      <c r="BK305">
+        <v>1.75</v>
+      </c>
+      <c r="BL305">
+        <v>1.95</v>
+      </c>
+      <c r="BM305">
+        <v>2.18</v>
+      </c>
+      <c r="BN305">
+        <v>1.58</v>
+      </c>
+      <c r="BO305">
+        <v>2.8</v>
+      </c>
+      <c r="BP305">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7468659</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>83</v>
+      </c>
+      <c r="H306" t="s">
+        <v>73</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>4</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>4</v>
+      </c>
+      <c r="O306" t="s">
+        <v>295</v>
+      </c>
+      <c r="P306" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q306">
+        <v>3.6</v>
+      </c>
+      <c r="R306">
+        <v>2.5</v>
+      </c>
+      <c r="S306">
+        <v>2.5</v>
+      </c>
+      <c r="T306">
+        <v>1.25</v>
+      </c>
+      <c r="U306">
+        <v>3.75</v>
+      </c>
+      <c r="V306">
+        <v>2.2</v>
+      </c>
+      <c r="W306">
+        <v>1.62</v>
+      </c>
+      <c r="X306">
+        <v>5</v>
+      </c>
+      <c r="Y306">
+        <v>1.17</v>
+      </c>
+      <c r="Z306">
+        <v>3.87</v>
+      </c>
+      <c r="AA306">
+        <v>3.92</v>
+      </c>
+      <c r="AB306">
+        <v>1.8</v>
+      </c>
+      <c r="AC306">
+        <v>1.04</v>
+      </c>
+      <c r="AD306">
+        <v>10</v>
+      </c>
+      <c r="AE306">
+        <v>1.18</v>
+      </c>
+      <c r="AF306">
+        <v>4.75</v>
+      </c>
+      <c r="AG306">
+        <v>1.48</v>
+      </c>
+      <c r="AH306">
+        <v>2.43</v>
+      </c>
+      <c r="AI306">
+        <v>1.5</v>
+      </c>
+      <c r="AJ306">
+        <v>2.5</v>
+      </c>
+      <c r="AK306">
+        <v>1.73</v>
+      </c>
+      <c r="AL306">
+        <v>1.22</v>
+      </c>
+      <c r="AM306">
+        <v>1.33</v>
+      </c>
+      <c r="AN306">
+        <v>1.25</v>
+      </c>
+      <c r="AO306">
+        <v>1.38</v>
+      </c>
+      <c r="AP306">
+        <v>1.35</v>
+      </c>
+      <c r="AQ306">
+        <v>1.29</v>
+      </c>
+      <c r="AR306">
+        <v>1.87</v>
+      </c>
+      <c r="AS306">
+        <v>1.69</v>
+      </c>
+      <c r="AT306">
+        <v>3.56</v>
+      </c>
+      <c r="AU306">
+        <v>7</v>
+      </c>
+      <c r="AV306">
+        <v>3</v>
+      </c>
+      <c r="AW306">
+        <v>14</v>
+      </c>
+      <c r="AX306">
+        <v>3</v>
+      </c>
+      <c r="AY306">
+        <v>27</v>
+      </c>
+      <c r="AZ306">
+        <v>8</v>
+      </c>
+      <c r="BA306">
+        <v>5</v>
+      </c>
+      <c r="BB306">
+        <v>4</v>
+      </c>
+      <c r="BC306">
+        <v>9</v>
+      </c>
+      <c r="BD306">
+        <v>1.98</v>
+      </c>
+      <c r="BE306">
+        <v>6.25</v>
+      </c>
+      <c r="BF306">
+        <v>2.05</v>
+      </c>
+      <c r="BG306">
+        <v>1.3</v>
+      </c>
+      <c r="BH306">
+        <v>3.05</v>
+      </c>
+      <c r="BI306">
+        <v>1.53</v>
+      </c>
+      <c r="BJ306">
+        <v>2.3</v>
+      </c>
+      <c r="BK306">
+        <v>1.88</v>
+      </c>
+      <c r="BL306">
+        <v>1.81</v>
+      </c>
+      <c r="BM306">
+        <v>2.38</v>
+      </c>
+      <c r="BN306">
+        <v>1.5</v>
+      </c>
+      <c r="BO306">
+        <v>3.1</v>
+      </c>
+      <c r="BP306">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7468660</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>79</v>
+      </c>
+      <c r="H307" t="s">
+        <v>74</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>3</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>4</v>
+      </c>
+      <c r="O307" t="s">
+        <v>296</v>
+      </c>
+      <c r="P307" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q307">
+        <v>1.53</v>
+      </c>
+      <c r="R307">
+        <v>3.25</v>
+      </c>
+      <c r="S307">
+        <v>8.5</v>
+      </c>
+      <c r="T307">
+        <v>1.17</v>
+      </c>
+      <c r="U307">
+        <v>5</v>
+      </c>
+      <c r="V307">
+        <v>1.8</v>
+      </c>
+      <c r="W307">
+        <v>1.91</v>
+      </c>
+      <c r="X307">
+        <v>3.5</v>
+      </c>
+      <c r="Y307">
+        <v>1.29</v>
+      </c>
+      <c r="Z307">
+        <v>1.26</v>
+      </c>
+      <c r="AA307">
+        <v>5.2</v>
+      </c>
+      <c r="AB307">
+        <v>12</v>
+      </c>
+      <c r="AC307">
+        <v>1.03</v>
+      </c>
+      <c r="AD307">
+        <v>11</v>
+      </c>
+      <c r="AE307">
+        <v>1.07</v>
+      </c>
+      <c r="AF307">
+        <v>8</v>
+      </c>
+      <c r="AG307">
+        <v>1.58</v>
+      </c>
+      <c r="AH307">
+        <v>2.37</v>
+      </c>
+      <c r="AI307">
+        <v>1.67</v>
+      </c>
+      <c r="AJ307">
+        <v>2.1</v>
+      </c>
+      <c r="AK307">
+        <v>1.05</v>
+      </c>
+      <c r="AL307">
+        <v>1.09</v>
+      </c>
+      <c r="AM307">
+        <v>4.2</v>
+      </c>
+      <c r="AN307">
+        <v>2.56</v>
+      </c>
+      <c r="AO307">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP307">
+        <v>2.59</v>
+      </c>
+      <c r="AQ307">
+        <v>0.88</v>
+      </c>
+      <c r="AR307">
+        <v>2.46</v>
+      </c>
+      <c r="AS307">
+        <v>1.32</v>
+      </c>
+      <c r="AT307">
+        <v>3.78</v>
+      </c>
+      <c r="AU307">
+        <v>10</v>
+      </c>
+      <c r="AV307">
+        <v>3</v>
+      </c>
+      <c r="AW307">
+        <v>12</v>
+      </c>
+      <c r="AX307">
+        <v>5</v>
+      </c>
+      <c r="AY307">
+        <v>25</v>
+      </c>
+      <c r="AZ307">
+        <v>9</v>
+      </c>
+      <c r="BA307">
+        <v>5</v>
+      </c>
+      <c r="BB307">
+        <v>2</v>
+      </c>
+      <c r="BC307">
+        <v>7</v>
+      </c>
+      <c r="BD307">
+        <v>1.13</v>
+      </c>
+      <c r="BE307">
+        <v>9.5</v>
+      </c>
+      <c r="BF307">
+        <v>6.4</v>
+      </c>
+      <c r="BG307">
+        <v>1.29</v>
+      </c>
+      <c r="BH307">
+        <v>3.15</v>
+      </c>
+      <c r="BI307">
+        <v>1.5</v>
+      </c>
+      <c r="BJ307">
+        <v>2.33</v>
+      </c>
+      <c r="BK307">
+        <v>1.82</v>
+      </c>
+      <c r="BL307">
+        <v>1.86</v>
+      </c>
+      <c r="BM307">
+        <v>2.28</v>
+      </c>
+      <c r="BN307">
+        <v>1.55</v>
+      </c>
+      <c r="BO307">
+        <v>2.9</v>
+      </c>
+      <c r="BP307">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
